--- a/pasze tresciwe i obetosciowe do aplikacji.xlsx
+++ b/pasze tresciwe i obetosciowe do aplikacji.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>pasze</t>
   </si>
@@ -592,6 +592,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nuba Sunny Mash </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuba Hawaii Mash </t>
   </si>
   <si>
     <t>Hoveler Reformin</t>
@@ -1059,7 +1062,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1201,11 +1204,20 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1213,37 +1225,31 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2298,7 +2304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:AE168"/>
+  <dimension ref="A2:AE169"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -10709,216 +10715,236 @@
       <c r="AE121" s="24"/>
     </row>
     <row r="122" ht="20.2" customHeight="1">
-      <c r="A122" t="s" s="14">
+      <c r="A122" t="s" s="26">
         <v>186</v>
       </c>
-      <c r="B122" t="s" s="25">
-        <v>187</v>
-      </c>
-      <c r="C122" t="s" s="16">
-        <v>188</v>
-      </c>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="17">
-        <v>88</v>
-      </c>
-      <c r="H122" s="17">
-        <v>23</v>
-      </c>
-      <c r="I122" s="17">
-        <v>38</v>
-      </c>
-      <c r="J122" s="17"/>
-      <c r="K122" s="17">
-        <v>19</v>
-      </c>
-      <c r="L122" s="17">
+      <c r="B122" t="s" s="47">
+        <v>37</v>
+      </c>
+      <c r="C122" t="s" s="28">
+        <v>33</v>
+      </c>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="30">
+        <v>13.2</v>
+      </c>
+      <c r="G122" s="29">
+        <v>153</v>
+      </c>
+      <c r="H122" s="29">
+        <v>98</v>
+      </c>
+      <c r="I122" s="29">
+        <v>151</v>
+      </c>
+      <c r="J122" s="29">
+        <v>6.3</v>
+      </c>
+      <c r="K122" s="29">
+        <v>7.4</v>
+      </c>
+      <c r="L122" s="29">
+        <v>5.4</v>
+      </c>
+      <c r="M122" s="29">
+        <v>2.7</v>
+      </c>
+      <c r="N122" s="29">
+        <v>7.2</v>
+      </c>
+      <c r="O122" s="29">
+        <v>1.9</v>
+      </c>
+      <c r="P122" s="29">
+        <v>3.2</v>
+      </c>
+      <c r="Q122" s="29">
+        <v>1.7</v>
+      </c>
+      <c r="R122" s="29">
+        <v>0.08</v>
+      </c>
+      <c r="S122" s="29">
         <v>10</v>
       </c>
-      <c r="M122" s="17">
-        <v>6</v>
-      </c>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17">
-        <v>4</v>
-      </c>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
-      <c r="R122" s="17"/>
-      <c r="S122" s="17">
-        <v>300</v>
-      </c>
-      <c r="T122" s="17">
-        <v>12.5</v>
-      </c>
-      <c r="U122" s="17">
-        <v>663</v>
-      </c>
-      <c r="V122" s="17">
-        <v>700</v>
-      </c>
-      <c r="W122" s="17">
-        <v>9</v>
-      </c>
-      <c r="X122" s="17">
-        <v>2500</v>
-      </c>
-      <c r="Y122" s="17">
-        <v>100000</v>
-      </c>
-      <c r="Z122" s="17">
-        <v>30000</v>
-      </c>
-      <c r="AA122" s="17">
-        <v>2500</v>
-      </c>
-      <c r="AB122" s="17">
-        <v>57</v>
-      </c>
-      <c r="AC122" s="17">
-        <v>85</v>
-      </c>
-      <c r="AD122" s="17"/>
-      <c r="AE122" s="19"/>
+      <c r="T122" s="29">
+        <v>0.06</v>
+      </c>
+      <c r="U122" s="29">
+        <v>123</v>
+      </c>
+      <c r="V122" s="29">
+        <v>42</v>
+      </c>
+      <c r="W122" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="X122" s="29">
+        <v>46</v>
+      </c>
+      <c r="Y122" s="29"/>
+      <c r="Z122" s="29"/>
+      <c r="AA122" s="29"/>
+      <c r="AB122" s="29"/>
+      <c r="AC122" s="29"/>
+      <c r="AD122" s="29"/>
+      <c r="AE122" s="31"/>
     </row>
     <row r="123" ht="20.2" customHeight="1">
       <c r="A123" t="s" s="14">
+        <v>187</v>
+      </c>
+      <c r="B123" t="s" s="32">
+        <v>188</v>
+      </c>
+      <c r="C123" t="s" s="21">
         <v>189</v>
-      </c>
-      <c r="B123" t="s" s="32">
-        <v>187</v>
-      </c>
-      <c r="C123" t="s" s="21">
-        <v>33</v>
       </c>
       <c r="D123" s="22"/>
       <c r="E123" s="22"/>
-      <c r="F123" s="23">
-        <v>12.6</v>
-      </c>
+      <c r="F123" s="23"/>
       <c r="G123" s="22">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H123" s="22">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I123" s="22">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J123" s="22"/>
       <c r="K123" s="22">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L123" s="22">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M123" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N123" s="22"/>
       <c r="O123" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P123" s="22"/>
       <c r="Q123" s="22"/>
       <c r="R123" s="22"/>
       <c r="S123" s="22">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="T123" s="22">
-        <v>0.3</v>
+        <v>12.5</v>
       </c>
       <c r="U123" s="22">
-        <v>50</v>
+        <v>663</v>
       </c>
       <c r="V123" s="22">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="W123" s="22">
-        <v>0.1</v>
+        <v>9</v>
       </c>
       <c r="X123" s="22">
-        <v>29</v>
+        <v>2500</v>
       </c>
       <c r="Y123" s="22">
-        <v>12500</v>
+        <v>100000</v>
       </c>
       <c r="Z123" s="22">
-        <v>1250</v>
+        <v>30000</v>
       </c>
       <c r="AA123" s="22">
-        <v>125</v>
-      </c>
-      <c r="AB123" s="22"/>
-      <c r="AC123" s="22"/>
+        <v>2500</v>
+      </c>
+      <c r="AB123" s="22">
+        <v>57</v>
+      </c>
+      <c r="AC123" s="22">
+        <v>85</v>
+      </c>
       <c r="AD123" s="22"/>
       <c r="AE123" s="24"/>
     </row>
-    <row r="124" ht="32.2" customHeight="1">
+    <row r="124" ht="20.2" customHeight="1">
       <c r="A124" t="s" s="14">
         <v>190</v>
       </c>
       <c r="B124" t="s" s="25">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C124" t="s" s="16">
         <v>33</v>
       </c>
       <c r="D124" s="17"/>
       <c r="E124" s="17"/>
-      <c r="F124" s="18"/>
+      <c r="F124" s="18">
+        <v>12.6</v>
+      </c>
       <c r="G124" s="17">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H124" s="17">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="I124" s="17">
-        <v>36.5</v>
+        <v>44</v>
       </c>
       <c r="J124" s="17"/>
       <c r="K124" s="17">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="L124" s="17">
-        <v>12.9</v>
-      </c>
-      <c r="M124" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="M124" s="17">
+        <v>5</v>
+      </c>
       <c r="N124" s="17"/>
       <c r="O124" s="17">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="P124" s="17"/>
       <c r="Q124" s="17"/>
       <c r="R124" s="17"/>
-      <c r="S124" s="17"/>
-      <c r="T124" s="17"/>
-      <c r="U124" s="17"/>
-      <c r="V124" s="17"/>
-      <c r="W124" s="17"/>
-      <c r="X124" s="17"/>
+      <c r="S124" s="17">
+        <v>6</v>
+      </c>
+      <c r="T124" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="U124" s="17">
+        <v>50</v>
+      </c>
+      <c r="V124" s="17">
+        <v>20</v>
+      </c>
+      <c r="W124" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="X124" s="17">
+        <v>29</v>
+      </c>
       <c r="Y124" s="17">
-        <v>4900</v>
+        <v>12500</v>
       </c>
       <c r="Z124" s="17">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="AA124" s="17">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="AB124" s="17"/>
       <c r="AC124" s="17"/>
       <c r="AD124" s="17"/>
       <c r="AE124" s="19"/>
     </row>
-    <row r="125" ht="20.2" customHeight="1">
+    <row r="125" ht="32.2" customHeight="1">
       <c r="A125" t="s" s="14">
+        <v>191</v>
+      </c>
+      <c r="B125" t="s" s="32">
         <v>192</v>
-      </c>
-      <c r="B125" t="s" s="32">
-        <v>191</v>
       </c>
       <c r="C125" t="s" s="21">
         <v>33</v>
@@ -10927,61 +10953,45 @@
       <c r="E125" s="22"/>
       <c r="F125" s="23"/>
       <c r="G125" s="22">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H125" s="22">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="I125" s="22">
-        <v>30</v>
+        <v>36.5</v>
       </c>
       <c r="J125" s="22"/>
       <c r="K125" s="22">
-        <v>13</v>
+        <v>9.9</v>
       </c>
       <c r="L125" s="22">
-        <v>6</v>
+        <v>12.9</v>
       </c>
       <c r="M125" s="22"/>
       <c r="N125" s="22"/>
       <c r="O125" s="22">
-        <v>12</v>
+        <v>5.4</v>
       </c>
       <c r="P125" s="22"/>
       <c r="Q125" s="22"/>
-      <c r="R125" s="22">
-        <v>0.11</v>
-      </c>
-      <c r="S125" s="22">
-        <v>26.04</v>
-      </c>
-      <c r="T125" s="22">
-        <v>0.71</v>
-      </c>
-      <c r="U125" s="22">
-        <v>123.51</v>
-      </c>
-      <c r="V125" s="22">
-        <v>69.64</v>
-      </c>
-      <c r="W125" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="X125" s="22">
-        <v>98.20999999999999</v>
-      </c>
+      <c r="R125" s="22"/>
+      <c r="S125" s="22"/>
+      <c r="T125" s="22"/>
+      <c r="U125" s="22"/>
+      <c r="V125" s="22"/>
+      <c r="W125" s="22"/>
+      <c r="X125" s="22"/>
       <c r="Y125" s="22">
-        <v>12200</v>
+        <v>4900</v>
       </c>
       <c r="Z125" s="22">
-        <v>1339</v>
+        <v>500</v>
       </c>
       <c r="AA125" s="22">
-        <v>247</v>
-      </c>
-      <c r="AB125" s="22">
-        <v>10.1</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AB125" s="22"/>
       <c r="AC125" s="22"/>
       <c r="AD125" s="22"/>
       <c r="AE125" s="24"/>
@@ -10991,37 +11001,31 @@
         <v>193</v>
       </c>
       <c r="B126" t="s" s="25">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C126" t="s" s="16">
         <v>33</v>
       </c>
       <c r="D126" s="17"/>
       <c r="E126" s="17"/>
-      <c r="F126" s="18">
-        <v>12.8</v>
-      </c>
+      <c r="F126" s="18"/>
       <c r="G126" s="17">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H126" s="17">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="I126" s="17">
-        <v>85</v>
-      </c>
-      <c r="J126" s="17">
-        <v>4.5</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J126" s="17"/>
       <c r="K126" s="17">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L126" s="17">
-        <v>3</v>
-      </c>
-      <c r="M126" s="17">
-        <v>2.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="M126" s="17"/>
       <c r="N126" s="17"/>
       <c r="O126" s="17">
         <v>12</v>
@@ -11029,50 +11033,48 @@
       <c r="P126" s="17"/>
       <c r="Q126" s="17"/>
       <c r="R126" s="17">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="S126" s="17">
-        <v>35</v>
+        <v>26.04</v>
       </c>
       <c r="T126" s="17">
-        <v>1.2</v>
+        <v>0.71</v>
       </c>
       <c r="U126" s="17">
-        <v>120</v>
+        <v>123.51</v>
       </c>
       <c r="V126" s="17">
-        <v>130</v>
+        <v>69.64</v>
       </c>
       <c r="W126" s="17">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="X126" s="17">
-        <v>240</v>
+        <v>98.20999999999999</v>
       </c>
       <c r="Y126" s="17">
-        <v>17000</v>
+        <v>12200</v>
       </c>
       <c r="Z126" s="17">
-        <v>1350</v>
+        <v>1339</v>
       </c>
       <c r="AA126" s="17">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="AB126" s="17">
-        <v>10.12</v>
-      </c>
-      <c r="AC126" s="17">
-        <v>13.1</v>
-      </c>
+        <v>10.1</v>
+      </c>
+      <c r="AC126" s="17"/>
       <c r="AD126" s="17"/>
       <c r="AE126" s="19"/>
     </row>
     <row r="127" ht="20.2" customHeight="1">
-      <c r="A127" t="s" s="36">
+      <c r="A127" t="s" s="14">
         <v>194</v>
       </c>
       <c r="B127" t="s" s="32">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C127" t="s" s="21">
         <v>33</v>
@@ -11080,72 +11082,80 @@
       <c r="D127" s="22"/>
       <c r="E127" s="22"/>
       <c r="F127" s="23">
-        <v>10.3</v>
+        <v>12.8</v>
       </c>
       <c r="G127" s="22">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H127" s="22">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I127" s="22">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="J127" s="22">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="K127" s="22">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L127" s="22">
-        <v>4.8</v>
-      </c>
-      <c r="M127" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="M127" s="22">
+        <v>2.5</v>
+      </c>
       <c r="N127" s="22"/>
       <c r="O127" s="22">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P127" s="22"/>
       <c r="Q127" s="22"/>
-      <c r="R127" s="22"/>
+      <c r="R127" s="22">
+        <v>1.12</v>
+      </c>
       <c r="S127" s="22">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="T127" s="22">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="U127" s="22">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="V127" s="22">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="W127" s="22">
-        <v>0.24</v>
+        <v>0.6</v>
       </c>
       <c r="X127" s="22">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="Y127" s="22">
-        <v>9600</v>
+        <v>17000</v>
       </c>
       <c r="Z127" s="22">
-        <v>1600</v>
+        <v>1350</v>
       </c>
       <c r="AA127" s="22">
-        <v>48</v>
-      </c>
-      <c r="AB127" s="22"/>
-      <c r="AC127" s="22"/>
+        <v>300</v>
+      </c>
+      <c r="AB127" s="22">
+        <v>10.12</v>
+      </c>
+      <c r="AC127" s="22">
+        <v>13.1</v>
+      </c>
       <c r="AD127" s="22"/>
       <c r="AE127" s="24"/>
     </row>
     <row r="128" ht="20.2" customHeight="1">
       <c r="A128" t="s" s="36">
+        <v>195</v>
+      </c>
+      <c r="B128" t="s" s="25">
         <v>196</v>
-      </c>
-      <c r="B128" t="s" s="25">
-        <v>195</v>
       </c>
       <c r="C128" t="s" s="16">
         <v>33</v>
@@ -11153,23 +11163,25 @@
       <c r="D128" s="17"/>
       <c r="E128" s="17"/>
       <c r="F128" s="18">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="G128" s="17">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H128" s="17">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I128" s="17">
-        <v>47</v>
-      </c>
-      <c r="J128" s="17"/>
+        <v>31</v>
+      </c>
+      <c r="J128" s="17">
+        <v>5.3</v>
+      </c>
       <c r="K128" s="17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L128" s="17">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="M128" s="17"/>
       <c r="N128" s="17"/>
@@ -11180,38 +11192,34 @@
       <c r="Q128" s="17"/>
       <c r="R128" s="17"/>
       <c r="S128" s="17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T128" s="17">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="U128" s="17">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="V128" s="17">
         <v>40</v>
       </c>
       <c r="W128" s="17">
-        <v>0.6</v>
+        <v>0.24</v>
       </c>
       <c r="X128" s="17">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Y128" s="17">
-        <v>220</v>
+        <v>9600</v>
       </c>
       <c r="Z128" s="17">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="AA128" s="17">
-        <v>95</v>
-      </c>
-      <c r="AB128" s="17">
-        <v>3</v>
-      </c>
-      <c r="AC128" s="17">
-        <v>5</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="AB128" s="17"/>
+      <c r="AC128" s="17"/>
       <c r="AD128" s="17"/>
       <c r="AE128" s="19"/>
     </row>
@@ -11220,7 +11228,7 @@
         <v>197</v>
       </c>
       <c r="B129" t="s" s="32">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C129" t="s" s="21">
         <v>33</v>
@@ -11228,25 +11236,23 @@
       <c r="D129" s="22"/>
       <c r="E129" s="22"/>
       <c r="F129" s="23">
-        <v>11.7</v>
+        <v>10.5</v>
       </c>
       <c r="G129" s="22">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H129" s="22">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="I129" s="22">
-        <v>48.5</v>
-      </c>
-      <c r="J129" s="22">
-        <v>4.1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J129" s="22"/>
       <c r="K129" s="22">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L129" s="22">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="M129" s="22"/>
       <c r="N129" s="22"/>
@@ -11260,31 +11266,35 @@
         <v>20</v>
       </c>
       <c r="T129" s="22">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="U129" s="22">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="V129" s="22">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="W129" s="22">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="X129" s="22">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="Y129" s="22">
-        <v>10000</v>
+        <v>220</v>
       </c>
       <c r="Z129" s="22">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="AA129" s="22">
-        <v>180</v>
-      </c>
-      <c r="AB129" s="22"/>
-      <c r="AC129" s="22"/>
+        <v>95</v>
+      </c>
+      <c r="AB129" s="22">
+        <v>3</v>
+      </c>
+      <c r="AC129" s="22">
+        <v>5</v>
+      </c>
       <c r="AD129" s="22"/>
       <c r="AE129" s="24"/>
     </row>
@@ -11293,7 +11303,7 @@
         <v>198</v>
       </c>
       <c r="B130" t="s" s="25">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C130" t="s" s="16">
         <v>33</v>
@@ -11301,22 +11311,26 @@
       <c r="D130" s="17"/>
       <c r="E130" s="17"/>
       <c r="F130" s="18">
-        <v>11</v>
+        <v>11.7</v>
       </c>
       <c r="G130" s="17">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="H130" s="17">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I130" s="17">
-        <v>60</v>
-      </c>
-      <c r="J130" s="17"/>
+        <v>48.5</v>
+      </c>
+      <c r="J130" s="17">
+        <v>4.1</v>
+      </c>
       <c r="K130" s="17">
-        <v>6</v>
-      </c>
-      <c r="L130" s="17"/>
+        <v>9</v>
+      </c>
+      <c r="L130" s="17">
+        <v>7</v>
+      </c>
       <c r="M130" s="17"/>
       <c r="N130" s="17"/>
       <c r="O130" s="17">
@@ -11326,47 +11340,43 @@
       <c r="Q130" s="17"/>
       <c r="R130" s="17"/>
       <c r="S130" s="17">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="T130" s="17">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="U130" s="17">
-        <v>99.90000000000001</v>
+        <v>125</v>
       </c>
       <c r="V130" s="17">
-        <v>96.62</v>
+        <v>52</v>
       </c>
       <c r="W130" s="17">
-        <v>0.66</v>
+        <v>0.4</v>
       </c>
       <c r="X130" s="17">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="Y130" s="17">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Z130" s="17">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="AA130" s="17">
-        <v>400</v>
-      </c>
-      <c r="AB130" s="17">
-        <v>3.55</v>
-      </c>
-      <c r="AC130" s="17">
-        <v>4.13</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="AB130" s="17"/>
+      <c r="AC130" s="17"/>
       <c r="AD130" s="17"/>
       <c r="AE130" s="19"/>
     </row>
     <row r="131" ht="20.2" customHeight="1">
-      <c r="A131" t="s" s="14">
+      <c r="A131" t="s" s="36">
         <v>199</v>
       </c>
       <c r="B131" t="s" s="32">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C131" t="s" s="21">
         <v>33</v>
@@ -11374,24 +11384,22 @@
       <c r="D131" s="22"/>
       <c r="E131" s="22"/>
       <c r="F131" s="23">
-        <v>12.1</v>
+        <v>11</v>
       </c>
       <c r="G131" s="22">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="H131" s="22">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="I131" s="22">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="J131" s="22"/>
       <c r="K131" s="22">
-        <v>12</v>
-      </c>
-      <c r="L131" s="22">
-        <v>4.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="L131" s="22"/>
       <c r="M131" s="22"/>
       <c r="N131" s="22"/>
       <c r="O131" s="22">
@@ -11401,41 +11409,47 @@
       <c r="Q131" s="22"/>
       <c r="R131" s="22"/>
       <c r="S131" s="22">
-        <v>22</v>
-      </c>
-      <c r="T131" s="22"/>
+        <v>70</v>
+      </c>
+      <c r="T131" s="22">
+        <v>2.1</v>
+      </c>
       <c r="U131" s="22">
-        <v>28</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="V131" s="22">
-        <v>85</v>
+        <v>96.62</v>
       </c>
       <c r="W131" s="22">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="X131" s="22">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="Y131" s="22">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Z131" s="22">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="AA131" s="22">
-        <v>460</v>
-      </c>
-      <c r="AB131" s="22"/>
-      <c r="AC131" s="22"/>
+        <v>400</v>
+      </c>
+      <c r="AB131" s="22">
+        <v>3.55</v>
+      </c>
+      <c r="AC131" s="22">
+        <v>4.13</v>
+      </c>
       <c r="AD131" s="22"/>
       <c r="AE131" s="24"/>
     </row>
-    <row r="132" ht="22.5" customHeight="1">
-      <c r="A132" t="s" s="47">
+    <row r="132" ht="20.2" customHeight="1">
+      <c r="A132" t="s" s="14">
+        <v>200</v>
+      </c>
+      <c r="B132" t="s" s="25">
         <v>201</v>
-      </c>
-      <c r="B132" t="s" s="25">
-        <v>202</v>
       </c>
       <c r="C132" t="s" s="16">
         <v>33</v>
@@ -11443,74 +11457,68 @@
       <c r="D132" s="17"/>
       <c r="E132" s="17"/>
       <c r="F132" s="18">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="G132" s="17">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="H132" s="17">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="I132" s="17">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="J132" s="17"/>
       <c r="K132" s="17">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="L132" s="17">
-        <v>8</v>
-      </c>
-      <c r="M132" s="17">
-        <v>2.5</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="M132" s="17"/>
       <c r="N132" s="17"/>
       <c r="O132" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P132" s="17"/>
       <c r="Q132" s="17"/>
-      <c r="R132" s="17">
-        <v>0.2</v>
-      </c>
+      <c r="R132" s="17"/>
       <c r="S132" s="17">
-        <v>12</v>
-      </c>
-      <c r="T132" s="17">
-        <v>0.83</v>
-      </c>
-      <c r="U132" s="17"/>
-      <c r="V132" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="T132" s="17"/>
+      <c r="U132" s="17">
+        <v>28</v>
+      </c>
+      <c r="V132" s="17">
+        <v>85</v>
+      </c>
       <c r="W132" s="17">
         <v>0.5</v>
       </c>
       <c r="X132" s="17">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="Y132" s="17">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Z132" s="17">
         <v>1600</v>
       </c>
       <c r="AA132" s="17">
-        <v>50</v>
-      </c>
-      <c r="AB132" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="AC132" s="17">
-        <v>0.3</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="AB132" s="17"/>
+      <c r="AC132" s="17"/>
       <c r="AD132" s="17"/>
       <c r="AE132" s="19"/>
     </row>
-    <row r="133" ht="44.2" customHeight="1">
-      <c r="A133" t="s" s="14">
+    <row r="133" ht="22.5" customHeight="1">
+      <c r="A133" t="s" s="48">
+        <v>202</v>
+      </c>
+      <c r="B133" t="s" s="32">
         <v>203</v>
-      </c>
-      <c r="B133" t="s" s="32">
-        <v>204</v>
       </c>
       <c r="C133" t="s" s="21">
         <v>33</v>
@@ -11518,54 +11526,74 @@
       <c r="D133" s="22"/>
       <c r="E133" s="22"/>
       <c r="F133" s="23">
-        <v>11.47</v>
+        <v>11</v>
       </c>
       <c r="G133" s="22">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H133" s="22">
-        <v>57.8</v>
+        <v>115</v>
       </c>
       <c r="I133" s="22">
-        <v>31.7</v>
+        <v>48</v>
       </c>
       <c r="J133" s="22"/>
       <c r="K133" s="22">
-        <v>16.1</v>
+        <v>13.5</v>
       </c>
       <c r="L133" s="22">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M133" s="22">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="N133" s="22"/>
       <c r="O133" s="22">
-        <v>6.3</v>
+        <v>1</v>
       </c>
       <c r="P133" s="22"/>
       <c r="Q133" s="22"/>
-      <c r="R133" s="22"/>
-      <c r="S133" s="22"/>
-      <c r="T133" s="22"/>
+      <c r="R133" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="S133" s="22">
+        <v>12</v>
+      </c>
+      <c r="T133" s="22">
+        <v>0.83</v>
+      </c>
       <c r="U133" s="22"/>
       <c r="V133" s="22"/>
-      <c r="W133" s="22"/>
-      <c r="X133" s="22"/>
-      <c r="Y133" s="22"/>
-      <c r="Z133" s="22"/>
-      <c r="AA133" s="22"/>
-      <c r="AB133" s="22"/>
-      <c r="AC133" s="22"/>
+      <c r="W133" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="X133" s="22">
+        <v>90</v>
+      </c>
+      <c r="Y133" s="22">
+        <v>10000</v>
+      </c>
+      <c r="Z133" s="22">
+        <v>1600</v>
+      </c>
+      <c r="AA133" s="22">
+        <v>50</v>
+      </c>
+      <c r="AB133" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="AC133" s="22">
+        <v>0.3</v>
+      </c>
       <c r="AD133" s="22"/>
       <c r="AE133" s="24"/>
     </row>
-    <row r="134" ht="20.2" customHeight="1">
+    <row r="134" ht="44.2" customHeight="1">
       <c r="A134" t="s" s="14">
+        <v>204</v>
+      </c>
+      <c r="B134" t="s" s="25">
         <v>205</v>
-      </c>
-      <c r="B134" t="s" s="25">
-        <v>206</v>
       </c>
       <c r="C134" t="s" s="16">
         <v>33</v>
@@ -11573,65 +11601,43 @@
       <c r="D134" s="17"/>
       <c r="E134" s="17"/>
       <c r="F134" s="18">
-        <v>11.5</v>
+        <v>11.47</v>
       </c>
       <c r="G134" s="17">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="H134" s="17">
-        <v>145</v>
+        <v>57.8</v>
       </c>
       <c r="I134" s="17">
-        <v>90</v>
-      </c>
-      <c r="J134" s="17">
-        <v>10</v>
-      </c>
+        <v>31.7</v>
+      </c>
+      <c r="J134" s="17"/>
       <c r="K134" s="17">
-        <v>14.5</v>
+        <v>16.1</v>
       </c>
       <c r="L134" s="17">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M134" s="17">
-        <v>2.6</v>
-      </c>
-      <c r="N134" s="17">
-        <v>12</v>
-      </c>
+        <v>3.9</v>
+      </c>
+      <c r="N134" s="17"/>
       <c r="O134" s="17">
-        <v>7</v>
-      </c>
-      <c r="P134" s="17">
-        <v>12.8</v>
-      </c>
+        <v>6.3</v>
+      </c>
+      <c r="P134" s="17"/>
       <c r="Q134" s="17"/>
       <c r="R134" s="17"/>
-      <c r="S134" s="17">
-        <v>40</v>
-      </c>
+      <c r="S134" s="17"/>
       <c r="T134" s="17"/>
-      <c r="U134" s="17">
-        <v>135</v>
-      </c>
-      <c r="V134" s="17">
-        <v>45</v>
-      </c>
-      <c r="W134" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="X134" s="17">
-        <v>110</v>
-      </c>
-      <c r="Y134" s="17">
-        <v>18000</v>
-      </c>
-      <c r="Z134" s="17">
-        <v>1800</v>
-      </c>
-      <c r="AA134" s="17">
-        <v>450</v>
-      </c>
+      <c r="U134" s="17"/>
+      <c r="V134" s="17"/>
+      <c r="W134" s="17"/>
+      <c r="X134" s="17"/>
+      <c r="Y134" s="17"/>
+      <c r="Z134" s="17"/>
+      <c r="AA134" s="17"/>
       <c r="AB134" s="17"/>
       <c r="AC134" s="17"/>
       <c r="AD134" s="17"/>
@@ -11639,10 +11645,10 @@
     </row>
     <row r="135" ht="20.2" customHeight="1">
       <c r="A135" t="s" s="14">
+        <v>206</v>
+      </c>
+      <c r="B135" t="s" s="32">
         <v>207</v>
-      </c>
-      <c r="B135" t="s" s="32">
-        <v>208</v>
       </c>
       <c r="C135" t="s" s="21">
         <v>33</v>
@@ -11650,78 +11656,76 @@
       <c r="D135" s="22"/>
       <c r="E135" s="22"/>
       <c r="F135" s="23">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="G135" s="22">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="H135" s="22">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="I135" s="22">
-        <v>35</v>
-      </c>
-      <c r="J135" s="22"/>
+        <v>90</v>
+      </c>
+      <c r="J135" s="22">
+        <v>10</v>
+      </c>
       <c r="K135" s="22">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="L135" s="22">
         <v>7</v>
       </c>
-      <c r="M135" s="22"/>
-      <c r="N135" s="22"/>
+      <c r="M135" s="22">
+        <v>2.6</v>
+      </c>
+      <c r="N135" s="22">
+        <v>12</v>
+      </c>
       <c r="O135" s="22">
-        <v>10</v>
-      </c>
-      <c r="P135" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="P135" s="22">
+        <v>12.8</v>
+      </c>
       <c r="Q135" s="22"/>
-      <c r="R135" s="22">
-        <v>1</v>
-      </c>
+      <c r="R135" s="22"/>
       <c r="S135" s="22">
-        <v>25</v>
-      </c>
-      <c r="T135" s="22">
-        <v>0.95</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="T135" s="22"/>
       <c r="U135" s="22">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="V135" s="22">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="W135" s="22">
-        <v>0.275</v>
+        <v>0.7</v>
       </c>
       <c r="X135" s="22">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="Y135" s="22">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="Z135" s="22">
-        <v>2150</v>
+        <v>1800</v>
       </c>
       <c r="AA135" s="22">
-        <v>300</v>
-      </c>
-      <c r="AB135" s="22">
-        <v>10</v>
-      </c>
-      <c r="AC135" s="22">
-        <v>15</v>
-      </c>
-      <c r="AD135" s="22">
-        <v>5</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="AB135" s="22"/>
+      <c r="AC135" s="22"/>
+      <c r="AD135" s="22"/>
       <c r="AE135" s="24"/>
     </row>
     <row r="136" ht="20.2" customHeight="1">
-      <c r="A136" t="s" s="48">
+      <c r="A136" t="s" s="14">
+        <v>208</v>
+      </c>
+      <c r="B136" t="s" s="25">
         <v>209</v>
-      </c>
-      <c r="B136" t="s" s="25">
-        <v>210</v>
       </c>
       <c r="C136" t="s" s="16">
         <v>33</v>
@@ -11729,78 +11733,78 @@
       <c r="D136" s="17"/>
       <c r="E136" s="17"/>
       <c r="F136" s="18">
-        <v>12.4</v>
+        <v>11.2</v>
       </c>
       <c r="G136" s="17">
-        <v>100</v>
-      </c>
-      <c r="H136" s="49">
-        <v>80</v>
-      </c>
-      <c r="I136" s="49">
-        <v>30</v>
-      </c>
-      <c r="J136" s="49">
-        <v>4</v>
-      </c>
-      <c r="K136" s="49">
+        <v>117</v>
+      </c>
+      <c r="H136" s="17">
+        <v>87</v>
+      </c>
+      <c r="I136" s="17">
+        <v>35</v>
+      </c>
+      <c r="J136" s="17"/>
+      <c r="K136" s="17">
+        <v>13</v>
+      </c>
+      <c r="L136" s="17">
+        <v>7</v>
+      </c>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17">
         <v>10</v>
       </c>
-      <c r="L136" s="49">
-        <v>5.5</v>
-      </c>
-      <c r="M136" s="49">
-        <v>2.9</v>
-      </c>
-      <c r="N136" s="49">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="O136" s="49">
-        <v>3.1</v>
-      </c>
-      <c r="P136" s="49">
-        <v>7.7</v>
-      </c>
+      <c r="P136" s="17"/>
       <c r="Q136" s="17"/>
-      <c r="R136" s="17"/>
-      <c r="S136" s="49">
-        <v>60</v>
-      </c>
-      <c r="T136" s="49">
-        <v>1.5</v>
-      </c>
-      <c r="U136" s="49">
-        <v>120</v>
-      </c>
-      <c r="V136" s="49">
-        <v>100</v>
-      </c>
-      <c r="W136" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="X136" s="49">
-        <v>180</v>
-      </c>
-      <c r="Y136" s="49">
-        <v>15000</v>
-      </c>
-      <c r="Z136" s="49">
-        <v>2000</v>
-      </c>
-      <c r="AA136" s="49">
+      <c r="R136" s="17">
+        <v>1</v>
+      </c>
+      <c r="S136" s="17">
+        <v>25</v>
+      </c>
+      <c r="T136" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="U136" s="17">
+        <v>75</v>
+      </c>
+      <c r="V136" s="17">
+        <v>37</v>
+      </c>
+      <c r="W136" s="17">
+        <v>0.275</v>
+      </c>
+      <c r="X136" s="17">
+        <v>125</v>
+      </c>
+      <c r="Y136" s="17">
+        <v>12500</v>
+      </c>
+      <c r="Z136" s="17">
+        <v>2150</v>
+      </c>
+      <c r="AA136" s="17">
         <v>300</v>
       </c>
-      <c r="AB136" s="49"/>
-      <c r="AC136" s="49"/>
-      <c r="AD136" s="49"/>
-      <c r="AE136" s="50"/>
+      <c r="AB136" s="17">
+        <v>10</v>
+      </c>
+      <c r="AC136" s="17">
+        <v>15</v>
+      </c>
+      <c r="AD136" s="17">
+        <v>5</v>
+      </c>
+      <c r="AE136" s="19"/>
     </row>
     <row r="137" ht="20.2" customHeight="1">
-      <c r="A137" t="s" s="48">
+      <c r="A137" t="s" s="49">
+        <v>210</v>
+      </c>
+      <c r="B137" t="s" s="32">
         <v>211</v>
-      </c>
-      <c r="B137" t="s" s="32">
-        <v>210</v>
       </c>
       <c r="C137" t="s" s="21">
         <v>33</v>
@@ -11808,78 +11812,78 @@
       <c r="D137" s="22"/>
       <c r="E137" s="22"/>
       <c r="F137" s="23">
-        <v>11.2</v>
+        <v>12.4</v>
       </c>
       <c r="G137" s="22">
         <v>100</v>
       </c>
-      <c r="H137" s="51">
-        <v>120</v>
-      </c>
-      <c r="I137" s="51">
-        <v>33</v>
-      </c>
-      <c r="J137" s="51">
-        <v>4.8</v>
-      </c>
-      <c r="K137" s="51">
+      <c r="H137" s="50">
+        <v>80</v>
+      </c>
+      <c r="I137" s="50">
+        <v>30</v>
+      </c>
+      <c r="J137" s="50">
+        <v>4</v>
+      </c>
+      <c r="K137" s="50">
         <v>10</v>
       </c>
-      <c r="L137" s="51">
-        <v>5</v>
-      </c>
-      <c r="M137" s="51">
-        <v>3.3</v>
-      </c>
-      <c r="N137" s="51">
-        <v>19.5</v>
-      </c>
-      <c r="O137" s="51">
-        <v>3.7</v>
-      </c>
-      <c r="P137" s="51">
-        <v>7.4</v>
+      <c r="L137" s="50">
+        <v>5.5</v>
+      </c>
+      <c r="M137" s="50">
+        <v>2.9</v>
+      </c>
+      <c r="N137" s="50">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O137" s="50">
+        <v>3.1</v>
+      </c>
+      <c r="P137" s="50">
+        <v>7.7</v>
       </c>
       <c r="Q137" s="22"/>
       <c r="R137" s="22"/>
-      <c r="S137" s="51">
+      <c r="S137" s="50">
         <v>60</v>
       </c>
-      <c r="T137" s="51">
+      <c r="T137" s="50">
         <v>1.5</v>
       </c>
-      <c r="U137" s="51">
+      <c r="U137" s="50">
         <v>120</v>
       </c>
-      <c r="V137" s="51">
+      <c r="V137" s="50">
         <v>100</v>
       </c>
-      <c r="W137" s="51">
+      <c r="W137" s="50">
         <v>0.5</v>
       </c>
-      <c r="X137" s="51">
+      <c r="X137" s="50">
         <v>180</v>
       </c>
-      <c r="Y137" s="51">
+      <c r="Y137" s="50">
         <v>15000</v>
       </c>
-      <c r="Z137" s="51">
+      <c r="Z137" s="50">
         <v>2000</v>
       </c>
-      <c r="AA137" s="51">
+      <c r="AA137" s="50">
         <v>300</v>
       </c>
-      <c r="AB137" s="51"/>
-      <c r="AC137" s="51"/>
-      <c r="AD137" s="51"/>
-      <c r="AE137" s="52"/>
-    </row>
-    <row r="138" ht="32.2" customHeight="1">
-      <c r="A138" t="s" s="48">
+      <c r="AB137" s="50"/>
+      <c r="AC137" s="50"/>
+      <c r="AD137" s="50"/>
+      <c r="AE137" s="51"/>
+    </row>
+    <row r="138" ht="20.2" customHeight="1">
+      <c r="A138" t="s" s="49">
         <v>212</v>
       </c>
       <c r="B138" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C138" t="s" s="16">
         <v>33</v>
@@ -11887,78 +11891,78 @@
       <c r="D138" s="17"/>
       <c r="E138" s="17"/>
       <c r="F138" s="18">
-        <v>12</v>
+        <v>11.2</v>
       </c>
       <c r="G138" s="17">
-        <v>140</v>
-      </c>
-      <c r="H138" s="49">
-        <v>175</v>
-      </c>
-      <c r="I138" s="49">
-        <v>78</v>
-      </c>
-      <c r="J138" s="49">
+        <v>100</v>
+      </c>
+      <c r="H138" s="52">
+        <v>120</v>
+      </c>
+      <c r="I138" s="52">
+        <v>33</v>
+      </c>
+      <c r="J138" s="52">
+        <v>4.8</v>
+      </c>
+      <c r="K138" s="52">
+        <v>10</v>
+      </c>
+      <c r="L138" s="52">
+        <v>5</v>
+      </c>
+      <c r="M138" s="52">
+        <v>3.3</v>
+      </c>
+      <c r="N138" s="52">
+        <v>19.5</v>
+      </c>
+      <c r="O138" s="52">
+        <v>3.7</v>
+      </c>
+      <c r="P138" s="52">
         <v>7.4</v>
-      </c>
-      <c r="K138" s="49">
-        <v>11.5</v>
-      </c>
-      <c r="L138" s="49">
-        <v>6</v>
-      </c>
-      <c r="M138" s="49">
-        <v>3.6</v>
-      </c>
-      <c r="N138" s="49">
-        <v>13.7</v>
-      </c>
-      <c r="O138" s="49">
-        <v>3.2</v>
-      </c>
-      <c r="P138" s="49">
-        <v>5.9</v>
       </c>
       <c r="Q138" s="17"/>
       <c r="R138" s="17"/>
-      <c r="S138" s="49">
+      <c r="S138" s="52">
         <v>60</v>
       </c>
-      <c r="T138" s="49">
+      <c r="T138" s="52">
         <v>1.5</v>
       </c>
-      <c r="U138" s="49">
+      <c r="U138" s="52">
         <v>120</v>
       </c>
-      <c r="V138" s="49">
+      <c r="V138" s="52">
         <v>100</v>
       </c>
-      <c r="W138" s="49">
+      <c r="W138" s="52">
         <v>0.5</v>
       </c>
-      <c r="X138" s="49">
+      <c r="X138" s="52">
         <v>180</v>
       </c>
-      <c r="Y138" s="49">
+      <c r="Y138" s="52">
         <v>15000</v>
       </c>
-      <c r="Z138" s="49">
+      <c r="Z138" s="52">
         <v>2000</v>
       </c>
-      <c r="AA138" s="49">
+      <c r="AA138" s="52">
         <v>300</v>
       </c>
-      <c r="AB138" s="49"/>
-      <c r="AC138" s="49"/>
-      <c r="AD138" s="49"/>
-      <c r="AE138" s="50"/>
-    </row>
-    <row r="139" ht="20.2" customHeight="1">
-      <c r="A139" t="s" s="48">
+      <c r="AB138" s="52"/>
+      <c r="AC138" s="52"/>
+      <c r="AD138" s="52"/>
+      <c r="AE138" s="53"/>
+    </row>
+    <row r="139" ht="32.2" customHeight="1">
+      <c r="A139" t="s" s="49">
         <v>213</v>
       </c>
       <c r="B139" t="s" s="32">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C139" t="s" s="21">
         <v>33</v>
@@ -11966,78 +11970,78 @@
       <c r="D139" s="22"/>
       <c r="E139" s="22"/>
       <c r="F139" s="23">
-        <v>14.1</v>
+        <v>12</v>
       </c>
       <c r="G139" s="22">
         <v>140</v>
       </c>
-      <c r="H139" s="51">
-        <v>50</v>
-      </c>
-      <c r="I139" s="51">
-        <v>80</v>
-      </c>
-      <c r="J139" s="51">
-        <v>6.6</v>
-      </c>
-      <c r="K139" s="51">
-        <v>12</v>
-      </c>
-      <c r="L139" s="51">
+      <c r="H139" s="50">
+        <v>175</v>
+      </c>
+      <c r="I139" s="50">
+        <v>78</v>
+      </c>
+      <c r="J139" s="50">
+        <v>7.4</v>
+      </c>
+      <c r="K139" s="50">
+        <v>11.5</v>
+      </c>
+      <c r="L139" s="50">
         <v>6</v>
       </c>
-      <c r="M139" s="51">
-        <v>2.7</v>
-      </c>
-      <c r="N139" s="51">
-        <v>8</v>
-      </c>
-      <c r="O139" s="51">
-        <v>2.5</v>
-      </c>
-      <c r="P139" s="51">
-        <v>6</v>
+      <c r="M139" s="50">
+        <v>3.6</v>
+      </c>
+      <c r="N139" s="50">
+        <v>13.7</v>
+      </c>
+      <c r="O139" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="P139" s="50">
+        <v>5.9</v>
       </c>
       <c r="Q139" s="22"/>
       <c r="R139" s="22"/>
-      <c r="S139" s="51">
+      <c r="S139" s="50">
         <v>60</v>
       </c>
-      <c r="T139" s="51">
+      <c r="T139" s="50">
         <v>1.5</v>
       </c>
-      <c r="U139" s="51">
+      <c r="U139" s="50">
         <v>120</v>
       </c>
-      <c r="V139" s="51">
+      <c r="V139" s="50">
         <v>100</v>
       </c>
-      <c r="W139" s="51">
+      <c r="W139" s="50">
         <v>0.5</v>
       </c>
-      <c r="X139" s="51">
+      <c r="X139" s="50">
         <v>180</v>
       </c>
-      <c r="Y139" s="51">
+      <c r="Y139" s="50">
         <v>15000</v>
       </c>
-      <c r="Z139" s="51">
+      <c r="Z139" s="50">
         <v>2000</v>
       </c>
-      <c r="AA139" s="51">
+      <c r="AA139" s="50">
         <v>300</v>
       </c>
-      <c r="AB139" s="51"/>
-      <c r="AC139" s="51"/>
-      <c r="AD139" s="51"/>
-      <c r="AE139" s="52"/>
+      <c r="AB139" s="50"/>
+      <c r="AC139" s="50"/>
+      <c r="AD139" s="50"/>
+      <c r="AE139" s="51"/>
     </row>
     <row r="140" ht="20.2" customHeight="1">
-      <c r="A140" t="s" s="48">
+      <c r="A140" t="s" s="49">
         <v>214</v>
       </c>
       <c r="B140" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C140" t="s" s="16">
         <v>33</v>
@@ -12045,78 +12049,78 @@
       <c r="D140" s="17"/>
       <c r="E140" s="17"/>
       <c r="F140" s="18">
+        <v>14.1</v>
+      </c>
+      <c r="G140" s="17">
+        <v>140</v>
+      </c>
+      <c r="H140" s="52">
+        <v>50</v>
+      </c>
+      <c r="I140" s="52">
+        <v>80</v>
+      </c>
+      <c r="J140" s="52">
+        <v>6.6</v>
+      </c>
+      <c r="K140" s="52">
         <v>12</v>
       </c>
-      <c r="G140" s="17">
-        <v>120</v>
-      </c>
-      <c r="H140" s="49">
-        <v>85</v>
-      </c>
-      <c r="I140" s="49">
-        <v>45</v>
-      </c>
-      <c r="J140" s="49">
-        <v>5.5</v>
-      </c>
-      <c r="K140" s="49">
-        <v>11.5</v>
-      </c>
-      <c r="L140" s="49">
+      <c r="L140" s="52">
         <v>6</v>
       </c>
-      <c r="M140" s="49">
-        <v>3.6</v>
-      </c>
-      <c r="N140" s="49">
-        <v>13.7</v>
-      </c>
-      <c r="O140" s="49">
-        <v>3.2</v>
-      </c>
-      <c r="P140" s="49">
-        <v>5.9</v>
+      <c r="M140" s="52">
+        <v>2.7</v>
+      </c>
+      <c r="N140" s="52">
+        <v>8</v>
+      </c>
+      <c r="O140" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="P140" s="52">
+        <v>6</v>
       </c>
       <c r="Q140" s="17"/>
       <c r="R140" s="17"/>
-      <c r="S140" s="49">
+      <c r="S140" s="52">
         <v>60</v>
       </c>
-      <c r="T140" s="49">
+      <c r="T140" s="52">
         <v>1.5</v>
       </c>
-      <c r="U140" s="49">
+      <c r="U140" s="52">
         <v>120</v>
       </c>
-      <c r="V140" s="49">
+      <c r="V140" s="52">
         <v>100</v>
       </c>
-      <c r="W140" s="49">
+      <c r="W140" s="52">
         <v>0.5</v>
       </c>
-      <c r="X140" s="49">
+      <c r="X140" s="52">
         <v>180</v>
       </c>
-      <c r="Y140" s="49">
+      <c r="Y140" s="52">
         <v>15000</v>
       </c>
-      <c r="Z140" s="49">
+      <c r="Z140" s="52">
         <v>2000</v>
       </c>
-      <c r="AA140" s="49">
+      <c r="AA140" s="52">
         <v>300</v>
       </c>
-      <c r="AB140" s="49"/>
-      <c r="AC140" s="49"/>
-      <c r="AD140" s="49"/>
-      <c r="AE140" s="50"/>
+      <c r="AB140" s="52"/>
+      <c r="AC140" s="52"/>
+      <c r="AD140" s="52"/>
+      <c r="AE140" s="53"/>
     </row>
     <row r="141" ht="20.2" customHeight="1">
-      <c r="A141" t="s" s="48">
+      <c r="A141" t="s" s="49">
         <v>215</v>
       </c>
       <c r="B141" t="s" s="32">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C141" t="s" s="21">
         <v>33</v>
@@ -12124,78 +12128,78 @@
       <c r="D141" s="22"/>
       <c r="E141" s="22"/>
       <c r="F141" s="23">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="G141" s="22">
-        <v>140</v>
-      </c>
-      <c r="H141" s="51">
-        <v>80</v>
-      </c>
-      <c r="I141" s="51">
-        <v>50</v>
-      </c>
-      <c r="J141" s="51">
-        <v>6.5</v>
-      </c>
-      <c r="K141" s="51">
-        <v>14</v>
-      </c>
-      <c r="L141" s="51">
+        <v>120</v>
+      </c>
+      <c r="H141" s="50">
+        <v>85</v>
+      </c>
+      <c r="I141" s="50">
+        <v>45</v>
+      </c>
+      <c r="J141" s="50">
+        <v>5.5</v>
+      </c>
+      <c r="K141" s="50">
+        <v>11.5</v>
+      </c>
+      <c r="L141" s="50">
         <v>6</v>
       </c>
-      <c r="M141" s="51">
-        <v>3</v>
-      </c>
-      <c r="N141" s="51">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="O141" s="51">
-        <v>2.7</v>
-      </c>
-      <c r="P141" s="51">
-        <v>5.6</v>
-      </c>
-      <c r="Q141" s="53"/>
-      <c r="R141" s="53"/>
-      <c r="S141" s="51">
+      <c r="M141" s="50">
+        <v>3.6</v>
+      </c>
+      <c r="N141" s="50">
+        <v>13.7</v>
+      </c>
+      <c r="O141" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="P141" s="50">
+        <v>5.9</v>
+      </c>
+      <c r="Q141" s="22"/>
+      <c r="R141" s="22"/>
+      <c r="S141" s="50">
         <v>60</v>
       </c>
-      <c r="T141" s="51">
+      <c r="T141" s="50">
         <v>1.5</v>
       </c>
-      <c r="U141" s="51">
+      <c r="U141" s="50">
         <v>120</v>
       </c>
-      <c r="V141" s="51">
+      <c r="V141" s="50">
         <v>100</v>
       </c>
-      <c r="W141" s="51">
+      <c r="W141" s="50">
         <v>0.5</v>
       </c>
-      <c r="X141" s="51">
+      <c r="X141" s="50">
         <v>180</v>
       </c>
-      <c r="Y141" s="51">
+      <c r="Y141" s="50">
         <v>15000</v>
       </c>
-      <c r="Z141" s="51">
+      <c r="Z141" s="50">
         <v>2000</v>
       </c>
-      <c r="AA141" s="51">
+      <c r="AA141" s="50">
         <v>300</v>
       </c>
-      <c r="AB141" s="51"/>
-      <c r="AC141" s="51"/>
-      <c r="AD141" s="51"/>
-      <c r="AE141" s="52"/>
-    </row>
-    <row r="142" ht="32.2" customHeight="1">
-      <c r="A142" t="s" s="48">
+      <c r="AB141" s="50"/>
+      <c r="AC141" s="50"/>
+      <c r="AD141" s="50"/>
+      <c r="AE141" s="51"/>
+    </row>
+    <row r="142" ht="20.2" customHeight="1">
+      <c r="A142" t="s" s="49">
         <v>216</v>
       </c>
       <c r="B142" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C142" t="s" s="16">
         <v>33</v>
@@ -12203,78 +12207,78 @@
       <c r="D142" s="17"/>
       <c r="E142" s="17"/>
       <c r="F142" s="18">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="G142" s="17">
         <v>140</v>
       </c>
-      <c r="H142" s="49">
+      <c r="H142" s="52">
         <v>80</v>
       </c>
-      <c r="I142" s="49">
-        <v>45</v>
-      </c>
-      <c r="J142" s="49">
-        <v>7</v>
-      </c>
-      <c r="K142" s="49">
-        <v>12.3</v>
-      </c>
-      <c r="L142" s="49">
+      <c r="I142" s="52">
+        <v>50</v>
+      </c>
+      <c r="J142" s="52">
+        <v>6.5</v>
+      </c>
+      <c r="K142" s="52">
+        <v>14</v>
+      </c>
+      <c r="L142" s="52">
         <v>6</v>
       </c>
-      <c r="M142" s="49">
-        <v>2.8</v>
-      </c>
-      <c r="N142" s="49">
-        <v>8.1</v>
-      </c>
-      <c r="O142" s="49">
-        <v>2.5</v>
-      </c>
-      <c r="P142" s="49">
-        <v>5.8</v>
-      </c>
-      <c r="Q142" s="17"/>
-      <c r="R142" s="17"/>
-      <c r="S142" s="49">
+      <c r="M142" s="52">
+        <v>3</v>
+      </c>
+      <c r="N142" s="52">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="O142" s="52">
+        <v>2.7</v>
+      </c>
+      <c r="P142" s="52">
+        <v>5.6</v>
+      </c>
+      <c r="Q142" s="54"/>
+      <c r="R142" s="54"/>
+      <c r="S142" s="52">
         <v>60</v>
       </c>
-      <c r="T142" s="49">
+      <c r="T142" s="52">
         <v>1.5</v>
       </c>
-      <c r="U142" s="49">
+      <c r="U142" s="52">
         <v>120</v>
       </c>
-      <c r="V142" s="49">
+      <c r="V142" s="52">
         <v>100</v>
       </c>
-      <c r="W142" s="49">
+      <c r="W142" s="52">
         <v>0.5</v>
       </c>
-      <c r="X142" s="49">
+      <c r="X142" s="52">
         <v>180</v>
       </c>
-      <c r="Y142" s="49">
+      <c r="Y142" s="52">
         <v>15000</v>
       </c>
-      <c r="Z142" s="49">
+      <c r="Z142" s="52">
         <v>2000</v>
       </c>
-      <c r="AA142" s="49">
+      <c r="AA142" s="52">
         <v>300</v>
       </c>
-      <c r="AB142" s="49"/>
-      <c r="AC142" s="49"/>
-      <c r="AD142" s="49"/>
-      <c r="AE142" s="50"/>
-    </row>
-    <row r="143" ht="20.2" customHeight="1">
-      <c r="A143" t="s" s="48">
+      <c r="AB142" s="52"/>
+      <c r="AC142" s="52"/>
+      <c r="AD142" s="52"/>
+      <c r="AE142" s="53"/>
+    </row>
+    <row r="143" ht="32.2" customHeight="1">
+      <c r="A143" t="s" s="49">
         <v>217</v>
       </c>
       <c r="B143" t="s" s="32">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C143" t="s" s="21">
         <v>33</v>
@@ -12282,78 +12286,78 @@
       <c r="D143" s="22"/>
       <c r="E143" s="22"/>
       <c r="F143" s="23">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="G143" s="22">
-        <v>180</v>
-      </c>
-      <c r="H143" s="51">
-        <v>70</v>
-      </c>
-      <c r="I143" s="51">
-        <v>63</v>
-      </c>
-      <c r="J143" s="51">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K143" s="51">
-        <v>15</v>
-      </c>
-      <c r="L143" s="51">
-        <v>6.5</v>
-      </c>
-      <c r="M143" s="51">
-        <v>3.3</v>
-      </c>
-      <c r="N143" s="51">
-        <v>10</v>
-      </c>
-      <c r="O143" s="51">
-        <v>3.1</v>
-      </c>
-      <c r="P143" s="51">
-        <v>6.8</v>
+        <v>140</v>
+      </c>
+      <c r="H143" s="50">
+        <v>80</v>
+      </c>
+      <c r="I143" s="50">
+        <v>45</v>
+      </c>
+      <c r="J143" s="50">
+        <v>7</v>
+      </c>
+      <c r="K143" s="50">
+        <v>12.3</v>
+      </c>
+      <c r="L143" s="50">
+        <v>6</v>
+      </c>
+      <c r="M143" s="50">
+        <v>2.8</v>
+      </c>
+      <c r="N143" s="50">
+        <v>8.1</v>
+      </c>
+      <c r="O143" s="50">
+        <v>2.5</v>
+      </c>
+      <c r="P143" s="50">
+        <v>5.8</v>
       </c>
       <c r="Q143" s="22"/>
       <c r="R143" s="22"/>
-      <c r="S143" s="51">
-        <v>84</v>
-      </c>
-      <c r="T143" s="51">
-        <v>2.1</v>
-      </c>
-      <c r="U143" s="51">
-        <v>168</v>
-      </c>
-      <c r="V143" s="51">
-        <v>140</v>
-      </c>
-      <c r="W143" s="51">
-        <v>0.7</v>
-      </c>
-      <c r="X143" s="51">
-        <v>252</v>
-      </c>
-      <c r="Y143" s="51">
-        <v>21000</v>
-      </c>
-      <c r="Z143" s="51">
-        <v>2800</v>
-      </c>
-      <c r="AA143" s="51">
-        <v>420</v>
-      </c>
-      <c r="AB143" s="51"/>
-      <c r="AC143" s="51"/>
-      <c r="AD143" s="51"/>
-      <c r="AE143" s="52"/>
+      <c r="S143" s="50">
+        <v>60</v>
+      </c>
+      <c r="T143" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="U143" s="50">
+        <v>120</v>
+      </c>
+      <c r="V143" s="50">
+        <v>100</v>
+      </c>
+      <c r="W143" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="X143" s="50">
+        <v>180</v>
+      </c>
+      <c r="Y143" s="50">
+        <v>15000</v>
+      </c>
+      <c r="Z143" s="50">
+        <v>2000</v>
+      </c>
+      <c r="AA143" s="50">
+        <v>300</v>
+      </c>
+      <c r="AB143" s="50"/>
+      <c r="AC143" s="50"/>
+      <c r="AD143" s="50"/>
+      <c r="AE143" s="51"/>
     </row>
     <row r="144" ht="20.2" customHeight="1">
-      <c r="A144" t="s" s="48">
+      <c r="A144" t="s" s="49">
         <v>218</v>
       </c>
       <c r="B144" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C144" t="s" s="16">
         <v>33</v>
@@ -12361,78 +12365,78 @@
       <c r="D144" s="17"/>
       <c r="E144" s="17"/>
       <c r="F144" s="18">
-        <v>13.3</v>
+        <v>12.8</v>
       </c>
       <c r="G144" s="17">
-        <v>150</v>
-      </c>
-      <c r="H144" s="49">
-        <v>85</v>
-      </c>
-      <c r="I144" s="49">
-        <v>85</v>
-      </c>
-      <c r="J144" s="49">
-        <v>7.8</v>
-      </c>
-      <c r="K144" s="49">
+        <v>180</v>
+      </c>
+      <c r="H144" s="52">
+        <v>70</v>
+      </c>
+      <c r="I144" s="52">
+        <v>63</v>
+      </c>
+      <c r="J144" s="52">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K144" s="52">
+        <v>15</v>
+      </c>
+      <c r="L144" s="52">
+        <v>6.5</v>
+      </c>
+      <c r="M144" s="52">
+        <v>3.3</v>
+      </c>
+      <c r="N144" s="52">
         <v>10</v>
       </c>
-      <c r="L144" s="49">
-        <v>6</v>
-      </c>
-      <c r="M144" s="49">
-        <v>3</v>
-      </c>
-      <c r="N144" s="49">
-        <v>8.9</v>
-      </c>
-      <c r="O144" s="49">
-        <v>2.8</v>
-      </c>
-      <c r="P144" s="49">
-        <v>6.9</v>
+      <c r="O144" s="52">
+        <v>3.1</v>
+      </c>
+      <c r="P144" s="52">
+        <v>6.8</v>
       </c>
       <c r="Q144" s="17"/>
       <c r="R144" s="17"/>
-      <c r="S144" s="49">
-        <v>72</v>
-      </c>
-      <c r="T144" s="49">
-        <v>1.8</v>
-      </c>
-      <c r="U144" s="49">
-        <v>144</v>
-      </c>
-      <c r="V144" s="49">
-        <v>120</v>
-      </c>
-      <c r="W144" s="49">
-        <v>0.6</v>
-      </c>
-      <c r="X144" s="49">
-        <v>216</v>
-      </c>
-      <c r="Y144" s="49">
-        <v>18000</v>
-      </c>
-      <c r="Z144" s="49">
-        <v>2400</v>
-      </c>
-      <c r="AA144" s="49">
-        <v>360</v>
-      </c>
-      <c r="AB144" s="49"/>
-      <c r="AC144" s="49"/>
-      <c r="AD144" s="49"/>
-      <c r="AE144" s="50"/>
+      <c r="S144" s="52">
+        <v>84</v>
+      </c>
+      <c r="T144" s="52">
+        <v>2.1</v>
+      </c>
+      <c r="U144" s="52">
+        <v>168</v>
+      </c>
+      <c r="V144" s="52">
+        <v>140</v>
+      </c>
+      <c r="W144" s="52">
+        <v>0.7</v>
+      </c>
+      <c r="X144" s="52">
+        <v>252</v>
+      </c>
+      <c r="Y144" s="52">
+        <v>21000</v>
+      </c>
+      <c r="Z144" s="52">
+        <v>2800</v>
+      </c>
+      <c r="AA144" s="52">
+        <v>420</v>
+      </c>
+      <c r="AB144" s="52"/>
+      <c r="AC144" s="52"/>
+      <c r="AD144" s="52"/>
+      <c r="AE144" s="53"/>
     </row>
     <row r="145" ht="20.2" customHeight="1">
-      <c r="A145" t="s" s="48">
+      <c r="A145" t="s" s="49">
         <v>219</v>
       </c>
       <c r="B145" t="s" s="32">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C145" t="s" s="21">
         <v>33</v>
@@ -12440,82 +12444,78 @@
       <c r="D145" s="22"/>
       <c r="E145" s="22"/>
       <c r="F145" s="23">
-        <v>12.1</v>
+        <v>13.3</v>
       </c>
       <c r="G145" s="22">
-        <v>100</v>
-      </c>
-      <c r="H145" s="51">
-        <v>130</v>
-      </c>
-      <c r="I145" s="51">
-        <v>72</v>
-      </c>
-      <c r="J145" s="51">
-        <v>5.2</v>
-      </c>
-      <c r="K145" s="51">
-        <v>14</v>
-      </c>
-      <c r="L145" s="51">
-        <v>7</v>
-      </c>
-      <c r="M145" s="51">
+        <v>150</v>
+      </c>
+      <c r="H145" s="50">
+        <v>85</v>
+      </c>
+      <c r="I145" s="50">
+        <v>85</v>
+      </c>
+      <c r="J145" s="50">
+        <v>7.8</v>
+      </c>
+      <c r="K145" s="50">
+        <v>10</v>
+      </c>
+      <c r="L145" s="50">
+        <v>6</v>
+      </c>
+      <c r="M145" s="50">
         <v>3</v>
       </c>
-      <c r="N145" s="51">
-        <v>11</v>
-      </c>
-      <c r="O145" s="51">
-        <v>3.1</v>
-      </c>
-      <c r="P145" s="51">
-        <v>7.2</v>
+      <c r="N145" s="50">
+        <v>8.9</v>
+      </c>
+      <c r="O145" s="50">
+        <v>2.8</v>
+      </c>
+      <c r="P145" s="50">
+        <v>6.9</v>
       </c>
       <c r="Q145" s="22"/>
       <c r="R145" s="22"/>
-      <c r="S145" s="51">
-        <v>48.75</v>
-      </c>
-      <c r="T145" s="51">
-        <v>1.5</v>
-      </c>
-      <c r="U145" s="51">
-        <v>150</v>
-      </c>
-      <c r="V145" s="51">
-        <v>81.25</v>
-      </c>
-      <c r="W145" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="X145" s="51">
-        <v>150</v>
-      </c>
-      <c r="Y145" s="51">
-        <v>15000</v>
-      </c>
-      <c r="Z145" s="51">
-        <v>2500</v>
-      </c>
-      <c r="AA145" s="51">
-        <v>375</v>
-      </c>
-      <c r="AB145" s="51"/>
-      <c r="AC145" s="51"/>
-      <c r="AD145" s="51">
-        <v>4.4</v>
-      </c>
-      <c r="AE145" s="52">
-        <v>50</v>
-      </c>
+      <c r="S145" s="50">
+        <v>72</v>
+      </c>
+      <c r="T145" s="50">
+        <v>1.8</v>
+      </c>
+      <c r="U145" s="50">
+        <v>144</v>
+      </c>
+      <c r="V145" s="50">
+        <v>120</v>
+      </c>
+      <c r="W145" s="50">
+        <v>0.6</v>
+      </c>
+      <c r="X145" s="50">
+        <v>216</v>
+      </c>
+      <c r="Y145" s="50">
+        <v>18000</v>
+      </c>
+      <c r="Z145" s="50">
+        <v>2400</v>
+      </c>
+      <c r="AA145" s="50">
+        <v>360</v>
+      </c>
+      <c r="AB145" s="50"/>
+      <c r="AC145" s="50"/>
+      <c r="AD145" s="50"/>
+      <c r="AE145" s="51"/>
     </row>
     <row r="146" ht="20.2" customHeight="1">
-      <c r="A146" t="s" s="48">
+      <c r="A146" t="s" s="49">
         <v>220</v>
       </c>
       <c r="B146" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C146" t="s" s="16">
         <v>33</v>
@@ -12523,82 +12523,82 @@
       <c r="D146" s="17"/>
       <c r="E146" s="17"/>
       <c r="F146" s="18">
-        <v>11.6</v>
+        <v>12.1</v>
       </c>
       <c r="G146" s="17">
         <v>100</v>
       </c>
-      <c r="H146" s="49">
+      <c r="H146" s="52">
         <v>130</v>
       </c>
-      <c r="I146" s="49">
-        <v>55</v>
-      </c>
-      <c r="J146" s="49">
-        <v>5.3</v>
-      </c>
-      <c r="K146" s="49">
-        <v>12</v>
-      </c>
-      <c r="L146" s="49">
-        <v>6</v>
-      </c>
-      <c r="M146" s="49">
-        <v>3.3</v>
-      </c>
-      <c r="N146" s="49">
+      <c r="I146" s="52">
+        <v>72</v>
+      </c>
+      <c r="J146" s="52">
+        <v>5.2</v>
+      </c>
+      <c r="K146" s="52">
+        <v>14</v>
+      </c>
+      <c r="L146" s="52">
+        <v>7</v>
+      </c>
+      <c r="M146" s="52">
+        <v>3</v>
+      </c>
+      <c r="N146" s="52">
         <v>11</v>
       </c>
-      <c r="O146" s="49">
-        <v>3.5</v>
-      </c>
-      <c r="P146" s="49">
-        <v>6</v>
+      <c r="O146" s="52">
+        <v>3.1</v>
+      </c>
+      <c r="P146" s="52">
+        <v>7.2</v>
       </c>
       <c r="Q146" s="17"/>
       <c r="R146" s="17"/>
-      <c r="S146" s="49">
+      <c r="S146" s="52">
         <v>48.75</v>
       </c>
-      <c r="T146" s="49">
+      <c r="T146" s="52">
         <v>1.5</v>
       </c>
-      <c r="U146" s="49">
+      <c r="U146" s="52">
         <v>150</v>
       </c>
-      <c r="V146" s="49">
+      <c r="V146" s="52">
         <v>81.25</v>
       </c>
-      <c r="W146" s="49">
+      <c r="W146" s="52">
         <v>0.5</v>
       </c>
-      <c r="X146" s="49">
+      <c r="X146" s="52">
         <v>150</v>
       </c>
-      <c r="Y146" s="49">
+      <c r="Y146" s="52">
         <v>15000</v>
       </c>
-      <c r="Z146" s="49">
+      <c r="Z146" s="52">
         <v>2500</v>
       </c>
-      <c r="AA146" s="49">
+      <c r="AA146" s="52">
         <v>375</v>
       </c>
-      <c r="AB146" s="49"/>
-      <c r="AC146" s="49"/>
-      <c r="AD146" s="49">
+      <c r="AB146" s="52"/>
+      <c r="AC146" s="52"/>
+      <c r="AD146" s="52">
         <v>4.4</v>
       </c>
-      <c r="AE146" s="50">
+      <c r="AE146" s="53">
         <v>50</v>
       </c>
     </row>
     <row r="147" ht="20.2" customHeight="1">
-      <c r="A147" t="s" s="48">
+      <c r="A147" t="s" s="49">
         <v>221</v>
       </c>
       <c r="B147" t="s" s="32">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C147" t="s" s="21">
         <v>33</v>
@@ -12606,82 +12606,82 @@
       <c r="D147" s="22"/>
       <c r="E147" s="22"/>
       <c r="F147" s="23">
-        <v>12.8</v>
+        <v>11.6</v>
       </c>
       <c r="G147" s="22">
-        <v>140</v>
-      </c>
-      <c r="H147" s="51">
-        <v>120</v>
-      </c>
-      <c r="I147" s="51">
-        <v>85</v>
-      </c>
-      <c r="J147" s="51">
-        <v>8</v>
-      </c>
-      <c r="K147" s="51">
-        <v>13.5</v>
-      </c>
-      <c r="L147" s="51">
-        <v>6.8</v>
-      </c>
-      <c r="M147" s="51">
-        <v>3</v>
-      </c>
-      <c r="N147" s="51">
-        <v>9.9</v>
-      </c>
-      <c r="O147" s="51">
-        <v>2.9</v>
-      </c>
-      <c r="P147" s="51">
-        <v>6.9</v>
-      </c>
-      <c r="Q147" s="53"/>
-      <c r="R147" s="53"/>
-      <c r="S147" s="51">
+        <v>100</v>
+      </c>
+      <c r="H147" s="50">
+        <v>130</v>
+      </c>
+      <c r="I147" s="50">
+        <v>55</v>
+      </c>
+      <c r="J147" s="50">
+        <v>5.3</v>
+      </c>
+      <c r="K147" s="50">
+        <v>12</v>
+      </c>
+      <c r="L147" s="50">
+        <v>6</v>
+      </c>
+      <c r="M147" s="50">
+        <v>3.3</v>
+      </c>
+      <c r="N147" s="50">
+        <v>11</v>
+      </c>
+      <c r="O147" s="50">
+        <v>3.5</v>
+      </c>
+      <c r="P147" s="50">
+        <v>6</v>
+      </c>
+      <c r="Q147" s="22"/>
+      <c r="R147" s="22"/>
+      <c r="S147" s="50">
         <v>48.75</v>
       </c>
-      <c r="T147" s="51">
+      <c r="T147" s="50">
         <v>1.5</v>
       </c>
-      <c r="U147" s="51">
+      <c r="U147" s="50">
         <v>150</v>
       </c>
-      <c r="V147" s="51">
+      <c r="V147" s="50">
         <v>81.25</v>
       </c>
-      <c r="W147" s="51">
+      <c r="W147" s="50">
         <v>0.5</v>
       </c>
-      <c r="X147" s="51">
+      <c r="X147" s="50">
         <v>150</v>
       </c>
-      <c r="Y147" s="51">
+      <c r="Y147" s="50">
         <v>15000</v>
       </c>
-      <c r="Z147" s="51">
+      <c r="Z147" s="50">
         <v>2500</v>
       </c>
-      <c r="AA147" s="51">
+      <c r="AA147" s="50">
         <v>375</v>
       </c>
-      <c r="AB147" s="51"/>
-      <c r="AC147" s="51"/>
-      <c r="AD147" s="51">
+      <c r="AB147" s="50"/>
+      <c r="AC147" s="50"/>
+      <c r="AD147" s="50">
         <v>4.4</v>
       </c>
-      <c r="AE147" s="52">
+      <c r="AE147" s="51">
         <v>50</v>
       </c>
     </row>
     <row r="148" ht="20.2" customHeight="1">
-      <c r="A148" t="s" s="48">
+      <c r="A148" t="s" s="49">
         <v>222</v>
       </c>
       <c r="B148" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C148" t="s" s="16">
         <v>33</v>
@@ -12689,82 +12689,82 @@
       <c r="D148" s="17"/>
       <c r="E148" s="17"/>
       <c r="F148" s="18">
-        <v>11.8</v>
+        <v>12.8</v>
       </c>
       <c r="G148" s="17">
         <v>140</v>
       </c>
-      <c r="H148" s="49">
-        <v>140</v>
-      </c>
-      <c r="I148" s="49">
-        <v>65</v>
-      </c>
-      <c r="J148" s="49">
-        <v>7.3</v>
-      </c>
-      <c r="K148" s="49">
-        <v>11.5</v>
-      </c>
-      <c r="L148" s="49">
-        <v>6</v>
-      </c>
-      <c r="M148" s="49">
-        <v>3.3</v>
-      </c>
-      <c r="N148" s="49">
-        <v>11</v>
-      </c>
-      <c r="O148" s="49">
-        <v>3.6</v>
-      </c>
-      <c r="P148" s="49">
-        <v>6</v>
-      </c>
-      <c r="Q148" s="17"/>
-      <c r="R148" s="17"/>
-      <c r="S148" s="49">
+      <c r="H148" s="52">
+        <v>120</v>
+      </c>
+      <c r="I148" s="52">
+        <v>85</v>
+      </c>
+      <c r="J148" s="52">
+        <v>8</v>
+      </c>
+      <c r="K148" s="52">
+        <v>13.5</v>
+      </c>
+      <c r="L148" s="52">
+        <v>6.8</v>
+      </c>
+      <c r="M148" s="52">
+        <v>3</v>
+      </c>
+      <c r="N148" s="52">
+        <v>9.9</v>
+      </c>
+      <c r="O148" s="52">
+        <v>2.9</v>
+      </c>
+      <c r="P148" s="52">
+        <v>6.9</v>
+      </c>
+      <c r="Q148" s="54"/>
+      <c r="R148" s="54"/>
+      <c r="S148" s="52">
         <v>48.75</v>
       </c>
-      <c r="T148" s="49">
+      <c r="T148" s="52">
         <v>1.5</v>
       </c>
-      <c r="U148" s="49">
+      <c r="U148" s="52">
         <v>150</v>
       </c>
-      <c r="V148" s="49">
+      <c r="V148" s="52">
         <v>81.25</v>
       </c>
-      <c r="W148" s="49">
+      <c r="W148" s="52">
         <v>0.5</v>
       </c>
-      <c r="X148" s="49">
+      <c r="X148" s="52">
         <v>150</v>
       </c>
-      <c r="Y148" s="49">
+      <c r="Y148" s="52">
         <v>15000</v>
       </c>
-      <c r="Z148" s="49">
+      <c r="Z148" s="52">
         <v>2500</v>
       </c>
-      <c r="AA148" s="49">
+      <c r="AA148" s="52">
         <v>375</v>
       </c>
-      <c r="AB148" s="49"/>
-      <c r="AC148" s="49"/>
-      <c r="AD148" s="49">
+      <c r="AB148" s="52"/>
+      <c r="AC148" s="52"/>
+      <c r="AD148" s="52">
         <v>4.4</v>
       </c>
-      <c r="AE148" s="50">
+      <c r="AE148" s="53">
         <v>50</v>
       </c>
     </row>
-    <row r="149" ht="32.2" customHeight="1">
-      <c r="A149" t="s" s="48">
+    <row r="149" ht="20.2" customHeight="1">
+      <c r="A149" t="s" s="49">
         <v>223</v>
       </c>
       <c r="B149" t="s" s="32">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C149" t="s" s="21">
         <v>33</v>
@@ -12772,82 +12772,82 @@
       <c r="D149" s="22"/>
       <c r="E149" s="22"/>
       <c r="F149" s="23">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="G149" s="22">
         <v>140</v>
       </c>
-      <c r="H149" s="51">
-        <v>180</v>
-      </c>
-      <c r="I149" s="51">
-        <v>80</v>
-      </c>
-      <c r="J149" s="51">
-        <v>7.5</v>
-      </c>
-      <c r="K149" s="51">
-        <v>10.6</v>
-      </c>
-      <c r="L149" s="51">
+      <c r="H149" s="50">
+        <v>140</v>
+      </c>
+      <c r="I149" s="50">
+        <v>65</v>
+      </c>
+      <c r="J149" s="50">
+        <v>7.3</v>
+      </c>
+      <c r="K149" s="50">
+        <v>11.5</v>
+      </c>
+      <c r="L149" s="50">
         <v>6</v>
       </c>
-      <c r="M149" s="51">
+      <c r="M149" s="50">
+        <v>3.3</v>
+      </c>
+      <c r="N149" s="50">
+        <v>11</v>
+      </c>
+      <c r="O149" s="50">
         <v>3.6</v>
       </c>
-      <c r="N149" s="51">
-        <v>13.8</v>
-      </c>
-      <c r="O149" s="51">
-        <v>3.2</v>
-      </c>
-      <c r="P149" s="51">
-        <v>5.9</v>
+      <c r="P149" s="50">
+        <v>6</v>
       </c>
       <c r="Q149" s="22"/>
       <c r="R149" s="22"/>
-      <c r="S149" s="51">
+      <c r="S149" s="50">
         <v>48.75</v>
       </c>
-      <c r="T149" s="51">
+      <c r="T149" s="50">
         <v>1.5</v>
       </c>
-      <c r="U149" s="51">
+      <c r="U149" s="50">
         <v>150</v>
       </c>
-      <c r="V149" s="51">
+      <c r="V149" s="50">
         <v>81.25</v>
       </c>
-      <c r="W149" s="51">
+      <c r="W149" s="50">
         <v>0.5</v>
       </c>
-      <c r="X149" s="51">
+      <c r="X149" s="50">
         <v>150</v>
       </c>
-      <c r="Y149" s="51">
+      <c r="Y149" s="50">
         <v>15000</v>
       </c>
-      <c r="Z149" s="51">
+      <c r="Z149" s="50">
         <v>2500</v>
       </c>
-      <c r="AA149" s="51">
+      <c r="AA149" s="50">
         <v>375</v>
       </c>
-      <c r="AB149" s="51"/>
-      <c r="AC149" s="51"/>
-      <c r="AD149" s="51">
+      <c r="AB149" s="50"/>
+      <c r="AC149" s="50"/>
+      <c r="AD149" s="50">
         <v>4.4</v>
       </c>
-      <c r="AE149" s="52">
+      <c r="AE149" s="51">
         <v>50</v>
       </c>
     </row>
-    <row r="150" ht="20.2" customHeight="1">
-      <c r="A150" t="s" s="48">
+    <row r="150" ht="32.2" customHeight="1">
+      <c r="A150" t="s" s="49">
         <v>224</v>
       </c>
       <c r="B150" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C150" t="s" s="16">
         <v>33</v>
@@ -12855,78 +12855,82 @@
       <c r="D150" s="17"/>
       <c r="E150" s="17"/>
       <c r="F150" s="18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G150" s="17">
-        <v>200</v>
-      </c>
-      <c r="H150" s="49">
-        <v>85</v>
-      </c>
-      <c r="I150" s="49">
-        <v>70</v>
-      </c>
-      <c r="J150" s="49">
-        <v>11</v>
-      </c>
-      <c r="K150" s="49">
-        <v>26</v>
-      </c>
-      <c r="L150" s="49">
-        <v>10</v>
-      </c>
-      <c r="M150" s="49">
-        <v>4.5</v>
-      </c>
-      <c r="N150" s="49">
-        <v>11.6</v>
-      </c>
-      <c r="O150" s="49">
-        <v>5.2</v>
-      </c>
-      <c r="P150" s="49">
-        <v>10.2</v>
+        <v>140</v>
+      </c>
+      <c r="H150" s="52">
+        <v>180</v>
+      </c>
+      <c r="I150" s="52">
+        <v>80</v>
+      </c>
+      <c r="J150" s="52">
+        <v>7.5</v>
+      </c>
+      <c r="K150" s="52">
+        <v>10.6</v>
+      </c>
+      <c r="L150" s="52">
+        <v>6</v>
+      </c>
+      <c r="M150" s="52">
+        <v>3.6</v>
+      </c>
+      <c r="N150" s="52">
+        <v>13.8</v>
+      </c>
+      <c r="O150" s="52">
+        <v>3.2</v>
+      </c>
+      <c r="P150" s="52">
+        <v>5.9</v>
       </c>
       <c r="Q150" s="17"/>
       <c r="R150" s="17"/>
-      <c r="S150" s="49">
+      <c r="S150" s="52">
+        <v>48.75</v>
+      </c>
+      <c r="T150" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="U150" s="52">
         <v>150</v>
       </c>
-      <c r="T150" s="49">
-        <v>4</v>
-      </c>
-      <c r="U150" s="49">
-        <v>300</v>
-      </c>
-      <c r="V150" s="49">
-        <v>250</v>
-      </c>
-      <c r="W150" s="49">
-        <v>1.25</v>
-      </c>
-      <c r="X150" s="49">
-        <v>450</v>
-      </c>
-      <c r="Y150" s="49">
-        <v>37500</v>
-      </c>
-      <c r="Z150" s="49">
-        <v>5000</v>
-      </c>
-      <c r="AA150" s="49">
-        <v>750</v>
-      </c>
-      <c r="AB150" s="49"/>
-      <c r="AC150" s="49"/>
-      <c r="AD150" s="49"/>
-      <c r="AE150" s="50"/>
+      <c r="V150" s="52">
+        <v>81.25</v>
+      </c>
+      <c r="W150" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="X150" s="52">
+        <v>150</v>
+      </c>
+      <c r="Y150" s="52">
+        <v>15000</v>
+      </c>
+      <c r="Z150" s="52">
+        <v>2500</v>
+      </c>
+      <c r="AA150" s="52">
+        <v>375</v>
+      </c>
+      <c r="AB150" s="52"/>
+      <c r="AC150" s="52"/>
+      <c r="AD150" s="52">
+        <v>4.4</v>
+      </c>
+      <c r="AE150" s="53">
+        <v>50</v>
+      </c>
     </row>
     <row r="151" ht="20.2" customHeight="1">
-      <c r="A151" t="s" s="48">
+      <c r="A151" t="s" s="49">
         <v>225</v>
       </c>
       <c r="B151" t="s" s="32">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C151" t="s" s="21">
         <v>33</v>
@@ -12934,82 +12938,78 @@
       <c r="D151" s="22"/>
       <c r="E151" s="22"/>
       <c r="F151" s="23">
-        <v>11.8</v>
+        <v>13</v>
       </c>
       <c r="G151" s="22">
-        <v>300</v>
-      </c>
-      <c r="H151" s="51">
-        <v>80</v>
-      </c>
-      <c r="I151" s="51">
-        <v>60</v>
-      </c>
-      <c r="J151" s="51">
-        <v>21.6</v>
-      </c>
-      <c r="K151" s="51">
-        <v>40</v>
-      </c>
-      <c r="L151" s="51">
-        <v>16</v>
-      </c>
-      <c r="M151" s="51">
-        <v>12</v>
-      </c>
-      <c r="N151" s="51">
-        <v>15.2</v>
-      </c>
-      <c r="O151" s="51">
-        <v>3.2</v>
-      </c>
-      <c r="P151" s="51">
-        <v>6.9</v>
+        <v>200</v>
+      </c>
+      <c r="H151" s="50">
+        <v>85</v>
+      </c>
+      <c r="I151" s="50">
+        <v>70</v>
+      </c>
+      <c r="J151" s="50">
+        <v>11</v>
+      </c>
+      <c r="K151" s="50">
+        <v>26</v>
+      </c>
+      <c r="L151" s="50">
+        <v>10</v>
+      </c>
+      <c r="M151" s="50">
+        <v>4.5</v>
+      </c>
+      <c r="N151" s="50">
+        <v>11.6</v>
+      </c>
+      <c r="O151" s="50">
+        <v>5.2</v>
+      </c>
+      <c r="P151" s="50">
+        <v>10.2</v>
       </c>
       <c r="Q151" s="22"/>
       <c r="R151" s="22"/>
-      <c r="S151" s="51">
-        <v>195</v>
-      </c>
-      <c r="T151" s="51">
-        <v>6</v>
-      </c>
-      <c r="U151" s="51">
-        <v>600</v>
-      </c>
-      <c r="V151" s="51">
-        <v>325</v>
-      </c>
-      <c r="W151" s="51">
-        <v>2</v>
-      </c>
-      <c r="X151" s="51">
-        <v>600</v>
-      </c>
-      <c r="Y151" s="51">
-        <v>60000</v>
-      </c>
-      <c r="Z151" s="51">
-        <v>10000</v>
-      </c>
-      <c r="AA151" s="51">
-        <v>1500</v>
-      </c>
-      <c r="AB151" s="51"/>
-      <c r="AC151" s="51"/>
-      <c r="AD151" s="51">
-        <v>17.6</v>
-      </c>
-      <c r="AE151" s="52">
-        <v>200</v>
-      </c>
+      <c r="S151" s="50">
+        <v>150</v>
+      </c>
+      <c r="T151" s="50">
+        <v>4</v>
+      </c>
+      <c r="U151" s="50">
+        <v>300</v>
+      </c>
+      <c r="V151" s="50">
+        <v>250</v>
+      </c>
+      <c r="W151" s="50">
+        <v>1.25</v>
+      </c>
+      <c r="X151" s="50">
+        <v>450</v>
+      </c>
+      <c r="Y151" s="50">
+        <v>37500</v>
+      </c>
+      <c r="Z151" s="50">
+        <v>5000</v>
+      </c>
+      <c r="AA151" s="50">
+        <v>750</v>
+      </c>
+      <c r="AB151" s="50"/>
+      <c r="AC151" s="50"/>
+      <c r="AD151" s="50"/>
+      <c r="AE151" s="51"/>
     </row>
     <row r="152" ht="20.2" customHeight="1">
-      <c r="A152" t="s" s="48">
+      <c r="A152" t="s" s="49">
         <v>226</v>
       </c>
       <c r="B152" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C152" t="s" s="16">
         <v>33</v>
@@ -13017,62 +13017,82 @@
       <c r="D152" s="17"/>
       <c r="E152" s="17"/>
       <c r="F152" s="18">
-        <v>15.5</v>
+        <v>11.8</v>
       </c>
       <c r="G152" s="17">
-        <v>190</v>
-      </c>
-      <c r="H152" s="49">
-        <v>70</v>
-      </c>
-      <c r="I152" s="49">
-        <v>180</v>
-      </c>
-      <c r="J152" s="49">
-        <v>10.7</v>
-      </c>
-      <c r="K152" s="49">
-        <v>3</v>
-      </c>
-      <c r="L152" s="49">
-        <v>4</v>
-      </c>
-      <c r="M152" s="49">
-        <v>2</v>
-      </c>
-      <c r="N152" s="49">
-        <v>11.5</v>
-      </c>
-      <c r="O152" s="49">
-        <v>4</v>
-      </c>
-      <c r="P152" s="49">
-        <v>2</v>
+        <v>300</v>
+      </c>
+      <c r="H152" s="52">
+        <v>80</v>
+      </c>
+      <c r="I152" s="52">
+        <v>60</v>
+      </c>
+      <c r="J152" s="52">
+        <v>21.6</v>
+      </c>
+      <c r="K152" s="52">
+        <v>40</v>
+      </c>
+      <c r="L152" s="52">
+        <v>16</v>
+      </c>
+      <c r="M152" s="52">
+        <v>12</v>
+      </c>
+      <c r="N152" s="52">
+        <v>15.2</v>
+      </c>
+      <c r="O152" s="52">
+        <v>3.2</v>
+      </c>
+      <c r="P152" s="52">
+        <v>6.9</v>
       </c>
       <c r="Q152" s="17"/>
       <c r="R152" s="17"/>
-      <c r="S152" s="49"/>
-      <c r="T152" s="49"/>
-      <c r="U152" s="49"/>
-      <c r="V152" s="49"/>
-      <c r="W152" s="49"/>
-      <c r="X152" s="49"/>
-      <c r="Y152" s="49"/>
-      <c r="Z152" s="49"/>
-      <c r="AA152" s="49">
-        <v>750</v>
-      </c>
-      <c r="AB152" s="49"/>
-      <c r="AC152" s="49"/>
-      <c r="AD152" s="49"/>
-      <c r="AE152" s="50"/>
+      <c r="S152" s="52">
+        <v>195</v>
+      </c>
+      <c r="T152" s="52">
+        <v>6</v>
+      </c>
+      <c r="U152" s="52">
+        <v>600</v>
+      </c>
+      <c r="V152" s="52">
+        <v>325</v>
+      </c>
+      <c r="W152" s="52">
+        <v>2</v>
+      </c>
+      <c r="X152" s="52">
+        <v>600</v>
+      </c>
+      <c r="Y152" s="52">
+        <v>60000</v>
+      </c>
+      <c r="Z152" s="52">
+        <v>10000</v>
+      </c>
+      <c r="AA152" s="52">
+        <v>1500</v>
+      </c>
+      <c r="AB152" s="52"/>
+      <c r="AC152" s="52"/>
+      <c r="AD152" s="52">
+        <v>17.6</v>
+      </c>
+      <c r="AE152" s="53">
+        <v>200</v>
+      </c>
     </row>
     <row r="153" ht="20.2" customHeight="1">
-      <c r="A153" t="s" s="48">
+      <c r="A153" t="s" s="49">
         <v>227</v>
       </c>
       <c r="B153" t="s" s="32">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C153" t="s" s="21">
         <v>33</v>
@@ -13080,82 +13100,62 @@
       <c r="D153" s="22"/>
       <c r="E153" s="22"/>
       <c r="F153" s="23">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="G153" s="22">
-        <v>140</v>
-      </c>
-      <c r="H153" s="51">
-        <v>160</v>
-      </c>
-      <c r="I153" s="51">
-        <v>80</v>
-      </c>
-      <c r="J153" s="51">
-        <v>5.3</v>
-      </c>
-      <c r="K153" s="51">
-        <v>16.3</v>
-      </c>
-      <c r="L153" s="51">
-        <v>8.1</v>
-      </c>
-      <c r="M153" s="51">
-        <v>3.3</v>
-      </c>
-      <c r="N153" s="51">
-        <v>13.9</v>
-      </c>
-      <c r="O153" s="51">
-        <v>3.1</v>
-      </c>
-      <c r="P153" s="51">
-        <v>6.4</v>
-      </c>
-      <c r="Q153" s="53"/>
-      <c r="R153" s="53"/>
-      <c r="S153" s="51">
-        <v>51.25</v>
-      </c>
-      <c r="T153" s="51">
-        <v>1.5</v>
-      </c>
-      <c r="U153" s="51">
-        <v>150</v>
-      </c>
-      <c r="V153" s="51">
-        <v>80.75</v>
-      </c>
-      <c r="W153" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="X153" s="51">
-        <v>151.75</v>
-      </c>
-      <c r="Y153" s="51">
-        <v>15000</v>
-      </c>
-      <c r="Z153" s="51">
-        <v>2500</v>
-      </c>
-      <c r="AA153" s="51">
-        <v>375</v>
-      </c>
-      <c r="AB153" s="51"/>
-      <c r="AC153" s="51"/>
-      <c r="AD153" s="51">
-        <v>4.4</v>
-      </c>
-      <c r="AE153" s="52">
-        <v>50</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="H153" s="50">
+        <v>70</v>
+      </c>
+      <c r="I153" s="50">
+        <v>180</v>
+      </c>
+      <c r="J153" s="50">
+        <v>10.7</v>
+      </c>
+      <c r="K153" s="50">
+        <v>3</v>
+      </c>
+      <c r="L153" s="50">
+        <v>4</v>
+      </c>
+      <c r="M153" s="50">
+        <v>2</v>
+      </c>
+      <c r="N153" s="50">
+        <v>11.5</v>
+      </c>
+      <c r="O153" s="50">
+        <v>4</v>
+      </c>
+      <c r="P153" s="50">
+        <v>2</v>
+      </c>
+      <c r="Q153" s="22"/>
+      <c r="R153" s="22"/>
+      <c r="S153" s="50"/>
+      <c r="T153" s="50"/>
+      <c r="U153" s="50"/>
+      <c r="V153" s="50"/>
+      <c r="W153" s="50"/>
+      <c r="X153" s="50"/>
+      <c r="Y153" s="50"/>
+      <c r="Z153" s="50"/>
+      <c r="AA153" s="50">
+        <v>750</v>
+      </c>
+      <c r="AB153" s="50"/>
+      <c r="AC153" s="50"/>
+      <c r="AD153" s="50"/>
+      <c r="AE153" s="51"/>
     </row>
     <row r="154" ht="20.2" customHeight="1">
-      <c r="A154" t="s" s="48">
+      <c r="A154" t="s" s="49">
         <v>228</v>
       </c>
       <c r="B154" t="s" s="25">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C154" t="s" s="16">
         <v>33</v>
@@ -13163,955 +13163,1038 @@
       <c r="D154" s="17"/>
       <c r="E154" s="17"/>
       <c r="F154" s="18">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="G154" s="17">
         <v>140</v>
       </c>
-      <c r="H154" s="49">
-        <v>120</v>
-      </c>
-      <c r="I154" s="49">
-        <v>70</v>
-      </c>
-      <c r="J154" s="49">
+      <c r="H154" s="52">
+        <v>160</v>
+      </c>
+      <c r="I154" s="52">
+        <v>80</v>
+      </c>
+      <c r="J154" s="52">
         <v>5.3</v>
       </c>
-      <c r="K154" s="49">
-        <v>11.5</v>
-      </c>
-      <c r="L154" s="49">
-        <v>7.5</v>
-      </c>
-      <c r="M154" s="49">
-        <v>3</v>
-      </c>
-      <c r="N154" s="49">
-        <v>10.7</v>
-      </c>
-      <c r="O154" s="49">
+      <c r="K154" s="52">
+        <v>16.3</v>
+      </c>
+      <c r="L154" s="52">
+        <v>8.1</v>
+      </c>
+      <c r="M154" s="52">
+        <v>3.3</v>
+      </c>
+      <c r="N154" s="52">
+        <v>13.9</v>
+      </c>
+      <c r="O154" s="52">
         <v>3.1</v>
       </c>
-      <c r="P154" s="49">
-        <v>6.6</v>
-      </c>
-      <c r="Q154" s="17"/>
-      <c r="R154" s="17"/>
-      <c r="S154" s="49">
-        <v>60</v>
-      </c>
-      <c r="T154" s="49">
+      <c r="P154" s="52">
+        <v>6.4</v>
+      </c>
+      <c r="Q154" s="54"/>
+      <c r="R154" s="54"/>
+      <c r="S154" s="52">
+        <v>51.25</v>
+      </c>
+      <c r="T154" s="52">
         <v>1.5</v>
       </c>
-      <c r="U154" s="49">
-        <v>120</v>
-      </c>
-      <c r="V154" s="49">
-        <v>100</v>
-      </c>
-      <c r="W154" s="49">
+      <c r="U154" s="52">
+        <v>150</v>
+      </c>
+      <c r="V154" s="52">
+        <v>80.75</v>
+      </c>
+      <c r="W154" s="52">
         <v>0.5</v>
       </c>
-      <c r="X154" s="49">
-        <v>180</v>
-      </c>
-      <c r="Y154" s="49">
+      <c r="X154" s="52">
+        <v>151.75</v>
+      </c>
+      <c r="Y154" s="52">
         <v>15000</v>
       </c>
-      <c r="Z154" s="49">
-        <v>2000</v>
-      </c>
-      <c r="AA154" s="49">
-        <v>300</v>
-      </c>
-      <c r="AB154" s="49"/>
-      <c r="AC154" s="49"/>
-      <c r="AD154" s="49"/>
-      <c r="AE154" s="50"/>
+      <c r="Z154" s="52">
+        <v>2500</v>
+      </c>
+      <c r="AA154" s="52">
+        <v>375</v>
+      </c>
+      <c r="AB154" s="52"/>
+      <c r="AC154" s="52"/>
+      <c r="AD154" s="52">
+        <v>4.4</v>
+      </c>
+      <c r="AE154" s="53">
+        <v>50</v>
+      </c>
     </row>
     <row r="155" ht="20.2" customHeight="1">
-      <c r="A155" t="s" s="48">
+      <c r="A155" t="s" s="49">
         <v>229</v>
       </c>
       <c r="B155" t="s" s="32">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="C155" t="s" s="21">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="D155" s="22"/>
       <c r="E155" s="22"/>
-      <c r="F155" s="23"/>
-      <c r="G155" s="22"/>
-      <c r="H155" s="51"/>
-      <c r="I155" s="51"/>
-      <c r="J155" s="51"/>
-      <c r="K155" s="51">
-        <v>80</v>
-      </c>
-      <c r="L155" s="51">
-        <v>25</v>
-      </c>
-      <c r="M155" s="51">
-        <v>30</v>
-      </c>
-      <c r="N155" s="51">
-        <v>25</v>
-      </c>
-      <c r="O155" s="51">
-        <v>26</v>
-      </c>
-      <c r="P155" s="51"/>
+      <c r="F155" s="23">
+        <v>12.4</v>
+      </c>
+      <c r="G155" s="22">
+        <v>140</v>
+      </c>
+      <c r="H155" s="50">
+        <v>120</v>
+      </c>
+      <c r="I155" s="50">
+        <v>70</v>
+      </c>
+      <c r="J155" s="50">
+        <v>5.3</v>
+      </c>
+      <c r="K155" s="50">
+        <v>11.5</v>
+      </c>
+      <c r="L155" s="50">
+        <v>7.5</v>
+      </c>
+      <c r="M155" s="50">
+        <v>3</v>
+      </c>
+      <c r="N155" s="50">
+        <v>10.7</v>
+      </c>
+      <c r="O155" s="50">
+        <v>3.1</v>
+      </c>
+      <c r="P155" s="50">
+        <v>6.6</v>
+      </c>
       <c r="Q155" s="22"/>
       <c r="R155" s="22"/>
-      <c r="S155" s="51">
-        <v>160</v>
-      </c>
-      <c r="T155" s="51">
-        <v>8</v>
-      </c>
-      <c r="U155" s="51">
-        <v>1200</v>
-      </c>
-      <c r="V155" s="51"/>
-      <c r="W155" s="51">
-        <v>6</v>
-      </c>
-      <c r="X155" s="51">
-        <v>500</v>
-      </c>
-      <c r="Y155" s="51">
-        <v>200000</v>
-      </c>
-      <c r="Z155" s="51">
-        <v>20000</v>
-      </c>
-      <c r="AA155" s="51">
-        <v>1000</v>
-      </c>
-      <c r="AB155" s="51"/>
-      <c r="AC155" s="51"/>
-      <c r="AD155" s="51"/>
-      <c r="AE155" s="52">
-        <v>800</v>
-      </c>
+      <c r="S155" s="50">
+        <v>60</v>
+      </c>
+      <c r="T155" s="50">
+        <v>1.5</v>
+      </c>
+      <c r="U155" s="50">
+        <v>120</v>
+      </c>
+      <c r="V155" s="50">
+        <v>100</v>
+      </c>
+      <c r="W155" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="X155" s="50">
+        <v>180</v>
+      </c>
+      <c r="Y155" s="50">
+        <v>15000</v>
+      </c>
+      <c r="Z155" s="50">
+        <v>2000</v>
+      </c>
+      <c r="AA155" s="50">
+        <v>300</v>
+      </c>
+      <c r="AB155" s="50"/>
+      <c r="AC155" s="50"/>
+      <c r="AD155" s="50"/>
+      <c r="AE155" s="51"/>
     </row>
     <row r="156" ht="20.2" customHeight="1">
-      <c r="A156" t="s" s="48">
+      <c r="A156" t="s" s="49">
+        <v>230</v>
+      </c>
+      <c r="B156" t="s" s="25">
+        <v>142</v>
+      </c>
+      <c r="C156" t="s" s="16">
         <v>231</v>
-      </c>
-      <c r="B156" t="s" s="25">
-        <v>232</v>
-      </c>
-      <c r="C156" t="s" s="16">
-        <v>230</v>
       </c>
       <c r="D156" s="17"/>
       <c r="E156" s="17"/>
       <c r="F156" s="18"/>
-      <c r="G156" s="17">
-        <v>1.38</v>
-      </c>
-      <c r="H156" s="49">
-        <v>0.12</v>
-      </c>
-      <c r="I156" s="49">
-        <v>0.48</v>
-      </c>
-      <c r="J156" s="49">
-        <v>0.3</v>
-      </c>
-      <c r="K156" s="49">
-        <v>0.09</v>
-      </c>
-      <c r="L156" s="49"/>
-      <c r="M156" s="49"/>
-      <c r="N156" s="49"/>
-      <c r="O156" s="49">
-        <v>0.39</v>
-      </c>
-      <c r="P156" s="49"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="52"/>
+      <c r="I156" s="52"/>
+      <c r="J156" s="52"/>
+      <c r="K156" s="52">
+        <v>80</v>
+      </c>
+      <c r="L156" s="52">
+        <v>25</v>
+      </c>
+      <c r="M156" s="52">
+        <v>30</v>
+      </c>
+      <c r="N156" s="52">
+        <v>25</v>
+      </c>
+      <c r="O156" s="52">
+        <v>26</v>
+      </c>
+      <c r="P156" s="52"/>
       <c r="Q156" s="17"/>
       <c r="R156" s="17"/>
-      <c r="S156" s="49">
-        <v>42</v>
-      </c>
-      <c r="T156" s="49">
-        <v>0.6</v>
-      </c>
-      <c r="U156" s="49">
-        <v>48</v>
-      </c>
-      <c r="V156" s="49">
-        <v>120</v>
-      </c>
-      <c r="W156" s="49">
-        <v>0.21</v>
-      </c>
-      <c r="X156" s="49">
-        <v>150</v>
-      </c>
-      <c r="Y156" s="49">
-        <v>18000</v>
-      </c>
-      <c r="Z156" s="49">
-        <v>2700</v>
-      </c>
-      <c r="AA156" s="49">
-        <v>510</v>
-      </c>
-      <c r="AB156" s="49">
-        <v>30</v>
-      </c>
-      <c r="AC156" s="49">
-        <v>12</v>
-      </c>
-      <c r="AD156" s="49">
-        <v>3</v>
-      </c>
-      <c r="AE156" s="50"/>
-    </row>
-    <row r="157" ht="32.2" customHeight="1">
-      <c r="A157" t="s" s="48">
+      <c r="S156" s="52">
+        <v>160</v>
+      </c>
+      <c r="T156" s="52">
+        <v>8</v>
+      </c>
+      <c r="U156" s="52">
+        <v>1200</v>
+      </c>
+      <c r="V156" s="52"/>
+      <c r="W156" s="52">
+        <v>6</v>
+      </c>
+      <c r="X156" s="52">
+        <v>500</v>
+      </c>
+      <c r="Y156" s="52">
+        <v>200000</v>
+      </c>
+      <c r="Z156" s="52">
+        <v>20000</v>
+      </c>
+      <c r="AA156" s="52">
+        <v>1000</v>
+      </c>
+      <c r="AB156" s="52"/>
+      <c r="AC156" s="52"/>
+      <c r="AD156" s="52"/>
+      <c r="AE156" s="53">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="157" ht="20.2" customHeight="1">
+      <c r="A157" t="s" s="49">
+        <v>232</v>
+      </c>
+      <c r="B157" t="s" s="32">
         <v>233</v>
       </c>
-      <c r="B157" t="s" s="32">
-        <v>234</v>
-      </c>
       <c r="C157" t="s" s="21">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D157" s="22"/>
       <c r="E157" s="22"/>
-      <c r="F157" s="23">
-        <v>7.87</v>
-      </c>
+      <c r="F157" s="23"/>
       <c r="G157" s="22">
-        <v>225.3</v>
-      </c>
-      <c r="H157" s="51"/>
-      <c r="I157" s="51">
-        <v>146.5</v>
-      </c>
-      <c r="J157" s="51">
-        <v>13.36</v>
-      </c>
-      <c r="K157" s="51">
-        <v>17</v>
-      </c>
-      <c r="L157" s="51">
-        <v>6</v>
-      </c>
-      <c r="M157" s="51">
-        <v>3570</v>
-      </c>
-      <c r="N157" s="51"/>
-      <c r="O157" s="51"/>
-      <c r="P157" s="51"/>
-      <c r="Q157" s="22">
-        <v>23</v>
-      </c>
+        <v>1.38</v>
+      </c>
+      <c r="H157" s="50">
+        <v>0.12</v>
+      </c>
+      <c r="I157" s="50">
+        <v>0.48</v>
+      </c>
+      <c r="J157" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="K157" s="50">
+        <v>0.09</v>
+      </c>
+      <c r="L157" s="50"/>
+      <c r="M157" s="50"/>
+      <c r="N157" s="50"/>
+      <c r="O157" s="50">
+        <v>0.39</v>
+      </c>
+      <c r="P157" s="50"/>
+      <c r="Q157" s="22"/>
       <c r="R157" s="22"/>
-      <c r="S157" s="51">
-        <v>350</v>
-      </c>
-      <c r="T157" s="51"/>
-      <c r="U157" s="51"/>
-      <c r="V157" s="51">
-        <v>350</v>
-      </c>
-      <c r="W157" s="51">
-        <v>1.5</v>
-      </c>
-      <c r="X157" s="51">
-        <v>1069</v>
-      </c>
-      <c r="Y157" s="51">
-        <v>20000</v>
-      </c>
-      <c r="Z157" s="51">
-        <v>47300</v>
-      </c>
-      <c r="AA157" s="51">
-        <v>5000</v>
-      </c>
-      <c r="AB157" s="51">
-        <v>160</v>
-      </c>
-      <c r="AC157" s="51"/>
-      <c r="AD157" s="51"/>
-      <c r="AE157" s="52">
-        <v>7090</v>
-      </c>
-    </row>
-    <row r="158" ht="20.2" customHeight="1">
-      <c r="A158" t="s" s="48">
+      <c r="S157" s="50">
+        <v>42</v>
+      </c>
+      <c r="T157" s="50">
+        <v>0.6</v>
+      </c>
+      <c r="U157" s="50">
+        <v>48</v>
+      </c>
+      <c r="V157" s="50">
+        <v>120</v>
+      </c>
+      <c r="W157" s="50">
+        <v>0.21</v>
+      </c>
+      <c r="X157" s="50">
+        <v>150</v>
+      </c>
+      <c r="Y157" s="50">
+        <v>18000</v>
+      </c>
+      <c r="Z157" s="50">
+        <v>2700</v>
+      </c>
+      <c r="AA157" s="50">
+        <v>510</v>
+      </c>
+      <c r="AB157" s="50">
+        <v>30</v>
+      </c>
+      <c r="AC157" s="50">
+        <v>12</v>
+      </c>
+      <c r="AD157" s="50">
+        <v>3</v>
+      </c>
+      <c r="AE157" s="51"/>
+    </row>
+    <row r="158" ht="32.2" customHeight="1">
+      <c r="A158" t="s" s="49">
+        <v>234</v>
+      </c>
+      <c r="B158" t="s" s="25">
         <v>235</v>
       </c>
-      <c r="B158" t="s" s="25">
-        <v>232</v>
-      </c>
       <c r="C158" t="s" s="16">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="17"/>
-      <c r="F158" s="18"/>
-      <c r="G158" s="17"/>
-      <c r="H158" s="49"/>
-      <c r="I158" s="49"/>
-      <c r="J158" s="49"/>
-      <c r="K158" s="49"/>
-      <c r="L158" s="49"/>
-      <c r="M158" s="49"/>
-      <c r="N158" s="49"/>
-      <c r="O158" s="49"/>
-      <c r="P158" s="49"/>
-      <c r="Q158" s="17"/>
+      <c r="F158" s="18">
+        <v>7.87</v>
+      </c>
+      <c r="G158" s="17">
+        <v>225.3</v>
+      </c>
+      <c r="H158" s="52"/>
+      <c r="I158" s="52">
+        <v>146.5</v>
+      </c>
+      <c r="J158" s="52">
+        <v>13.36</v>
+      </c>
+      <c r="K158" s="52">
+        <v>17</v>
+      </c>
+      <c r="L158" s="52">
+        <v>6</v>
+      </c>
+      <c r="M158" s="52">
+        <v>3570</v>
+      </c>
+      <c r="N158" s="52"/>
+      <c r="O158" s="52"/>
+      <c r="P158" s="52"/>
+      <c r="Q158" s="17">
+        <v>23</v>
+      </c>
       <c r="R158" s="17"/>
-      <c r="S158" s="49">
-        <v>250</v>
-      </c>
-      <c r="T158" s="49"/>
-      <c r="U158" s="49"/>
-      <c r="V158" s="49"/>
-      <c r="W158" s="49"/>
-      <c r="X158" s="49">
-        <v>3415</v>
-      </c>
-      <c r="Y158" s="49"/>
-      <c r="Z158" s="49"/>
-      <c r="AA158" s="49"/>
-      <c r="AB158" s="49"/>
-      <c r="AC158" s="49"/>
-      <c r="AD158" s="49"/>
-      <c r="AE158" s="50"/>
+      <c r="S158" s="52">
+        <v>350</v>
+      </c>
+      <c r="T158" s="52"/>
+      <c r="U158" s="52"/>
+      <c r="V158" s="52">
+        <v>350</v>
+      </c>
+      <c r="W158" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="X158" s="52">
+        <v>1069</v>
+      </c>
+      <c r="Y158" s="52">
+        <v>20000</v>
+      </c>
+      <c r="Z158" s="52">
+        <v>47300</v>
+      </c>
+      <c r="AA158" s="52">
+        <v>5000</v>
+      </c>
+      <c r="AB158" s="52">
+        <v>160</v>
+      </c>
+      <c r="AC158" s="52"/>
+      <c r="AD158" s="52"/>
+      <c r="AE158" s="53">
+        <v>7090</v>
+      </c>
     </row>
     <row r="159" ht="20.2" customHeight="1">
-      <c r="A159" t="s" s="48">
+      <c r="A159" t="s" s="49">
         <v>236</v>
       </c>
       <c r="B159" t="s" s="32">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C159" t="s" s="21">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D159" s="22"/>
       <c r="E159" s="22"/>
       <c r="F159" s="23"/>
-      <c r="G159" s="22">
-        <v>19.2</v>
-      </c>
-      <c r="H159" s="51">
-        <v>1.05</v>
-      </c>
-      <c r="I159" s="51">
-        <v>4.8</v>
-      </c>
-      <c r="J159" s="51">
-        <v>14.62</v>
-      </c>
-      <c r="K159" s="51">
-        <v>20.1</v>
-      </c>
-      <c r="L159" s="51">
-        <v>10.2</v>
-      </c>
-      <c r="M159" s="51">
-        <v>0.6</v>
-      </c>
-      <c r="N159" s="51"/>
-      <c r="O159" s="51"/>
-      <c r="P159" s="51"/>
+      <c r="G159" s="22"/>
+      <c r="H159" s="50"/>
+      <c r="I159" s="50"/>
+      <c r="J159" s="50"/>
+      <c r="K159" s="50"/>
+      <c r="L159" s="50"/>
+      <c r="M159" s="50"/>
+      <c r="N159" s="50"/>
+      <c r="O159" s="50"/>
+      <c r="P159" s="50"/>
       <c r="Q159" s="22"/>
       <c r="R159" s="22"/>
-      <c r="S159" s="51">
-        <v>300</v>
-      </c>
-      <c r="T159" s="51"/>
-      <c r="U159" s="51"/>
-      <c r="V159" s="51">
-        <v>360</v>
-      </c>
-      <c r="W159" s="51"/>
-      <c r="X159" s="51">
-        <v>750</v>
-      </c>
-      <c r="Y159" s="51"/>
-      <c r="Z159" s="51">
-        <v>470</v>
-      </c>
-      <c r="AA159" s="51"/>
-      <c r="AB159" s="51"/>
-      <c r="AC159" s="51"/>
-      <c r="AD159" s="51">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AE159" s="52"/>
+      <c r="S159" s="50">
+        <v>250</v>
+      </c>
+      <c r="T159" s="50"/>
+      <c r="U159" s="50"/>
+      <c r="V159" s="50"/>
+      <c r="W159" s="50"/>
+      <c r="X159" s="50">
+        <v>3415</v>
+      </c>
+      <c r="Y159" s="50"/>
+      <c r="Z159" s="50"/>
+      <c r="AA159" s="50"/>
+      <c r="AB159" s="50"/>
+      <c r="AC159" s="50"/>
+      <c r="AD159" s="50"/>
+      <c r="AE159" s="51"/>
     </row>
     <row r="160" ht="20.2" customHeight="1">
-      <c r="A160" t="s" s="48">
+      <c r="A160" t="s" s="49">
         <v>237</v>
       </c>
       <c r="B160" t="s" s="25">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C160" t="s" s="16">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D160" s="17"/>
       <c r="E160" s="17"/>
       <c r="F160" s="18"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="49"/>
-      <c r="I160" s="49"/>
-      <c r="J160" s="49"/>
-      <c r="K160" s="49"/>
-      <c r="L160" s="49"/>
-      <c r="M160" s="49">
-        <v>0.09</v>
-      </c>
-      <c r="N160" s="49">
-        <v>1.56</v>
-      </c>
-      <c r="O160" s="49">
-        <v>3.12</v>
-      </c>
-      <c r="P160" s="49">
-        <v>6.27</v>
-      </c>
+      <c r="G160" s="17">
+        <v>19.2</v>
+      </c>
+      <c r="H160" s="52">
+        <v>1.05</v>
+      </c>
+      <c r="I160" s="52">
+        <v>4.8</v>
+      </c>
+      <c r="J160" s="52">
+        <v>14.62</v>
+      </c>
+      <c r="K160" s="52">
+        <v>20.1</v>
+      </c>
+      <c r="L160" s="52">
+        <v>10.2</v>
+      </c>
+      <c r="M160" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="N160" s="52"/>
+      <c r="O160" s="52"/>
+      <c r="P160" s="52"/>
       <c r="Q160" s="17"/>
       <c r="R160" s="17"/>
-      <c r="S160" s="49"/>
-      <c r="T160" s="49"/>
-      <c r="U160" s="49"/>
-      <c r="V160" s="49"/>
-      <c r="W160" s="49"/>
-      <c r="X160" s="49"/>
-      <c r="Y160" s="49"/>
-      <c r="Z160" s="49"/>
-      <c r="AA160" s="49">
-        <v>1.14</v>
-      </c>
-      <c r="AB160" s="49"/>
-      <c r="AC160" s="49"/>
-      <c r="AD160" s="49"/>
-      <c r="AE160" s="50">
-        <v>552</v>
-      </c>
+      <c r="S160" s="52">
+        <v>300</v>
+      </c>
+      <c r="T160" s="52"/>
+      <c r="U160" s="52"/>
+      <c r="V160" s="52">
+        <v>360</v>
+      </c>
+      <c r="W160" s="52"/>
+      <c r="X160" s="52">
+        <v>750</v>
+      </c>
+      <c r="Y160" s="52"/>
+      <c r="Z160" s="52">
+        <v>470</v>
+      </c>
+      <c r="AA160" s="52"/>
+      <c r="AB160" s="52"/>
+      <c r="AC160" s="52"/>
+      <c r="AD160" s="52">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE160" s="53"/>
     </row>
     <row r="161" ht="20.2" customHeight="1">
-      <c r="A161" t="s" s="48">
+      <c r="A161" t="s" s="49">
         <v>238</v>
       </c>
       <c r="B161" t="s" s="32">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C161" t="s" s="21">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D161" s="22"/>
       <c r="E161" s="22"/>
       <c r="F161" s="23"/>
       <c r="G161" s="22"/>
-      <c r="H161" s="51"/>
-      <c r="I161" s="51"/>
-      <c r="J161" s="51">
-        <v>10</v>
-      </c>
-      <c r="K161" s="51">
-        <v>17.4</v>
-      </c>
-      <c r="L161" s="51">
-        <v>6.1</v>
-      </c>
-      <c r="M161" s="51">
-        <v>2</v>
-      </c>
-      <c r="N161" s="51"/>
-      <c r="O161" s="51"/>
-      <c r="P161" s="51"/>
+      <c r="H161" s="50"/>
+      <c r="I161" s="50"/>
+      <c r="J161" s="50"/>
+      <c r="K161" s="50"/>
+      <c r="L161" s="50"/>
+      <c r="M161" s="50">
+        <v>0.09</v>
+      </c>
+      <c r="N161" s="50">
+        <v>1.56</v>
+      </c>
+      <c r="O161" s="50">
+        <v>3.12</v>
+      </c>
+      <c r="P161" s="50">
+        <v>6.27</v>
+      </c>
       <c r="Q161" s="22"/>
       <c r="R161" s="22"/>
-      <c r="S161" s="51">
-        <v>50</v>
-      </c>
-      <c r="T161" s="51">
-        <v>7</v>
-      </c>
-      <c r="U161" s="51">
-        <v>180</v>
-      </c>
-      <c r="V161" s="51">
-        <v>125</v>
-      </c>
-      <c r="W161" s="51">
-        <v>1.4</v>
-      </c>
-      <c r="X161" s="51">
-        <v>400</v>
-      </c>
-      <c r="Y161" s="51">
-        <v>85700</v>
-      </c>
-      <c r="Z161" s="51">
-        <v>8570</v>
-      </c>
-      <c r="AA161" s="51">
-        <v>714</v>
-      </c>
-      <c r="AB161" s="51">
-        <v>14.2</v>
-      </c>
-      <c r="AC161" s="51">
-        <v>22.8</v>
-      </c>
-      <c r="AD161" s="51"/>
-      <c r="AE161" s="52">
-        <v>285</v>
+      <c r="S161" s="50"/>
+      <c r="T161" s="50"/>
+      <c r="U161" s="50"/>
+      <c r="V161" s="50"/>
+      <c r="W161" s="50"/>
+      <c r="X161" s="50"/>
+      <c r="Y161" s="50"/>
+      <c r="Z161" s="50"/>
+      <c r="AA161" s="50">
+        <v>1.14</v>
+      </c>
+      <c r="AB161" s="50"/>
+      <c r="AC161" s="50"/>
+      <c r="AD161" s="50"/>
+      <c r="AE161" s="51">
+        <v>552</v>
       </c>
     </row>
     <row r="162" ht="20.2" customHeight="1">
-      <c r="A162" t="s" s="48">
+      <c r="A162" t="s" s="49">
+        <v>239</v>
+      </c>
+      <c r="B162" t="s" s="25">
         <v>240</v>
       </c>
-      <c r="B162" t="s" s="25">
-        <v>76</v>
-      </c>
       <c r="C162" t="s" s="16">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="17"/>
       <c r="F162" s="18"/>
-      <c r="G162" s="17">
-        <v>45</v>
-      </c>
-      <c r="H162" s="49">
-        <v>56</v>
-      </c>
-      <c r="I162" s="49">
-        <v>60</v>
-      </c>
-      <c r="J162" s="49"/>
-      <c r="K162" s="49">
-        <v>164</v>
-      </c>
-      <c r="L162" s="49">
-        <v>26</v>
-      </c>
-      <c r="M162" s="49">
-        <v>23</v>
-      </c>
-      <c r="N162" s="49"/>
-      <c r="O162" s="49">
-        <v>39</v>
-      </c>
-      <c r="P162" s="49"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="52"/>
+      <c r="I162" s="52"/>
+      <c r="J162" s="52">
+        <v>10</v>
+      </c>
+      <c r="K162" s="52">
+        <v>17.4</v>
+      </c>
+      <c r="L162" s="52">
+        <v>6.1</v>
+      </c>
+      <c r="M162" s="52">
+        <v>2</v>
+      </c>
+      <c r="N162" s="52"/>
+      <c r="O162" s="52"/>
+      <c r="P162" s="52"/>
       <c r="Q162" s="17"/>
-      <c r="R162" s="17">
-        <v>10</v>
-      </c>
-      <c r="S162" s="49">
-        <v>700</v>
-      </c>
-      <c r="T162" s="49">
-        <v>12.7</v>
-      </c>
-      <c r="U162" s="49">
-        <v>300</v>
-      </c>
-      <c r="V162" s="49">
-        <v>1100</v>
-      </c>
-      <c r="W162" s="49">
-        <v>8</v>
-      </c>
-      <c r="X162" s="49">
-        <v>2500</v>
-      </c>
-      <c r="Y162" s="49">
-        <v>260000</v>
-      </c>
-      <c r="Z162" s="49">
-        <v>29000</v>
-      </c>
-      <c r="AA162" s="49">
-        <v>5300</v>
-      </c>
-      <c r="AB162" s="49">
-        <v>255</v>
-      </c>
-      <c r="AC162" s="49">
-        <v>360</v>
-      </c>
-      <c r="AD162" s="49"/>
-      <c r="AE162" s="50"/>
-    </row>
-    <row r="163" ht="32.2" customHeight="1">
-      <c r="A163" t="s" s="48">
+      <c r="R162" s="17"/>
+      <c r="S162" s="52">
+        <v>50</v>
+      </c>
+      <c r="T162" s="52">
+        <v>7</v>
+      </c>
+      <c r="U162" s="52">
+        <v>180</v>
+      </c>
+      <c r="V162" s="52">
+        <v>125</v>
+      </c>
+      <c r="W162" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="X162" s="52">
+        <v>400</v>
+      </c>
+      <c r="Y162" s="52">
+        <v>85700</v>
+      </c>
+      <c r="Z162" s="52">
+        <v>8570</v>
+      </c>
+      <c r="AA162" s="52">
+        <v>714</v>
+      </c>
+      <c r="AB162" s="52">
+        <v>14.2</v>
+      </c>
+      <c r="AC162" s="52">
+        <v>22.8</v>
+      </c>
+      <c r="AD162" s="52"/>
+      <c r="AE162" s="53">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="163" ht="20.2" customHeight="1">
+      <c r="A163" t="s" s="49">
         <v>241</v>
       </c>
       <c r="B163" t="s" s="32">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="C163" t="s" s="21">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D163" s="22"/>
       <c r="E163" s="22"/>
       <c r="F163" s="23"/>
       <c r="G163" s="22">
-        <v>202</v>
-      </c>
-      <c r="H163" s="51">
-        <v>33</v>
-      </c>
-      <c r="I163" s="51">
-        <v>33</v>
-      </c>
-      <c r="J163" s="51">
-        <v>50</v>
-      </c>
-      <c r="K163" s="51">
-        <v>131</v>
-      </c>
-      <c r="L163" s="51">
-        <v>16</v>
-      </c>
-      <c r="M163" s="51">
-        <v>9.4</v>
-      </c>
-      <c r="N163" s="51"/>
-      <c r="O163" s="51">
-        <v>22</v>
-      </c>
-      <c r="P163" s="51"/>
+        <v>45</v>
+      </c>
+      <c r="H163" s="50">
+        <v>56</v>
+      </c>
+      <c r="I163" s="50">
+        <v>60</v>
+      </c>
+      <c r="J163" s="50"/>
+      <c r="K163" s="50">
+        <v>164</v>
+      </c>
+      <c r="L163" s="50">
+        <v>26</v>
+      </c>
+      <c r="M163" s="50">
+        <v>23</v>
+      </c>
+      <c r="N163" s="50"/>
+      <c r="O163" s="50">
+        <v>39</v>
+      </c>
+      <c r="P163" s="50"/>
       <c r="Q163" s="22"/>
-      <c r="R163" s="22"/>
-      <c r="S163" s="51">
-        <v>500</v>
-      </c>
-      <c r="T163" s="51">
-        <v>46.25</v>
-      </c>
-      <c r="U163" s="51">
-        <v>1750</v>
-      </c>
-      <c r="V163" s="51">
-        <v>1125</v>
-      </c>
-      <c r="W163" s="51">
-        <v>18</v>
-      </c>
-      <c r="X163" s="51">
-        <v>625</v>
-      </c>
-      <c r="Y163" s="51">
-        <v>250000</v>
-      </c>
-      <c r="Z163" s="51">
-        <v>25000</v>
-      </c>
-      <c r="AA163" s="51">
-        <v>8750</v>
-      </c>
-      <c r="AB163" s="51">
-        <v>350</v>
-      </c>
-      <c r="AC163" s="51">
-        <v>145</v>
-      </c>
-      <c r="AD163" s="51">
-        <v>40.63</v>
-      </c>
-      <c r="AE163" s="52">
-        <v>6250</v>
-      </c>
+      <c r="R163" s="22">
+        <v>10</v>
+      </c>
+      <c r="S163" s="50">
+        <v>700</v>
+      </c>
+      <c r="T163" s="50">
+        <v>12.7</v>
+      </c>
+      <c r="U163" s="50">
+        <v>300</v>
+      </c>
+      <c r="V163" s="50">
+        <v>1100</v>
+      </c>
+      <c r="W163" s="50">
+        <v>8</v>
+      </c>
+      <c r="X163" s="50">
+        <v>2500</v>
+      </c>
+      <c r="Y163" s="50">
+        <v>260000</v>
+      </c>
+      <c r="Z163" s="50">
+        <v>29000</v>
+      </c>
+      <c r="AA163" s="50">
+        <v>5300</v>
+      </c>
+      <c r="AB163" s="50">
+        <v>255</v>
+      </c>
+      <c r="AC163" s="50">
+        <v>360</v>
+      </c>
+      <c r="AD163" s="50"/>
+      <c r="AE163" s="51"/>
     </row>
     <row r="164" ht="32.2" customHeight="1">
-      <c r="A164" t="s" s="48">
+      <c r="A164" t="s" s="49">
+        <v>242</v>
+      </c>
+      <c r="B164" t="s" s="25">
         <v>243</v>
       </c>
-      <c r="B164" t="s" s="25">
-        <v>242</v>
-      </c>
       <c r="C164" t="s" s="16">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D164" s="17"/>
       <c r="E164" s="17"/>
       <c r="F164" s="18"/>
       <c r="G164" s="17">
-        <v>364</v>
-      </c>
-      <c r="H164" s="49">
-        <v>57</v>
-      </c>
-      <c r="I164" s="49">
-        <v>48.5</v>
-      </c>
-      <c r="J164" s="49">
-        <v>13.3</v>
-      </c>
-      <c r="K164" s="49">
-        <v>19</v>
-      </c>
-      <c r="L164" s="49"/>
-      <c r="M164" s="49">
-        <v>25</v>
-      </c>
-      <c r="N164" s="49"/>
-      <c r="O164" s="49">
-        <v>4</v>
-      </c>
-      <c r="P164" s="49"/>
+        <v>202</v>
+      </c>
+      <c r="H164" s="52">
+        <v>33</v>
+      </c>
+      <c r="I164" s="52">
+        <v>33</v>
+      </c>
+      <c r="J164" s="52">
+        <v>50</v>
+      </c>
+      <c r="K164" s="52">
+        <v>131</v>
+      </c>
+      <c r="L164" s="52">
+        <v>16</v>
+      </c>
+      <c r="M164" s="52">
+        <v>9.4</v>
+      </c>
+      <c r="N164" s="52"/>
+      <c r="O164" s="52">
+        <v>22</v>
+      </c>
+      <c r="P164" s="52"/>
       <c r="Q164" s="17"/>
-      <c r="R164" s="17">
-        <v>26</v>
-      </c>
-      <c r="S164" s="49">
-        <v>1660</v>
-      </c>
-      <c r="T164" s="49">
-        <v>142</v>
-      </c>
-      <c r="U164" s="49">
-        <v>5616</v>
-      </c>
-      <c r="V164" s="49">
-        <v>3761</v>
-      </c>
-      <c r="W164" s="49">
-        <v>50</v>
-      </c>
-      <c r="X164" s="49">
-        <v>5456</v>
-      </c>
-      <c r="Y164" s="49">
-        <v>810000</v>
-      </c>
-      <c r="Z164" s="49">
-        <v>81000</v>
-      </c>
-      <c r="AA164" s="49">
-        <v>27000</v>
-      </c>
-      <c r="AB164" s="49">
-        <v>1140</v>
-      </c>
-      <c r="AC164" s="49">
-        <v>480</v>
-      </c>
-      <c r="AD164" s="49"/>
-      <c r="AE164" s="50">
-        <v>20000</v>
+      <c r="R164" s="17"/>
+      <c r="S164" s="52">
+        <v>500</v>
+      </c>
+      <c r="T164" s="52">
+        <v>46.25</v>
+      </c>
+      <c r="U164" s="52">
+        <v>1750</v>
+      </c>
+      <c r="V164" s="52">
+        <v>1125</v>
+      </c>
+      <c r="W164" s="52">
+        <v>18</v>
+      </c>
+      <c r="X164" s="52">
+        <v>625</v>
+      </c>
+      <c r="Y164" s="52">
+        <v>250000</v>
+      </c>
+      <c r="Z164" s="52">
+        <v>25000</v>
+      </c>
+      <c r="AA164" s="52">
+        <v>8750</v>
+      </c>
+      <c r="AB164" s="52">
+        <v>350</v>
+      </c>
+      <c r="AC164" s="52">
+        <v>145</v>
+      </c>
+      <c r="AD164" s="52">
+        <v>40.63</v>
+      </c>
+      <c r="AE164" s="53">
+        <v>6250</v>
       </c>
     </row>
     <row r="165" ht="32.2" customHeight="1">
-      <c r="A165" t="s" s="48">
+      <c r="A165" t="s" s="49">
         <v>244</v>
       </c>
       <c r="B165" t="s" s="32">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C165" t="s" s="21">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D165" s="22"/>
       <c r="E165" s="22"/>
       <c r="F165" s="23"/>
-      <c r="G165" s="22"/>
-      <c r="H165" s="51"/>
-      <c r="I165" s="51"/>
-      <c r="J165" s="51"/>
-      <c r="K165" s="51"/>
-      <c r="L165" s="51"/>
-      <c r="M165" s="51"/>
-      <c r="N165" s="51"/>
-      <c r="O165" s="51"/>
-      <c r="P165" s="51"/>
+      <c r="G165" s="22">
+        <v>364</v>
+      </c>
+      <c r="H165" s="50">
+        <v>57</v>
+      </c>
+      <c r="I165" s="50">
+        <v>48.5</v>
+      </c>
+      <c r="J165" s="50">
+        <v>13.3</v>
+      </c>
+      <c r="K165" s="50">
+        <v>19</v>
+      </c>
+      <c r="L165" s="50"/>
+      <c r="M165" s="50">
+        <v>25</v>
+      </c>
+      <c r="N165" s="50"/>
+      <c r="O165" s="50">
+        <v>4</v>
+      </c>
+      <c r="P165" s="50"/>
       <c r="Q165" s="22"/>
-      <c r="R165" s="22"/>
-      <c r="S165" s="51"/>
-      <c r="T165" s="51"/>
-      <c r="U165" s="51"/>
-      <c r="V165" s="51">
-        <v>2700</v>
-      </c>
-      <c r="W165" s="51"/>
-      <c r="X165" s="51"/>
-      <c r="Y165" s="51"/>
-      <c r="Z165" s="51"/>
-      <c r="AA165" s="51"/>
-      <c r="AB165" s="51"/>
-      <c r="AC165" s="51"/>
-      <c r="AD165" s="51"/>
-      <c r="AE165" s="52"/>
-    </row>
-    <row r="166" ht="20.2" customHeight="1">
-      <c r="A166" t="s" s="48">
+      <c r="R165" s="22">
+        <v>26</v>
+      </c>
+      <c r="S165" s="50">
+        <v>1660</v>
+      </c>
+      <c r="T165" s="50">
+        <v>142</v>
+      </c>
+      <c r="U165" s="50">
+        <v>5616</v>
+      </c>
+      <c r="V165" s="50">
+        <v>3761</v>
+      </c>
+      <c r="W165" s="50">
+        <v>50</v>
+      </c>
+      <c r="X165" s="50">
+        <v>5456</v>
+      </c>
+      <c r="Y165" s="50">
+        <v>810000</v>
+      </c>
+      <c r="Z165" s="50">
+        <v>81000</v>
+      </c>
+      <c r="AA165" s="50">
+        <v>27000</v>
+      </c>
+      <c r="AB165" s="50">
+        <v>1140</v>
+      </c>
+      <c r="AC165" s="50">
+        <v>480</v>
+      </c>
+      <c r="AD165" s="50"/>
+      <c r="AE165" s="51">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="166" ht="32.2" customHeight="1">
+      <c r="A166" t="s" s="49">
+        <v>245</v>
+      </c>
+      <c r="B166" t="s" s="25">
         <v>246</v>
       </c>
-      <c r="B166" t="s" s="25">
-        <v>247</v>
-      </c>
       <c r="C166" t="s" s="16">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D166" s="17"/>
       <c r="E166" s="17"/>
       <c r="F166" s="18"/>
       <c r="G166" s="17"/>
-      <c r="H166" s="49"/>
-      <c r="I166" s="49"/>
-      <c r="J166" s="49"/>
-      <c r="K166" s="49"/>
-      <c r="L166" s="49"/>
-      <c r="M166" s="49"/>
-      <c r="N166" s="49"/>
-      <c r="O166" s="49"/>
-      <c r="P166" s="49"/>
+      <c r="H166" s="52"/>
+      <c r="I166" s="52"/>
+      <c r="J166" s="52"/>
+      <c r="K166" s="52"/>
+      <c r="L166" s="52"/>
+      <c r="M166" s="52"/>
+      <c r="N166" s="52"/>
+      <c r="O166" s="52"/>
+      <c r="P166" s="52"/>
       <c r="Q166" s="17"/>
       <c r="R166" s="17"/>
-      <c r="S166" s="49"/>
-      <c r="T166" s="49"/>
-      <c r="U166" s="49"/>
-      <c r="V166" s="49"/>
-      <c r="W166" s="49"/>
-      <c r="X166" s="49">
-        <v>20</v>
-      </c>
-      <c r="Y166" s="49"/>
-      <c r="Z166" s="49"/>
-      <c r="AA166" s="49">
-        <v>200000</v>
-      </c>
-      <c r="AB166" s="49"/>
-      <c r="AC166" s="49"/>
-      <c r="AD166" s="49"/>
-      <c r="AE166" s="50"/>
+      <c r="S166" s="52"/>
+      <c r="T166" s="52"/>
+      <c r="U166" s="52"/>
+      <c r="V166" s="52">
+        <v>2700</v>
+      </c>
+      <c r="W166" s="52"/>
+      <c r="X166" s="52"/>
+      <c r="Y166" s="52"/>
+      <c r="Z166" s="52"/>
+      <c r="AA166" s="52"/>
+      <c r="AB166" s="52"/>
+      <c r="AC166" s="52"/>
+      <c r="AD166" s="52"/>
+      <c r="AE166" s="53"/>
     </row>
     <row r="167" ht="20.2" customHeight="1">
-      <c r="A167" t="s" s="48">
+      <c r="A167" t="s" s="49">
+        <v>247</v>
+      </c>
+      <c r="B167" t="s" s="32">
         <v>248</v>
       </c>
-      <c r="B167" s="54"/>
       <c r="C167" t="s" s="21">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D167" s="22"/>
       <c r="E167" s="22"/>
       <c r="F167" s="23"/>
       <c r="G167" s="22"/>
-      <c r="H167" s="51"/>
-      <c r="I167" s="51"/>
-      <c r="J167" s="51"/>
-      <c r="K167" s="51"/>
-      <c r="L167" s="51"/>
-      <c r="M167" s="51"/>
-      <c r="N167" s="51"/>
-      <c r="O167" s="51"/>
-      <c r="P167" s="51"/>
+      <c r="H167" s="50"/>
+      <c r="I167" s="50"/>
+      <c r="J167" s="50"/>
+      <c r="K167" s="50"/>
+      <c r="L167" s="50"/>
+      <c r="M167" s="50"/>
+      <c r="N167" s="50"/>
+      <c r="O167" s="50"/>
+      <c r="P167" s="50"/>
       <c r="Q167" s="22"/>
       <c r="R167" s="22"/>
-      <c r="S167" s="51">
+      <c r="S167" s="50"/>
+      <c r="T167" s="50"/>
+      <c r="U167" s="50"/>
+      <c r="V167" s="50"/>
+      <c r="W167" s="50"/>
+      <c r="X167" s="50">
+        <v>20</v>
+      </c>
+      <c r="Y167" s="50"/>
+      <c r="Z167" s="50"/>
+      <c r="AA167" s="50">
+        <v>200000</v>
+      </c>
+      <c r="AB167" s="50"/>
+      <c r="AC167" s="50"/>
+      <c r="AD167" s="50"/>
+      <c r="AE167" s="51"/>
+    </row>
+    <row r="168" ht="20.2" customHeight="1">
+      <c r="A168" t="s" s="49">
+        <v>249</v>
+      </c>
+      <c r="B168" s="55"/>
+      <c r="C168" t="s" s="16">
+        <v>231</v>
+      </c>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
+      <c r="F168" s="18"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="52"/>
+      <c r="I168" s="52"/>
+      <c r="J168" s="52"/>
+      <c r="K168" s="52"/>
+      <c r="L168" s="52"/>
+      <c r="M168" s="52"/>
+      <c r="N168" s="52"/>
+      <c r="O168" s="52"/>
+      <c r="P168" s="52"/>
+      <c r="Q168" s="17"/>
+      <c r="R168" s="17"/>
+      <c r="S168" s="52">
         <v>800</v>
       </c>
-      <c r="T167" s="51">
+      <c r="T168" s="52">
         <v>50</v>
       </c>
-      <c r="U167" s="51">
+      <c r="U168" s="52">
         <v>5000</v>
       </c>
-      <c r="V167" s="51">
+      <c r="V168" s="52">
         <v>3700</v>
       </c>
-      <c r="W167" s="51">
+      <c r="W168" s="52">
         <v>10</v>
       </c>
-      <c r="X167" s="51">
+      <c r="X168" s="52">
         <v>10000</v>
       </c>
-      <c r="Y167" s="51">
+      <c r="Y168" s="52">
         <v>1000000</v>
       </c>
-      <c r="Z167" s="51">
+      <c r="Z168" s="52">
         <v>100000</v>
       </c>
-      <c r="AA167" s="51">
+      <c r="AA168" s="52">
         <v>6850</v>
       </c>
-      <c r="AB167" s="51"/>
-      <c r="AC167" s="51"/>
-      <c r="AD167" s="51"/>
-      <c r="AE167" s="52"/>
-    </row>
-    <row r="168" ht="20.95" customHeight="1">
-      <c r="A168" t="s" s="55">
-        <v>249</v>
-      </c>
-      <c r="B168" t="s" s="56">
+      <c r="AB168" s="52"/>
+      <c r="AC168" s="52"/>
+      <c r="AD168" s="52"/>
+      <c r="AE168" s="53"/>
+    </row>
+    <row r="169" ht="20.95" customHeight="1">
+      <c r="A169" t="s" s="56">
         <v>250</v>
       </c>
-      <c r="C168" t="s" s="57">
-        <v>230</v>
-      </c>
-      <c r="D168" s="58"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="59"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="60"/>
-      <c r="I168" s="60"/>
-      <c r="J168" s="60"/>
-      <c r="K168" s="60"/>
-      <c r="L168" s="60"/>
-      <c r="M168" s="60"/>
-      <c r="N168" s="60"/>
-      <c r="O168" s="60"/>
-      <c r="P168" s="60"/>
-      <c r="Q168" s="58"/>
-      <c r="R168" s="58">
+      <c r="B169" t="s" s="57">
+        <v>251</v>
+      </c>
+      <c r="C169" t="s" s="58">
+        <v>231</v>
+      </c>
+      <c r="D169" s="59"/>
+      <c r="E169" s="59"/>
+      <c r="F169" s="60"/>
+      <c r="G169" s="59"/>
+      <c r="H169" s="61"/>
+      <c r="I169" s="61"/>
+      <c r="J169" s="61"/>
+      <c r="K169" s="61"/>
+      <c r="L169" s="61"/>
+      <c r="M169" s="61"/>
+      <c r="N169" s="61"/>
+      <c r="O169" s="61"/>
+      <c r="P169" s="61"/>
+      <c r="Q169" s="59"/>
+      <c r="R169" s="59">
         <v>20</v>
       </c>
-      <c r="S168" s="60">
+      <c r="S169" s="61">
         <v>540</v>
       </c>
-      <c r="T168" s="60">
+      <c r="T169" s="61">
         <v>100</v>
       </c>
-      <c r="U168" s="60">
+      <c r="U169" s="61">
         <v>4000</v>
       </c>
-      <c r="V168" s="60">
+      <c r="V169" s="61">
         <v>4000</v>
       </c>
-      <c r="W168" s="60">
+      <c r="W169" s="61">
         <v>30</v>
       </c>
-      <c r="X168" s="60">
+      <c r="X169" s="61">
         <v>5000</v>
       </c>
-      <c r="Y168" s="60">
+      <c r="Y169" s="61">
         <v>5000000</v>
       </c>
-      <c r="Z168" s="60">
+      <c r="Z169" s="61">
         <v>100000</v>
       </c>
-      <c r="AA168" s="60">
+      <c r="AA169" s="61">
         <v>3000</v>
       </c>
-      <c r="AB168" s="60">
+      <c r="AB169" s="61">
         <v>500</v>
       </c>
-      <c r="AC168" s="60">
+      <c r="AC169" s="61">
         <v>75</v>
       </c>
-      <c r="AD168" s="60">
+      <c r="AD169" s="61">
         <v>50</v>
       </c>
-      <c r="AE168" s="61">
+      <c r="AE169" s="62">
         <v>1000</v>
       </c>
     </row>

--- a/pasze tresciwe i obetosciowe do aplikacji.xlsx
+++ b/pasze tresciwe i obetosciowe do aplikacji.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
   <si>
     <t>pasze</t>
   </si>
@@ -576,6 +576,9 @@
     <t>St Hyppolit Nutristar</t>
   </si>
   <si>
+    <t xml:space="preserve">St Hyppolit Musli Sport </t>
+  </si>
+  <si>
     <t>ST Hyppolit Equigard</t>
   </si>
   <si>
@@ -664,6 +667,9 @@
   </si>
   <si>
     <t>Melloni horses</t>
+  </si>
+  <si>
+    <t>Nutri Horse Müsli Breeder</t>
   </si>
   <si>
     <t>10 Cool N Cooked Mix Red Mills</t>
@@ -1062,7 +1068,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1209,6 +1215,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2304,7 +2313,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:AE169"/>
+  <dimension ref="A2:AE171"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -10324,7 +10333,7 @@
       <c r="AE116" s="19"/>
     </row>
     <row r="117" ht="20.2" customHeight="1">
-      <c r="A117" t="s" s="14">
+      <c r="A117" t="s" s="26">
         <v>180</v>
       </c>
       <c r="B117" t="s" s="32">
@@ -10333,76 +10342,76 @@
       <c r="C117" t="s" s="21">
         <v>33</v>
       </c>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="23">
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="30">
+        <v>12</v>
+      </c>
+      <c r="G117" s="29">
+        <v>100</v>
+      </c>
+      <c r="H117" s="29">
+        <v>83</v>
+      </c>
+      <c r="I117" s="29">
+        <v>50</v>
+      </c>
+      <c r="J117" s="29"/>
+      <c r="K117" s="29">
+        <v>12</v>
+      </c>
+      <c r="L117" s="29">
+        <v>5</v>
+      </c>
+      <c r="M117" s="29">
+        <v>2</v>
+      </c>
+      <c r="N117" s="29">
         <v>10</v>
       </c>
-      <c r="G117" s="22">
-        <v>96</v>
-      </c>
-      <c r="H117" s="22">
+      <c r="O117" s="29">
+        <v>4</v>
+      </c>
+      <c r="P117" s="29"/>
+      <c r="Q117" s="29"/>
+      <c r="R117" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="S117" s="29">
+        <v>30</v>
+      </c>
+      <c r="T117" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="U117" s="29">
         <v>180</v>
       </c>
-      <c r="I117" s="22">
-        <v>94</v>
-      </c>
-      <c r="J117" s="22">
-        <v>6</v>
-      </c>
-      <c r="K117" s="22">
+      <c r="V117" s="29">
+        <v>80</v>
+      </c>
+      <c r="W117" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="X117" s="29">
+        <v>120</v>
+      </c>
+      <c r="Y117" s="29">
+        <v>14000</v>
+      </c>
+      <c r="Z117" s="29">
+        <v>1500</v>
+      </c>
+      <c r="AA117" s="29">
+        <v>220</v>
+      </c>
+      <c r="AB117" s="29">
+        <v>10</v>
+      </c>
+      <c r="AC117" s="29">
         <v>13</v>
       </c>
-      <c r="L117" s="22">
-        <v>4</v>
-      </c>
-      <c r="M117" s="22">
-        <v>6</v>
-      </c>
-      <c r="N117" s="22"/>
-      <c r="O117" s="22">
-        <v>6</v>
-      </c>
-      <c r="P117" s="22"/>
-      <c r="Q117" s="22"/>
-      <c r="R117" s="22">
-        <v>3</v>
-      </c>
-      <c r="S117" s="22">
-        <v>64</v>
-      </c>
-      <c r="T117" s="22">
-        <v>1</v>
-      </c>
-      <c r="U117" s="22">
-        <v>57</v>
-      </c>
-      <c r="V117" s="22">
-        <v>299</v>
-      </c>
-      <c r="W117" s="22">
-        <v>0.7</v>
-      </c>
-      <c r="X117" s="22">
-        <v>370</v>
-      </c>
-      <c r="Y117" s="22">
-        <v>15000</v>
-      </c>
-      <c r="Z117" s="22">
-        <v>1670</v>
-      </c>
-      <c r="AA117" s="22">
-        <v>570</v>
-      </c>
-      <c r="AB117" s="22">
-        <v>43</v>
-      </c>
-      <c r="AC117" s="22">
-        <v>70</v>
-      </c>
-      <c r="AD117" s="22"/>
-      <c r="AE117" s="24"/>
+      <c r="AD117" s="29"/>
+      <c r="AE117" s="31"/>
     </row>
     <row r="118" ht="20.2" customHeight="1">
       <c r="A118" t="s" s="14">
@@ -10417,70 +10426,70 @@
       <c r="D118" s="17"/>
       <c r="E118" s="17"/>
       <c r="F118" s="18">
-        <v>13.4</v>
+        <v>10</v>
       </c>
       <c r="G118" s="17">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H118" s="17">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="I118" s="17">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="J118" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K118" s="17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L118" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M118" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N118" s="17"/>
       <c r="O118" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P118" s="17"/>
       <c r="Q118" s="17"/>
       <c r="R118" s="17">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="S118" s="17">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="T118" s="17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="U118" s="17">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="V118" s="17">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="W118" s="17">
         <v>0.7</v>
       </c>
       <c r="X118" s="17">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="Y118" s="17">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="Z118" s="17">
-        <v>2500</v>
+        <v>1670</v>
       </c>
       <c r="AA118" s="17">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="AB118" s="17">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="AC118" s="17">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="AD118" s="17"/>
       <c r="AE118" s="19"/>
@@ -10490,152 +10499,156 @@
         <v>182</v>
       </c>
       <c r="B119" t="s" s="32">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="C119" t="s" s="21">
         <v>33</v>
       </c>
       <c r="D119" s="22"/>
       <c r="E119" s="22"/>
-      <c r="F119" s="23"/>
+      <c r="F119" s="23">
+        <v>13.4</v>
+      </c>
       <c r="G119" s="22">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="H119" s="22">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I119" s="22">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="J119" s="22">
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="K119" s="22">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L119" s="22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M119" s="22">
-        <v>9</v>
-      </c>
-      <c r="N119" s="22">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N119" s="22"/>
       <c r="O119" s="22">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P119" s="22"/>
       <c r="Q119" s="22"/>
       <c r="R119" s="22">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="S119" s="22">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="T119" s="22">
-        <v>1.8</v>
+        <v>0.97</v>
       </c>
       <c r="U119" s="22">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="V119" s="22">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="W119" s="22">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X119" s="22">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="Y119" s="22">
-        <v>45000</v>
+        <v>23000</v>
       </c>
       <c r="Z119" s="22">
-        <v>5600</v>
+        <v>2500</v>
       </c>
       <c r="AA119" s="22">
-        <v>800</v>
-      </c>
-      <c r="AB119" s="22"/>
-      <c r="AC119" s="22"/>
+        <v>400</v>
+      </c>
+      <c r="AB119" s="22">
+        <v>13</v>
+      </c>
+      <c r="AC119" s="22">
+        <v>14</v>
+      </c>
       <c r="AD119" s="22"/>
       <c r="AE119" s="24"/>
     </row>
     <row r="120" ht="20.2" customHeight="1">
       <c r="A120" t="s" s="14">
+        <v>183</v>
+      </c>
+      <c r="B120" t="s" s="25">
         <v>184</v>
-      </c>
-      <c r="B120" t="s" s="25">
-        <v>158</v>
       </c>
       <c r="C120" t="s" s="16">
         <v>33</v>
       </c>
       <c r="D120" s="17"/>
       <c r="E120" s="17"/>
-      <c r="F120" s="18">
-        <v>8.300000000000001</v>
-      </c>
+      <c r="F120" s="18"/>
       <c r="G120" s="17">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="H120" s="17">
-        <v>249</v>
+        <v>110</v>
       </c>
       <c r="I120" s="17">
-        <v>68</v>
-      </c>
-      <c r="J120" s="17"/>
+        <v>45</v>
+      </c>
+      <c r="J120" s="17">
+        <v>7.7</v>
+      </c>
       <c r="K120" s="17">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L120" s="17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M120" s="17">
-        <v>4</v>
-      </c>
-      <c r="N120" s="17"/>
+        <v>9</v>
+      </c>
+      <c r="N120" s="17">
+        <v>11</v>
+      </c>
       <c r="O120" s="17">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P120" s="17"/>
       <c r="Q120" s="17"/>
       <c r="R120" s="17">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="S120" s="17">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="T120" s="17">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="U120" s="17">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="V120" s="17">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="W120" s="17">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="X120" s="17">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="Y120" s="17">
-        <v>10000</v>
+        <v>45000</v>
       </c>
       <c r="Z120" s="17">
-        <v>1500</v>
+        <v>5600</v>
       </c>
       <c r="AA120" s="17">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="AB120" s="17"/>
-      <c r="AC120" s="17">
-        <v>5</v>
-      </c>
+      <c r="AC120" s="17"/>
       <c r="AD120" s="17"/>
       <c r="AE120" s="19"/>
     </row>
@@ -10644,7 +10657,7 @@
         <v>185</v>
       </c>
       <c r="B121" t="s" s="32">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C121" t="s" s="21">
         <v>33</v>
@@ -10652,356 +10665,376 @@
       <c r="D121" s="22"/>
       <c r="E121" s="22"/>
       <c r="F121" s="23">
-        <v>13</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G121" s="22">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="H121" s="22">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="I121" s="22">
-        <v>192</v>
-      </c>
-      <c r="J121" s="22">
-        <v>5.9</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J121" s="22"/>
       <c r="K121" s="22">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="L121" s="22">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="M121" s="22">
-        <v>2.3</v>
-      </c>
-      <c r="N121" s="22">
-        <v>9.6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N121" s="22"/>
       <c r="O121" s="22">
-        <v>2.2</v>
-      </c>
-      <c r="P121" s="22">
-        <v>4.2</v>
-      </c>
-      <c r="Q121" s="22">
-        <v>1.8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P121" s="22"/>
+      <c r="Q121" s="22"/>
       <c r="R121" s="22">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="S121" s="22">
-        <v>12</v>
-      </c>
-      <c r="T121" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="T121" s="22">
+        <v>1.5</v>
+      </c>
       <c r="U121" s="22">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="V121" s="22">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="W121" s="22">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X121" s="22">
-        <v>38</v>
-      </c>
-      <c r="Y121" s="22"/>
-      <c r="Z121" s="22"/>
-      <c r="AA121" s="22"/>
+        <v>45</v>
+      </c>
+      <c r="Y121" s="22">
+        <v>10000</v>
+      </c>
+      <c r="Z121" s="22">
+        <v>1500</v>
+      </c>
+      <c r="AA121" s="22">
+        <v>350</v>
+      </c>
       <c r="AB121" s="22"/>
-      <c r="AC121" s="22"/>
+      <c r="AC121" s="22">
+        <v>5</v>
+      </c>
       <c r="AD121" s="22"/>
       <c r="AE121" s="24"/>
     </row>
     <row r="122" ht="20.2" customHeight="1">
-      <c r="A122" t="s" s="26">
+      <c r="A122" t="s" s="14">
         <v>186</v>
       </c>
-      <c r="B122" t="s" s="47">
+      <c r="B122" t="s" s="25">
         <v>37</v>
       </c>
-      <c r="C122" t="s" s="28">
+      <c r="C122" t="s" s="16">
         <v>33</v>
       </c>
-      <c r="D122" s="29"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="30">
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="18">
+        <v>13</v>
+      </c>
+      <c r="G122" s="17">
+        <v>145</v>
+      </c>
+      <c r="H122" s="17">
+        <v>178</v>
+      </c>
+      <c r="I122" s="17">
+        <v>192</v>
+      </c>
+      <c r="J122" s="17">
+        <v>5.9</v>
+      </c>
+      <c r="K122" s="17">
+        <v>6.6</v>
+      </c>
+      <c r="L122" s="17">
+        <v>3.7</v>
+      </c>
+      <c r="M122" s="17">
+        <v>2.3</v>
+      </c>
+      <c r="N122" s="17">
+        <v>9.6</v>
+      </c>
+      <c r="O122" s="17">
+        <v>2.2</v>
+      </c>
+      <c r="P122" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="Q122" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="R122" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="S122" s="17">
+        <v>12</v>
+      </c>
+      <c r="T122" s="17"/>
+      <c r="U122" s="17">
+        <v>143</v>
+      </c>
+      <c r="V122" s="17">
+        <v>39</v>
+      </c>
+      <c r="W122" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="X122" s="17">
+        <v>38</v>
+      </c>
+      <c r="Y122" s="17"/>
+      <c r="Z122" s="17"/>
+      <c r="AA122" s="17"/>
+      <c r="AB122" s="17"/>
+      <c r="AC122" s="17"/>
+      <c r="AD122" s="17"/>
+      <c r="AE122" s="19"/>
+    </row>
+    <row r="123" ht="20.2" customHeight="1">
+      <c r="A123" t="s" s="26">
+        <v>187</v>
+      </c>
+      <c r="B123" t="s" s="47">
+        <v>37</v>
+      </c>
+      <c r="C123" t="s" s="28">
+        <v>33</v>
+      </c>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="30">
         <v>13.2</v>
       </c>
-      <c r="G122" s="29">
+      <c r="G123" s="29">
         <v>153</v>
       </c>
-      <c r="H122" s="29">
+      <c r="H123" s="29">
         <v>98</v>
       </c>
-      <c r="I122" s="29">
+      <c r="I123" s="29">
         <v>151</v>
       </c>
-      <c r="J122" s="29">
+      <c r="J123" s="29">
         <v>6.3</v>
       </c>
-      <c r="K122" s="29">
+      <c r="K123" s="29">
         <v>7.4</v>
       </c>
-      <c r="L122" s="29">
+      <c r="L123" s="29">
         <v>5.4</v>
       </c>
-      <c r="M122" s="29">
+      <c r="M123" s="29">
         <v>2.7</v>
       </c>
-      <c r="N122" s="29">
+      <c r="N123" s="29">
         <v>7.2</v>
       </c>
-      <c r="O122" s="29">
+      <c r="O123" s="29">
         <v>1.9</v>
       </c>
-      <c r="P122" s="29">
+      <c r="P123" s="29">
         <v>3.2</v>
       </c>
-      <c r="Q122" s="29">
+      <c r="Q123" s="29">
         <v>1.7</v>
       </c>
-      <c r="R122" s="29">
+      <c r="R123" s="29">
         <v>0.08</v>
       </c>
-      <c r="S122" s="29">
+      <c r="S123" s="29">
         <v>10</v>
       </c>
-      <c r="T122" s="29">
+      <c r="T123" s="29">
         <v>0.06</v>
       </c>
-      <c r="U122" s="29">
+      <c r="U123" s="29">
         <v>123</v>
       </c>
-      <c r="V122" s="29">
+      <c r="V123" s="29">
         <v>42</v>
       </c>
-      <c r="W122" s="29">
+      <c r="W123" s="29">
         <v>0.1</v>
       </c>
-      <c r="X122" s="29">
+      <c r="X123" s="29">
         <v>46</v>
       </c>
-      <c r="Y122" s="29"/>
-      <c r="Z122" s="29"/>
-      <c r="AA122" s="29"/>
-      <c r="AB122" s="29"/>
-      <c r="AC122" s="29"/>
-      <c r="AD122" s="29"/>
-      <c r="AE122" s="31"/>
-    </row>
-    <row r="123" ht="20.2" customHeight="1">
-      <c r="A123" t="s" s="14">
-        <v>187</v>
-      </c>
-      <c r="B123" t="s" s="32">
-        <v>188</v>
-      </c>
-      <c r="C123" t="s" s="21">
-        <v>189</v>
-      </c>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="22">
-        <v>88</v>
-      </c>
-      <c r="H123" s="22">
-        <v>23</v>
-      </c>
-      <c r="I123" s="22">
-        <v>38</v>
-      </c>
-      <c r="J123" s="22"/>
-      <c r="K123" s="22">
-        <v>19</v>
-      </c>
-      <c r="L123" s="22">
-        <v>10</v>
-      </c>
-      <c r="M123" s="22">
-        <v>6</v>
-      </c>
-      <c r="N123" s="22"/>
-      <c r="O123" s="22">
-        <v>4</v>
-      </c>
-      <c r="P123" s="22"/>
-      <c r="Q123" s="22"/>
-      <c r="R123" s="22"/>
-      <c r="S123" s="22">
-        <v>300</v>
-      </c>
-      <c r="T123" s="22">
-        <v>12.5</v>
-      </c>
-      <c r="U123" s="22">
-        <v>663</v>
-      </c>
-      <c r="V123" s="22">
-        <v>700</v>
-      </c>
-      <c r="W123" s="22">
-        <v>9</v>
-      </c>
-      <c r="X123" s="22">
-        <v>2500</v>
-      </c>
-      <c r="Y123" s="22">
-        <v>100000</v>
-      </c>
-      <c r="Z123" s="22">
-        <v>30000</v>
-      </c>
-      <c r="AA123" s="22">
-        <v>2500</v>
-      </c>
-      <c r="AB123" s="22">
-        <v>57</v>
-      </c>
-      <c r="AC123" s="22">
-        <v>85</v>
-      </c>
-      <c r="AD123" s="22"/>
-      <c r="AE123" s="24"/>
+      <c r="Y123" s="29"/>
+      <c r="Z123" s="29"/>
+      <c r="AA123" s="29"/>
+      <c r="AB123" s="29"/>
+      <c r="AC123" s="29"/>
+      <c r="AD123" s="29"/>
+      <c r="AE123" s="31"/>
     </row>
     <row r="124" ht="20.2" customHeight="1">
       <c r="A124" t="s" s="14">
+        <v>188</v>
+      </c>
+      <c r="B124" t="s" s="25">
+        <v>189</v>
+      </c>
+      <c r="C124" t="s" s="16">
         <v>190</v>
-      </c>
-      <c r="B124" t="s" s="25">
-        <v>188</v>
-      </c>
-      <c r="C124" t="s" s="16">
-        <v>33</v>
       </c>
       <c r="D124" s="17"/>
       <c r="E124" s="17"/>
-      <c r="F124" s="18">
-        <v>12.6</v>
-      </c>
+      <c r="F124" s="18"/>
       <c r="G124" s="17">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H124" s="17">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="I124" s="17">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J124" s="17"/>
       <c r="K124" s="17">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L124" s="17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M124" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N124" s="17"/>
       <c r="O124" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P124" s="17"/>
       <c r="Q124" s="17"/>
       <c r="R124" s="17"/>
       <c r="S124" s="17">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="T124" s="17">
-        <v>0.3</v>
+        <v>12.5</v>
       </c>
       <c r="U124" s="17">
-        <v>50</v>
+        <v>663</v>
       </c>
       <c r="V124" s="17">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="W124" s="17">
-        <v>0.1</v>
+        <v>9</v>
       </c>
       <c r="X124" s="17">
-        <v>29</v>
+        <v>2500</v>
       </c>
       <c r="Y124" s="17">
-        <v>12500</v>
+        <v>100000</v>
       </c>
       <c r="Z124" s="17">
-        <v>1250</v>
+        <v>30000</v>
       </c>
       <c r="AA124" s="17">
-        <v>125</v>
-      </c>
-      <c r="AB124" s="17"/>
-      <c r="AC124" s="17"/>
+        <v>2500</v>
+      </c>
+      <c r="AB124" s="17">
+        <v>57</v>
+      </c>
+      <c r="AC124" s="17">
+        <v>85</v>
+      </c>
       <c r="AD124" s="17"/>
       <c r="AE124" s="19"/>
     </row>
-    <row r="125" ht="32.2" customHeight="1">
+    <row r="125" ht="20.2" customHeight="1">
       <c r="A125" t="s" s="14">
         <v>191</v>
       </c>
       <c r="B125" t="s" s="32">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C125" t="s" s="21">
         <v>33</v>
       </c>
       <c r="D125" s="22"/>
       <c r="E125" s="22"/>
-      <c r="F125" s="23"/>
+      <c r="F125" s="23">
+        <v>12.6</v>
+      </c>
       <c r="G125" s="22">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H125" s="22">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="I125" s="22">
-        <v>36.5</v>
+        <v>44</v>
       </c>
       <c r="J125" s="22"/>
       <c r="K125" s="22">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="L125" s="22">
-        <v>12.9</v>
-      </c>
-      <c r="M125" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="M125" s="22">
+        <v>5</v>
+      </c>
       <c r="N125" s="22"/>
       <c r="O125" s="22">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="P125" s="22"/>
       <c r="Q125" s="22"/>
       <c r="R125" s="22"/>
-      <c r="S125" s="22"/>
-      <c r="T125" s="22"/>
-      <c r="U125" s="22"/>
-      <c r="V125" s="22"/>
-      <c r="W125" s="22"/>
-      <c r="X125" s="22"/>
+      <c r="S125" s="22">
+        <v>6</v>
+      </c>
+      <c r="T125" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="U125" s="22">
+        <v>50</v>
+      </c>
+      <c r="V125" s="22">
+        <v>20</v>
+      </c>
+      <c r="W125" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="X125" s="22">
+        <v>29</v>
+      </c>
       <c r="Y125" s="22">
-        <v>4900</v>
+        <v>12500</v>
       </c>
       <c r="Z125" s="22">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="AA125" s="22">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="AB125" s="22"/>
       <c r="AC125" s="22"/>
       <c r="AD125" s="22"/>
       <c r="AE125" s="24"/>
     </row>
-    <row r="126" ht="20.2" customHeight="1">
+    <row r="126" ht="32.2" customHeight="1">
       <c r="A126" t="s" s="14">
+        <v>192</v>
+      </c>
+      <c r="B126" t="s" s="25">
         <v>193</v>
-      </c>
-      <c r="B126" t="s" s="25">
-        <v>192</v>
       </c>
       <c r="C126" t="s" s="16">
         <v>33</v>
@@ -11010,61 +11043,45 @@
       <c r="E126" s="17"/>
       <c r="F126" s="18"/>
       <c r="G126" s="17">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H126" s="17">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="I126" s="17">
-        <v>30</v>
+        <v>36.5</v>
       </c>
       <c r="J126" s="17"/>
       <c r="K126" s="17">
-        <v>13</v>
+        <v>9.9</v>
       </c>
       <c r="L126" s="17">
-        <v>6</v>
+        <v>12.9</v>
       </c>
       <c r="M126" s="17"/>
       <c r="N126" s="17"/>
       <c r="O126" s="17">
-        <v>12</v>
+        <v>5.4</v>
       </c>
       <c r="P126" s="17"/>
       <c r="Q126" s="17"/>
-      <c r="R126" s="17">
-        <v>0.11</v>
-      </c>
-      <c r="S126" s="17">
-        <v>26.04</v>
-      </c>
-      <c r="T126" s="17">
-        <v>0.71</v>
-      </c>
-      <c r="U126" s="17">
-        <v>123.51</v>
-      </c>
-      <c r="V126" s="17">
-        <v>69.64</v>
-      </c>
-      <c r="W126" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="X126" s="17">
-        <v>98.20999999999999</v>
-      </c>
+      <c r="R126" s="17"/>
+      <c r="S126" s="17"/>
+      <c r="T126" s="17"/>
+      <c r="U126" s="17"/>
+      <c r="V126" s="17"/>
+      <c r="W126" s="17"/>
+      <c r="X126" s="17"/>
       <c r="Y126" s="17">
-        <v>12200</v>
+        <v>4900</v>
       </c>
       <c r="Z126" s="17">
-        <v>1339</v>
+        <v>500</v>
       </c>
       <c r="AA126" s="17">
-        <v>247</v>
-      </c>
-      <c r="AB126" s="17">
-        <v>10.1</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AB126" s="17"/>
       <c r="AC126" s="17"/>
       <c r="AD126" s="17"/>
       <c r="AE126" s="19"/>
@@ -11074,37 +11091,31 @@
         <v>194</v>
       </c>
       <c r="B127" t="s" s="32">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C127" t="s" s="21">
         <v>33</v>
       </c>
       <c r="D127" s="22"/>
       <c r="E127" s="22"/>
-      <c r="F127" s="23">
-        <v>12.8</v>
-      </c>
+      <c r="F127" s="23"/>
       <c r="G127" s="22">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H127" s="22">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="I127" s="22">
-        <v>85</v>
-      </c>
-      <c r="J127" s="22">
-        <v>4.5</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J127" s="22"/>
       <c r="K127" s="22">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L127" s="22">
-        <v>3</v>
-      </c>
-      <c r="M127" s="22">
-        <v>2.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="M127" s="22"/>
       <c r="N127" s="22"/>
       <c r="O127" s="22">
         <v>12</v>
@@ -11112,50 +11123,48 @@
       <c r="P127" s="22"/>
       <c r="Q127" s="22"/>
       <c r="R127" s="22">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="S127" s="22">
-        <v>35</v>
+        <v>26.04</v>
       </c>
       <c r="T127" s="22">
-        <v>1.2</v>
+        <v>0.71</v>
       </c>
       <c r="U127" s="22">
-        <v>120</v>
+        <v>123.51</v>
       </c>
       <c r="V127" s="22">
-        <v>130</v>
+        <v>69.64</v>
       </c>
       <c r="W127" s="22">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="X127" s="22">
-        <v>240</v>
+        <v>98.20999999999999</v>
       </c>
       <c r="Y127" s="22">
-        <v>17000</v>
+        <v>12200</v>
       </c>
       <c r="Z127" s="22">
-        <v>1350</v>
+        <v>1339</v>
       </c>
       <c r="AA127" s="22">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="AB127" s="22">
-        <v>10.12</v>
-      </c>
-      <c r="AC127" s="22">
-        <v>13.1</v>
-      </c>
+        <v>10.1</v>
+      </c>
+      <c r="AC127" s="22"/>
       <c r="AD127" s="22"/>
       <c r="AE127" s="24"/>
     </row>
     <row r="128" ht="20.2" customHeight="1">
-      <c r="A128" t="s" s="36">
+      <c r="A128" t="s" s="14">
         <v>195</v>
       </c>
       <c r="B128" t="s" s="25">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C128" t="s" s="16">
         <v>33</v>
@@ -11163,72 +11172,80 @@
       <c r="D128" s="17"/>
       <c r="E128" s="17"/>
       <c r="F128" s="18">
-        <v>10.3</v>
+        <v>12.8</v>
       </c>
       <c r="G128" s="17">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H128" s="17">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="I128" s="17">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="J128" s="17">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="K128" s="17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L128" s="17">
-        <v>4.8</v>
-      </c>
-      <c r="M128" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="M128" s="17">
+        <v>2.5</v>
+      </c>
       <c r="N128" s="17"/>
       <c r="O128" s="17">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P128" s="17"/>
       <c r="Q128" s="17"/>
-      <c r="R128" s="17"/>
+      <c r="R128" s="17">
+        <v>1.12</v>
+      </c>
       <c r="S128" s="17">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="T128" s="17">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="U128" s="17">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="V128" s="17">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="W128" s="17">
-        <v>0.24</v>
+        <v>0.6</v>
       </c>
       <c r="X128" s="17">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="Y128" s="17">
-        <v>9600</v>
+        <v>17000</v>
       </c>
       <c r="Z128" s="17">
-        <v>1600</v>
+        <v>1350</v>
       </c>
       <c r="AA128" s="17">
-        <v>48</v>
-      </c>
-      <c r="AB128" s="17"/>
-      <c r="AC128" s="17"/>
+        <v>300</v>
+      </c>
+      <c r="AB128" s="17">
+        <v>10.12</v>
+      </c>
+      <c r="AC128" s="17">
+        <v>13.1</v>
+      </c>
       <c r="AD128" s="17"/>
       <c r="AE128" s="19"/>
     </row>
     <row r="129" ht="20.2" customHeight="1">
       <c r="A129" t="s" s="36">
+        <v>196</v>
+      </c>
+      <c r="B129" t="s" s="32">
         <v>197</v>
-      </c>
-      <c r="B129" t="s" s="32">
-        <v>196</v>
       </c>
       <c r="C129" t="s" s="21">
         <v>33</v>
@@ -11236,23 +11253,25 @@
       <c r="D129" s="22"/>
       <c r="E129" s="22"/>
       <c r="F129" s="23">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="G129" s="22">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H129" s="22">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I129" s="22">
-        <v>47</v>
-      </c>
-      <c r="J129" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="J129" s="22">
+        <v>5.3</v>
+      </c>
       <c r="K129" s="22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L129" s="22">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="M129" s="22"/>
       <c r="N129" s="22"/>
@@ -11263,38 +11282,34 @@
       <c r="Q129" s="22"/>
       <c r="R129" s="22"/>
       <c r="S129" s="22">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T129" s="22">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="U129" s="22">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="V129" s="22">
         <v>40</v>
       </c>
       <c r="W129" s="22">
-        <v>0.6</v>
+        <v>0.24</v>
       </c>
       <c r="X129" s="22">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Y129" s="22">
-        <v>220</v>
+        <v>9600</v>
       </c>
       <c r="Z129" s="22">
-        <v>700</v>
+        <v>1600</v>
       </c>
       <c r="AA129" s="22">
-        <v>95</v>
-      </c>
-      <c r="AB129" s="22">
-        <v>3</v>
-      </c>
-      <c r="AC129" s="22">
-        <v>5</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="AB129" s="22"/>
+      <c r="AC129" s="22"/>
       <c r="AD129" s="22"/>
       <c r="AE129" s="24"/>
     </row>
@@ -11303,7 +11318,7 @@
         <v>198</v>
       </c>
       <c r="B130" t="s" s="25">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C130" t="s" s="16">
         <v>33</v>
@@ -11311,25 +11326,23 @@
       <c r="D130" s="17"/>
       <c r="E130" s="17"/>
       <c r="F130" s="18">
-        <v>11.7</v>
+        <v>10.5</v>
       </c>
       <c r="G130" s="17">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H130" s="17">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="I130" s="17">
-        <v>48.5</v>
-      </c>
-      <c r="J130" s="17">
-        <v>4.1</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J130" s="17"/>
       <c r="K130" s="17">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L130" s="17">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="M130" s="17"/>
       <c r="N130" s="17"/>
@@ -11343,31 +11356,35 @@
         <v>20</v>
       </c>
       <c r="T130" s="17">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="U130" s="17">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="V130" s="17">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="W130" s="17">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="X130" s="17">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="Y130" s="17">
-        <v>10000</v>
+        <v>220</v>
       </c>
       <c r="Z130" s="17">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="AA130" s="17">
-        <v>180</v>
-      </c>
-      <c r="AB130" s="17"/>
-      <c r="AC130" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="AB130" s="17">
+        <v>3</v>
+      </c>
+      <c r="AC130" s="17">
+        <v>5</v>
+      </c>
       <c r="AD130" s="17"/>
       <c r="AE130" s="19"/>
     </row>
@@ -11376,7 +11393,7 @@
         <v>199</v>
       </c>
       <c r="B131" t="s" s="32">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C131" t="s" s="21">
         <v>33</v>
@@ -11384,22 +11401,26 @@
       <c r="D131" s="22"/>
       <c r="E131" s="22"/>
       <c r="F131" s="23">
-        <v>11</v>
+        <v>11.7</v>
       </c>
       <c r="G131" s="22">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="H131" s="22">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I131" s="22">
-        <v>60</v>
-      </c>
-      <c r="J131" s="22"/>
+        <v>48.5</v>
+      </c>
+      <c r="J131" s="22">
+        <v>4.1</v>
+      </c>
       <c r="K131" s="22">
-        <v>6</v>
-      </c>
-      <c r="L131" s="22"/>
+        <v>9</v>
+      </c>
+      <c r="L131" s="22">
+        <v>7</v>
+      </c>
       <c r="M131" s="22"/>
       <c r="N131" s="22"/>
       <c r="O131" s="22">
@@ -11409,47 +11430,43 @@
       <c r="Q131" s="22"/>
       <c r="R131" s="22"/>
       <c r="S131" s="22">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="T131" s="22">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="U131" s="22">
-        <v>99.90000000000001</v>
+        <v>125</v>
       </c>
       <c r="V131" s="22">
-        <v>96.62</v>
+        <v>52</v>
       </c>
       <c r="W131" s="22">
-        <v>0.66</v>
+        <v>0.4</v>
       </c>
       <c r="X131" s="22">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="Y131" s="22">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="Z131" s="22">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="AA131" s="22">
-        <v>400</v>
-      </c>
-      <c r="AB131" s="22">
-        <v>3.55</v>
-      </c>
-      <c r="AC131" s="22">
-        <v>4.13</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="AB131" s="22"/>
+      <c r="AC131" s="22"/>
       <c r="AD131" s="22"/>
       <c r="AE131" s="24"/>
     </row>
     <row r="132" ht="20.2" customHeight="1">
-      <c r="A132" t="s" s="14">
+      <c r="A132" t="s" s="36">
         <v>200</v>
       </c>
       <c r="B132" t="s" s="25">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C132" t="s" s="16">
         <v>33</v>
@@ -11457,24 +11474,22 @@
       <c r="D132" s="17"/>
       <c r="E132" s="17"/>
       <c r="F132" s="18">
-        <v>12.1</v>
+        <v>11</v>
       </c>
       <c r="G132" s="17">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="H132" s="17">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="I132" s="17">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="J132" s="17"/>
       <c r="K132" s="17">
-        <v>12</v>
-      </c>
-      <c r="L132" s="17">
-        <v>4.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="L132" s="17"/>
       <c r="M132" s="17"/>
       <c r="N132" s="17"/>
       <c r="O132" s="17">
@@ -11484,41 +11499,47 @@
       <c r="Q132" s="17"/>
       <c r="R132" s="17"/>
       <c r="S132" s="17">
-        <v>22</v>
-      </c>
-      <c r="T132" s="17"/>
+        <v>70</v>
+      </c>
+      <c r="T132" s="17">
+        <v>2.1</v>
+      </c>
       <c r="U132" s="17">
-        <v>28</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="V132" s="17">
-        <v>85</v>
+        <v>96.62</v>
       </c>
       <c r="W132" s="17">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="X132" s="17">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="Y132" s="17">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="Z132" s="17">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="AA132" s="17">
-        <v>460</v>
-      </c>
-      <c r="AB132" s="17"/>
-      <c r="AC132" s="17"/>
+        <v>400</v>
+      </c>
+      <c r="AB132" s="17">
+        <v>3.55</v>
+      </c>
+      <c r="AC132" s="17">
+        <v>4.13</v>
+      </c>
       <c r="AD132" s="17"/>
       <c r="AE132" s="19"/>
     </row>
-    <row r="133" ht="22.5" customHeight="1">
-      <c r="A133" t="s" s="48">
+    <row r="133" ht="20.2" customHeight="1">
+      <c r="A133" t="s" s="14">
+        <v>201</v>
+      </c>
+      <c r="B133" t="s" s="32">
         <v>202</v>
-      </c>
-      <c r="B133" t="s" s="32">
-        <v>203</v>
       </c>
       <c r="C133" t="s" s="21">
         <v>33</v>
@@ -11526,74 +11547,68 @@
       <c r="D133" s="22"/>
       <c r="E133" s="22"/>
       <c r="F133" s="23">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="G133" s="22">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="H133" s="22">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="I133" s="22">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="J133" s="22"/>
       <c r="K133" s="22">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="L133" s="22">
-        <v>8</v>
-      </c>
-      <c r="M133" s="22">
-        <v>2.5</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="M133" s="22"/>
       <c r="N133" s="22"/>
       <c r="O133" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P133" s="22"/>
       <c r="Q133" s="22"/>
-      <c r="R133" s="22">
-        <v>0.2</v>
-      </c>
+      <c r="R133" s="22"/>
       <c r="S133" s="22">
-        <v>12</v>
-      </c>
-      <c r="T133" s="22">
-        <v>0.83</v>
-      </c>
-      <c r="U133" s="22"/>
-      <c r="V133" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="T133" s="22"/>
+      <c r="U133" s="22">
+        <v>28</v>
+      </c>
+      <c r="V133" s="22">
+        <v>85</v>
+      </c>
       <c r="W133" s="22">
         <v>0.5</v>
       </c>
       <c r="X133" s="22">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="Y133" s="22">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="Z133" s="22">
         <v>1600</v>
       </c>
       <c r="AA133" s="22">
-        <v>50</v>
-      </c>
-      <c r="AB133" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="AC133" s="22">
-        <v>0.3</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="AB133" s="22"/>
+      <c r="AC133" s="22"/>
       <c r="AD133" s="22"/>
       <c r="AE133" s="24"/>
     </row>
-    <row r="134" ht="44.2" customHeight="1">
-      <c r="A134" t="s" s="14">
+    <row r="134" ht="22.5" customHeight="1">
+      <c r="A134" t="s" s="48">
+        <v>203</v>
+      </c>
+      <c r="B134" t="s" s="25">
         <v>204</v>
-      </c>
-      <c r="B134" t="s" s="25">
-        <v>205</v>
       </c>
       <c r="C134" t="s" s="16">
         <v>33</v>
@@ -11601,54 +11616,74 @@
       <c r="D134" s="17"/>
       <c r="E134" s="17"/>
       <c r="F134" s="18">
-        <v>11.47</v>
+        <v>11</v>
       </c>
       <c r="G134" s="17">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="H134" s="17">
-        <v>57.8</v>
+        <v>115</v>
       </c>
       <c r="I134" s="17">
-        <v>31.7</v>
+        <v>48</v>
       </c>
       <c r="J134" s="17"/>
       <c r="K134" s="17">
-        <v>16.1</v>
+        <v>13.5</v>
       </c>
       <c r="L134" s="17">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M134" s="17">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="N134" s="17"/>
       <c r="O134" s="17">
-        <v>6.3</v>
+        <v>1</v>
       </c>
       <c r="P134" s="17"/>
       <c r="Q134" s="17"/>
-      <c r="R134" s="17"/>
-      <c r="S134" s="17"/>
-      <c r="T134" s="17"/>
+      <c r="R134" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="S134" s="17">
+        <v>12</v>
+      </c>
+      <c r="T134" s="17">
+        <v>0.83</v>
+      </c>
       <c r="U134" s="17"/>
       <c r="V134" s="17"/>
-      <c r="W134" s="17"/>
-      <c r="X134" s="17"/>
-      <c r="Y134" s="17"/>
-      <c r="Z134" s="17"/>
-      <c r="AA134" s="17"/>
-      <c r="AB134" s="17"/>
-      <c r="AC134" s="17"/>
+      <c r="W134" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="X134" s="17">
+        <v>90</v>
+      </c>
+      <c r="Y134" s="17">
+        <v>10000</v>
+      </c>
+      <c r="Z134" s="17">
+        <v>1600</v>
+      </c>
+      <c r="AA134" s="17">
+        <v>50</v>
+      </c>
+      <c r="AB134" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="AC134" s="17">
+        <v>0.3</v>
+      </c>
       <c r="AD134" s="17"/>
       <c r="AE134" s="19"/>
     </row>
-    <row r="135" ht="20.2" customHeight="1">
+    <row r="135" ht="44.2" customHeight="1">
       <c r="A135" t="s" s="14">
+        <v>205</v>
+      </c>
+      <c r="B135" t="s" s="32">
         <v>206</v>
-      </c>
-      <c r="B135" t="s" s="32">
-        <v>207</v>
       </c>
       <c r="C135" t="s" s="21">
         <v>33</v>
@@ -11656,65 +11691,43 @@
       <c r="D135" s="22"/>
       <c r="E135" s="22"/>
       <c r="F135" s="23">
-        <v>11.5</v>
+        <v>11.47</v>
       </c>
       <c r="G135" s="22">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="H135" s="22">
-        <v>145</v>
+        <v>57.8</v>
       </c>
       <c r="I135" s="22">
-        <v>90</v>
-      </c>
-      <c r="J135" s="22">
-        <v>10</v>
-      </c>
+        <v>31.7</v>
+      </c>
+      <c r="J135" s="22"/>
       <c r="K135" s="22">
-        <v>14.5</v>
+        <v>16.1</v>
       </c>
       <c r="L135" s="22">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M135" s="22">
-        <v>2.6</v>
-      </c>
-      <c r="N135" s="22">
-        <v>12</v>
-      </c>
+        <v>3.9</v>
+      </c>
+      <c r="N135" s="22"/>
       <c r="O135" s="22">
-        <v>7</v>
-      </c>
-      <c r="P135" s="22">
-        <v>12.8</v>
-      </c>
+        <v>6.3</v>
+      </c>
+      <c r="P135" s="22"/>
       <c r="Q135" s="22"/>
       <c r="R135" s="22"/>
-      <c r="S135" s="22">
-        <v>40</v>
-      </c>
+      <c r="S135" s="22"/>
       <c r="T135" s="22"/>
-      <c r="U135" s="22">
-        <v>135</v>
-      </c>
-      <c r="V135" s="22">
-        <v>45</v>
-      </c>
-      <c r="W135" s="22">
-        <v>0.7</v>
-      </c>
-      <c r="X135" s="22">
-        <v>110</v>
-      </c>
-      <c r="Y135" s="22">
-        <v>18000</v>
-      </c>
-      <c r="Z135" s="22">
-        <v>1800</v>
-      </c>
-      <c r="AA135" s="22">
-        <v>450</v>
-      </c>
+      <c r="U135" s="22"/>
+      <c r="V135" s="22"/>
+      <c r="W135" s="22"/>
+      <c r="X135" s="22"/>
+      <c r="Y135" s="22"/>
+      <c r="Z135" s="22"/>
+      <c r="AA135" s="22"/>
       <c r="AB135" s="22"/>
       <c r="AC135" s="22"/>
       <c r="AD135" s="22"/>
@@ -11722,10 +11735,10 @@
     </row>
     <row r="136" ht="20.2" customHeight="1">
       <c r="A136" t="s" s="14">
+        <v>207</v>
+      </c>
+      <c r="B136" t="s" s="25">
         <v>208</v>
-      </c>
-      <c r="B136" t="s" s="25">
-        <v>209</v>
       </c>
       <c r="C136" t="s" s="16">
         <v>33</v>
@@ -11733,78 +11746,76 @@
       <c r="D136" s="17"/>
       <c r="E136" s="17"/>
       <c r="F136" s="18">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="G136" s="17">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="H136" s="17">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="I136" s="17">
-        <v>35</v>
-      </c>
-      <c r="J136" s="17"/>
+        <v>90</v>
+      </c>
+      <c r="J136" s="17">
+        <v>10</v>
+      </c>
       <c r="K136" s="17">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="L136" s="17">
         <v>7</v>
       </c>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
+      <c r="M136" s="17">
+        <v>2.6</v>
+      </c>
+      <c r="N136" s="17">
+        <v>12</v>
+      </c>
       <c r="O136" s="17">
-        <v>10</v>
-      </c>
-      <c r="P136" s="17"/>
+        <v>7</v>
+      </c>
+      <c r="P136" s="17">
+        <v>12.8</v>
+      </c>
       <c r="Q136" s="17"/>
-      <c r="R136" s="17">
-        <v>1</v>
-      </c>
+      <c r="R136" s="17"/>
       <c r="S136" s="17">
-        <v>25</v>
-      </c>
-      <c r="T136" s="17">
-        <v>0.95</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="T136" s="17"/>
       <c r="U136" s="17">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="V136" s="17">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="W136" s="17">
-        <v>0.275</v>
+        <v>0.7</v>
       </c>
       <c r="X136" s="17">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="Y136" s="17">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="Z136" s="17">
-        <v>2150</v>
+        <v>1800</v>
       </c>
       <c r="AA136" s="17">
-        <v>300</v>
-      </c>
-      <c r="AB136" s="17">
-        <v>10</v>
-      </c>
-      <c r="AC136" s="17">
-        <v>15</v>
-      </c>
-      <c r="AD136" s="17">
-        <v>5</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="AB136" s="17"/>
+      <c r="AC136" s="17"/>
+      <c r="AD136" s="17"/>
       <c r="AE136" s="19"/>
     </row>
     <row r="137" ht="20.2" customHeight="1">
-      <c r="A137" t="s" s="49">
+      <c r="A137" t="s" s="14">
+        <v>209</v>
+      </c>
+      <c r="B137" t="s" s="32">
         <v>210</v>
-      </c>
-      <c r="B137" t="s" s="32">
-        <v>211</v>
       </c>
       <c r="C137" t="s" s="21">
         <v>33</v>
@@ -11812,157 +11823,143 @@
       <c r="D137" s="22"/>
       <c r="E137" s="22"/>
       <c r="F137" s="23">
-        <v>12.4</v>
+        <v>11.2</v>
       </c>
       <c r="G137" s="22">
-        <v>100</v>
-      </c>
-      <c r="H137" s="50">
-        <v>80</v>
-      </c>
-      <c r="I137" s="50">
-        <v>30</v>
-      </c>
-      <c r="J137" s="50">
-        <v>4</v>
-      </c>
-      <c r="K137" s="50">
+        <v>117</v>
+      </c>
+      <c r="H137" s="22">
+        <v>87</v>
+      </c>
+      <c r="I137" s="22">
+        <v>35</v>
+      </c>
+      <c r="J137" s="22"/>
+      <c r="K137" s="22">
+        <v>13</v>
+      </c>
+      <c r="L137" s="22">
+        <v>7</v>
+      </c>
+      <c r="M137" s="22"/>
+      <c r="N137" s="22"/>
+      <c r="O137" s="22">
         <v>10</v>
       </c>
-      <c r="L137" s="50">
-        <v>5.5</v>
-      </c>
-      <c r="M137" s="50">
-        <v>2.9</v>
-      </c>
-      <c r="N137" s="50">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="O137" s="50">
-        <v>3.1</v>
-      </c>
-      <c r="P137" s="50">
-        <v>7.7</v>
-      </c>
+      <c r="P137" s="22"/>
       <c r="Q137" s="22"/>
-      <c r="R137" s="22"/>
-      <c r="S137" s="50">
-        <v>60</v>
-      </c>
-      <c r="T137" s="50">
-        <v>1.5</v>
-      </c>
-      <c r="U137" s="50">
+      <c r="R137" s="22">
+        <v>1</v>
+      </c>
+      <c r="S137" s="22">
+        <v>25</v>
+      </c>
+      <c r="T137" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="U137" s="22">
+        <v>75</v>
+      </c>
+      <c r="V137" s="22">
+        <v>37</v>
+      </c>
+      <c r="W137" s="22">
+        <v>0.275</v>
+      </c>
+      <c r="X137" s="22">
+        <v>125</v>
+      </c>
+      <c r="Y137" s="22">
+        <v>12500</v>
+      </c>
+      <c r="Z137" s="22">
+        <v>2150</v>
+      </c>
+      <c r="AA137" s="22">
+        <v>300</v>
+      </c>
+      <c r="AB137" s="22">
+        <v>10</v>
+      </c>
+      <c r="AC137" s="22">
+        <v>15</v>
+      </c>
+      <c r="AD137" s="22">
+        <v>5</v>
+      </c>
+      <c r="AE137" s="24"/>
+    </row>
+    <row r="138" ht="20.2" customHeight="1">
+      <c r="A138" t="s" s="26">
+        <v>211</v>
+      </c>
+      <c r="B138" s="49"/>
+      <c r="C138" t="s" s="28">
+        <v>33</v>
+      </c>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="30">
+        <v>13.5</v>
+      </c>
+      <c r="G138" s="29">
+        <v>140</v>
+      </c>
+      <c r="H138" s="29">
         <v>120</v>
       </c>
-      <c r="V137" s="50">
-        <v>100</v>
-      </c>
-      <c r="W137" s="50">
+      <c r="I138" s="29">
+        <v>70</v>
+      </c>
+      <c r="J138" s="29"/>
+      <c r="K138" s="29"/>
+      <c r="L138" s="29"/>
+      <c r="M138" s="29"/>
+      <c r="N138" s="29"/>
+      <c r="O138" s="29">
+        <v>6.5</v>
+      </c>
+      <c r="P138" s="29"/>
+      <c r="Q138" s="29"/>
+      <c r="R138" s="29"/>
+      <c r="S138" s="29">
+        <v>25</v>
+      </c>
+      <c r="T138" s="29">
+        <v>1.8</v>
+      </c>
+      <c r="U138" s="29">
+        <v>95</v>
+      </c>
+      <c r="V138" s="29">
+        <v>74</v>
+      </c>
+      <c r="W138" s="29">
         <v>0.5</v>
       </c>
-      <c r="X137" s="50">
-        <v>180</v>
-      </c>
-      <c r="Y137" s="50">
-        <v>15000</v>
-      </c>
-      <c r="Z137" s="50">
-        <v>2000</v>
-      </c>
-      <c r="AA137" s="50">
-        <v>300</v>
-      </c>
-      <c r="AB137" s="50"/>
-      <c r="AC137" s="50"/>
-      <c r="AD137" s="50"/>
-      <c r="AE137" s="51"/>
-    </row>
-    <row r="138" ht="20.2" customHeight="1">
-      <c r="A138" t="s" s="49">
+      <c r="X138" s="29">
+        <v>156</v>
+      </c>
+      <c r="Y138" s="29">
+        <v>28750</v>
+      </c>
+      <c r="Z138" s="29">
+        <v>1750</v>
+      </c>
+      <c r="AA138" s="29">
+        <v>312.5</v>
+      </c>
+      <c r="AB138" s="29"/>
+      <c r="AC138" s="29"/>
+      <c r="AD138" s="29"/>
+      <c r="AE138" s="31"/>
+    </row>
+    <row r="139" ht="20.2" customHeight="1">
+      <c r="A139" t="s" s="50">
         <v>212</v>
       </c>
-      <c r="B138" t="s" s="25">
-        <v>211</v>
-      </c>
-      <c r="C138" t="s" s="16">
-        <v>33</v>
-      </c>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="18">
-        <v>11.2</v>
-      </c>
-      <c r="G138" s="17">
-        <v>100</v>
-      </c>
-      <c r="H138" s="52">
-        <v>120</v>
-      </c>
-      <c r="I138" s="52">
-        <v>33</v>
-      </c>
-      <c r="J138" s="52">
-        <v>4.8</v>
-      </c>
-      <c r="K138" s="52">
-        <v>10</v>
-      </c>
-      <c r="L138" s="52">
-        <v>5</v>
-      </c>
-      <c r="M138" s="52">
-        <v>3.3</v>
-      </c>
-      <c r="N138" s="52">
-        <v>19.5</v>
-      </c>
-      <c r="O138" s="52">
-        <v>3.7</v>
-      </c>
-      <c r="P138" s="52">
-        <v>7.4</v>
-      </c>
-      <c r="Q138" s="17"/>
-      <c r="R138" s="17"/>
-      <c r="S138" s="52">
-        <v>60</v>
-      </c>
-      <c r="T138" s="52">
-        <v>1.5</v>
-      </c>
-      <c r="U138" s="52">
-        <v>120</v>
-      </c>
-      <c r="V138" s="52">
-        <v>100</v>
-      </c>
-      <c r="W138" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="X138" s="52">
-        <v>180</v>
-      </c>
-      <c r="Y138" s="52">
-        <v>15000</v>
-      </c>
-      <c r="Z138" s="52">
-        <v>2000</v>
-      </c>
-      <c r="AA138" s="52">
-        <v>300</v>
-      </c>
-      <c r="AB138" s="52"/>
-      <c r="AC138" s="52"/>
-      <c r="AD138" s="52"/>
-      <c r="AE138" s="53"/>
-    </row>
-    <row r="139" ht="32.2" customHeight="1">
-      <c r="A139" t="s" s="49">
+      <c r="B139" t="s" s="32">
         <v>213</v>
-      </c>
-      <c r="B139" t="s" s="32">
-        <v>211</v>
       </c>
       <c r="C139" t="s" s="21">
         <v>33</v>
@@ -11970,78 +11967,78 @@
       <c r="D139" s="22"/>
       <c r="E139" s="22"/>
       <c r="F139" s="23">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="G139" s="22">
-        <v>140</v>
-      </c>
-      <c r="H139" s="50">
-        <v>175</v>
-      </c>
-      <c r="I139" s="50">
-        <v>78</v>
-      </c>
-      <c r="J139" s="50">
-        <v>7.4</v>
-      </c>
-      <c r="K139" s="50">
-        <v>11.5</v>
-      </c>
-      <c r="L139" s="50">
-        <v>6</v>
-      </c>
-      <c r="M139" s="50">
-        <v>3.6</v>
-      </c>
-      <c r="N139" s="50">
-        <v>13.7</v>
-      </c>
-      <c r="O139" s="50">
-        <v>3.2</v>
-      </c>
-      <c r="P139" s="50">
-        <v>5.9</v>
+        <v>100</v>
+      </c>
+      <c r="H139" s="51">
+        <v>80</v>
+      </c>
+      <c r="I139" s="51">
+        <v>30</v>
+      </c>
+      <c r="J139" s="51">
+        <v>4</v>
+      </c>
+      <c r="K139" s="51">
+        <v>10</v>
+      </c>
+      <c r="L139" s="51">
+        <v>5.5</v>
+      </c>
+      <c r="M139" s="51">
+        <v>2.9</v>
+      </c>
+      <c r="N139" s="51">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O139" s="51">
+        <v>3.1</v>
+      </c>
+      <c r="P139" s="51">
+        <v>7.7</v>
       </c>
       <c r="Q139" s="22"/>
       <c r="R139" s="22"/>
-      <c r="S139" s="50">
+      <c r="S139" s="51">
         <v>60</v>
       </c>
-      <c r="T139" s="50">
+      <c r="T139" s="51">
         <v>1.5</v>
       </c>
-      <c r="U139" s="50">
+      <c r="U139" s="51">
         <v>120</v>
       </c>
-      <c r="V139" s="50">
+      <c r="V139" s="51">
         <v>100</v>
       </c>
-      <c r="W139" s="50">
+      <c r="W139" s="51">
         <v>0.5</v>
       </c>
-      <c r="X139" s="50">
+      <c r="X139" s="51">
         <v>180</v>
       </c>
-      <c r="Y139" s="50">
+      <c r="Y139" s="51">
         <v>15000</v>
       </c>
-      <c r="Z139" s="50">
+      <c r="Z139" s="51">
         <v>2000</v>
       </c>
-      <c r="AA139" s="50">
+      <c r="AA139" s="51">
         <v>300</v>
       </c>
-      <c r="AB139" s="50"/>
-      <c r="AC139" s="50"/>
-      <c r="AD139" s="50"/>
-      <c r="AE139" s="51"/>
+      <c r="AB139" s="51"/>
+      <c r="AC139" s="51"/>
+      <c r="AD139" s="51"/>
+      <c r="AE139" s="52"/>
     </row>
     <row r="140" ht="20.2" customHeight="1">
-      <c r="A140" t="s" s="49">
+      <c r="A140" t="s" s="50">
         <v>214</v>
       </c>
       <c r="B140" t="s" s="25">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C140" t="s" s="16">
         <v>33</v>
@@ -12049,78 +12046,78 @@
       <c r="D140" s="17"/>
       <c r="E140" s="17"/>
       <c r="F140" s="18">
-        <v>14.1</v>
+        <v>11.2</v>
       </c>
       <c r="G140" s="17">
-        <v>140</v>
-      </c>
-      <c r="H140" s="52">
-        <v>50</v>
-      </c>
-      <c r="I140" s="52">
-        <v>80</v>
-      </c>
-      <c r="J140" s="52">
-        <v>6.6</v>
-      </c>
-      <c r="K140" s="52">
-        <v>12</v>
-      </c>
-      <c r="L140" s="52">
-        <v>6</v>
-      </c>
-      <c r="M140" s="52">
-        <v>2.7</v>
-      </c>
-      <c r="N140" s="52">
-        <v>8</v>
-      </c>
-      <c r="O140" s="52">
-        <v>2.5</v>
-      </c>
-      <c r="P140" s="52">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="H140" s="53">
+        <v>120</v>
+      </c>
+      <c r="I140" s="53">
+        <v>33</v>
+      </c>
+      <c r="J140" s="53">
+        <v>4.8</v>
+      </c>
+      <c r="K140" s="53">
+        <v>10</v>
+      </c>
+      <c r="L140" s="53">
+        <v>5</v>
+      </c>
+      <c r="M140" s="53">
+        <v>3.3</v>
+      </c>
+      <c r="N140" s="53">
+        <v>19.5</v>
+      </c>
+      <c r="O140" s="53">
+        <v>3.7</v>
+      </c>
+      <c r="P140" s="53">
+        <v>7.4</v>
       </c>
       <c r="Q140" s="17"/>
       <c r="R140" s="17"/>
-      <c r="S140" s="52">
+      <c r="S140" s="53">
         <v>60</v>
       </c>
-      <c r="T140" s="52">
+      <c r="T140" s="53">
         <v>1.5</v>
       </c>
-      <c r="U140" s="52">
+      <c r="U140" s="53">
         <v>120</v>
       </c>
-      <c r="V140" s="52">
+      <c r="V140" s="53">
         <v>100</v>
       </c>
-      <c r="W140" s="52">
+      <c r="W140" s="53">
         <v>0.5</v>
       </c>
-      <c r="X140" s="52">
+      <c r="X140" s="53">
         <v>180</v>
       </c>
-      <c r="Y140" s="52">
+      <c r="Y140" s="53">
         <v>15000</v>
       </c>
-      <c r="Z140" s="52">
+      <c r="Z140" s="53">
         <v>2000</v>
       </c>
-      <c r="AA140" s="52">
+      <c r="AA140" s="53">
         <v>300</v>
       </c>
-      <c r="AB140" s="52"/>
-      <c r="AC140" s="52"/>
-      <c r="AD140" s="52"/>
-      <c r="AE140" s="53"/>
-    </row>
-    <row r="141" ht="20.2" customHeight="1">
-      <c r="A141" t="s" s="49">
+      <c r="AB140" s="53"/>
+      <c r="AC140" s="53"/>
+      <c r="AD140" s="53"/>
+      <c r="AE140" s="54"/>
+    </row>
+    <row r="141" ht="32.2" customHeight="1">
+      <c r="A141" t="s" s="50">
         <v>215</v>
       </c>
       <c r="B141" t="s" s="32">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C141" t="s" s="21">
         <v>33</v>
@@ -12131,75 +12128,75 @@
         <v>12</v>
       </c>
       <c r="G141" s="22">
-        <v>120</v>
-      </c>
-      <c r="H141" s="50">
-        <v>85</v>
-      </c>
-      <c r="I141" s="50">
-        <v>45</v>
-      </c>
-      <c r="J141" s="50">
-        <v>5.5</v>
-      </c>
-      <c r="K141" s="50">
+        <v>140</v>
+      </c>
+      <c r="H141" s="51">
+        <v>175</v>
+      </c>
+      <c r="I141" s="51">
+        <v>78</v>
+      </c>
+      <c r="J141" s="51">
+        <v>7.4</v>
+      </c>
+      <c r="K141" s="51">
         <v>11.5</v>
       </c>
-      <c r="L141" s="50">
+      <c r="L141" s="51">
         <v>6</v>
       </c>
-      <c r="M141" s="50">
+      <c r="M141" s="51">
         <v>3.6</v>
       </c>
-      <c r="N141" s="50">
+      <c r="N141" s="51">
         <v>13.7</v>
       </c>
-      <c r="O141" s="50">
+      <c r="O141" s="51">
         <v>3.2</v>
       </c>
-      <c r="P141" s="50">
+      <c r="P141" s="51">
         <v>5.9</v>
       </c>
       <c r="Q141" s="22"/>
       <c r="R141" s="22"/>
-      <c r="S141" s="50">
+      <c r="S141" s="51">
         <v>60</v>
       </c>
-      <c r="T141" s="50">
+      <c r="T141" s="51">
         <v>1.5</v>
       </c>
-      <c r="U141" s="50">
+      <c r="U141" s="51">
         <v>120</v>
       </c>
-      <c r="V141" s="50">
+      <c r="V141" s="51">
         <v>100</v>
       </c>
-      <c r="W141" s="50">
+      <c r="W141" s="51">
         <v>0.5</v>
       </c>
-      <c r="X141" s="50">
+      <c r="X141" s="51">
         <v>180</v>
       </c>
-      <c r="Y141" s="50">
+      <c r="Y141" s="51">
         <v>15000</v>
       </c>
-      <c r="Z141" s="50">
+      <c r="Z141" s="51">
         <v>2000</v>
       </c>
-      <c r="AA141" s="50">
+      <c r="AA141" s="51">
         <v>300</v>
       </c>
-      <c r="AB141" s="50"/>
-      <c r="AC141" s="50"/>
-      <c r="AD141" s="50"/>
-      <c r="AE141" s="51"/>
+      <c r="AB141" s="51"/>
+      <c r="AC141" s="51"/>
+      <c r="AD141" s="51"/>
+      <c r="AE141" s="52"/>
     </row>
     <row r="142" ht="20.2" customHeight="1">
-      <c r="A142" t="s" s="49">
+      <c r="A142" t="s" s="50">
         <v>216</v>
       </c>
       <c r="B142" t="s" s="25">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C142" t="s" s="16">
         <v>33</v>
@@ -12207,78 +12204,78 @@
       <c r="D142" s="17"/>
       <c r="E142" s="17"/>
       <c r="F142" s="18">
-        <v>12.2</v>
+        <v>14.1</v>
       </c>
       <c r="G142" s="17">
         <v>140</v>
       </c>
-      <c r="H142" s="52">
+      <c r="H142" s="53">
+        <v>50</v>
+      </c>
+      <c r="I142" s="53">
         <v>80</v>
       </c>
-      <c r="I142" s="52">
-        <v>50</v>
-      </c>
-      <c r="J142" s="52">
-        <v>6.5</v>
-      </c>
-      <c r="K142" s="52">
-        <v>14</v>
-      </c>
-      <c r="L142" s="52">
+      <c r="J142" s="53">
+        <v>6.6</v>
+      </c>
+      <c r="K142" s="53">
+        <v>12</v>
+      </c>
+      <c r="L142" s="53">
         <v>6</v>
       </c>
-      <c r="M142" s="52">
-        <v>3</v>
-      </c>
-      <c r="N142" s="52">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="O142" s="52">
+      <c r="M142" s="53">
         <v>2.7</v>
       </c>
-      <c r="P142" s="52">
-        <v>5.6</v>
-      </c>
-      <c r="Q142" s="54"/>
-      <c r="R142" s="54"/>
-      <c r="S142" s="52">
+      <c r="N142" s="53">
+        <v>8</v>
+      </c>
+      <c r="O142" s="53">
+        <v>2.5</v>
+      </c>
+      <c r="P142" s="53">
+        <v>6</v>
+      </c>
+      <c r="Q142" s="17"/>
+      <c r="R142" s="17"/>
+      <c r="S142" s="53">
         <v>60</v>
       </c>
-      <c r="T142" s="52">
+      <c r="T142" s="53">
         <v>1.5</v>
       </c>
-      <c r="U142" s="52">
+      <c r="U142" s="53">
         <v>120</v>
       </c>
-      <c r="V142" s="52">
+      <c r="V142" s="53">
         <v>100</v>
       </c>
-      <c r="W142" s="52">
+      <c r="W142" s="53">
         <v>0.5</v>
       </c>
-      <c r="X142" s="52">
+      <c r="X142" s="53">
         <v>180</v>
       </c>
-      <c r="Y142" s="52">
+      <c r="Y142" s="53">
         <v>15000</v>
       </c>
-      <c r="Z142" s="52">
+      <c r="Z142" s="53">
         <v>2000</v>
       </c>
-      <c r="AA142" s="52">
+      <c r="AA142" s="53">
         <v>300</v>
       </c>
-      <c r="AB142" s="52"/>
-      <c r="AC142" s="52"/>
-      <c r="AD142" s="52"/>
-      <c r="AE142" s="53"/>
-    </row>
-    <row r="143" ht="32.2" customHeight="1">
-      <c r="A143" t="s" s="49">
+      <c r="AB142" s="53"/>
+      <c r="AC142" s="53"/>
+      <c r="AD142" s="53"/>
+      <c r="AE142" s="54"/>
+    </row>
+    <row r="143" ht="20.2" customHeight="1">
+      <c r="A143" t="s" s="50">
         <v>217</v>
       </c>
       <c r="B143" t="s" s="32">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C143" t="s" s="21">
         <v>33</v>
@@ -12286,78 +12283,78 @@
       <c r="D143" s="22"/>
       <c r="E143" s="22"/>
       <c r="F143" s="23">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="G143" s="22">
-        <v>140</v>
-      </c>
-      <c r="H143" s="50">
-        <v>80</v>
-      </c>
-      <c r="I143" s="50">
+        <v>120</v>
+      </c>
+      <c r="H143" s="51">
+        <v>85</v>
+      </c>
+      <c r="I143" s="51">
         <v>45</v>
       </c>
-      <c r="J143" s="50">
-        <v>7</v>
-      </c>
-      <c r="K143" s="50">
-        <v>12.3</v>
-      </c>
-      <c r="L143" s="50">
+      <c r="J143" s="51">
+        <v>5.5</v>
+      </c>
+      <c r="K143" s="51">
+        <v>11.5</v>
+      </c>
+      <c r="L143" s="51">
         <v>6</v>
       </c>
-      <c r="M143" s="50">
-        <v>2.8</v>
-      </c>
-      <c r="N143" s="50">
-        <v>8.1</v>
-      </c>
-      <c r="O143" s="50">
-        <v>2.5</v>
-      </c>
-      <c r="P143" s="50">
-        <v>5.8</v>
+      <c r="M143" s="51">
+        <v>3.6</v>
+      </c>
+      <c r="N143" s="51">
+        <v>13.7</v>
+      </c>
+      <c r="O143" s="51">
+        <v>3.2</v>
+      </c>
+      <c r="P143" s="51">
+        <v>5.9</v>
       </c>
       <c r="Q143" s="22"/>
       <c r="R143" s="22"/>
-      <c r="S143" s="50">
+      <c r="S143" s="51">
         <v>60</v>
       </c>
-      <c r="T143" s="50">
+      <c r="T143" s="51">
         <v>1.5</v>
       </c>
-      <c r="U143" s="50">
+      <c r="U143" s="51">
         <v>120</v>
       </c>
-      <c r="V143" s="50">
+      <c r="V143" s="51">
         <v>100</v>
       </c>
-      <c r="W143" s="50">
+      <c r="W143" s="51">
         <v>0.5</v>
       </c>
-      <c r="X143" s="50">
+      <c r="X143" s="51">
         <v>180</v>
       </c>
-      <c r="Y143" s="50">
+      <c r="Y143" s="51">
         <v>15000</v>
       </c>
-      <c r="Z143" s="50">
+      <c r="Z143" s="51">
         <v>2000</v>
       </c>
-      <c r="AA143" s="50">
+      <c r="AA143" s="51">
         <v>300</v>
       </c>
-      <c r="AB143" s="50"/>
-      <c r="AC143" s="50"/>
-      <c r="AD143" s="50"/>
-      <c r="AE143" s="51"/>
+      <c r="AB143" s="51"/>
+      <c r="AC143" s="51"/>
+      <c r="AD143" s="51"/>
+      <c r="AE143" s="52"/>
     </row>
     <row r="144" ht="20.2" customHeight="1">
-      <c r="A144" t="s" s="49">
+      <c r="A144" t="s" s="50">
         <v>218</v>
       </c>
       <c r="B144" t="s" s="25">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C144" t="s" s="16">
         <v>33</v>
@@ -12365,78 +12362,78 @@
       <c r="D144" s="17"/>
       <c r="E144" s="17"/>
       <c r="F144" s="18">
-        <v>12.8</v>
+        <v>12.2</v>
       </c>
       <c r="G144" s="17">
+        <v>140</v>
+      </c>
+      <c r="H144" s="53">
+        <v>80</v>
+      </c>
+      <c r="I144" s="53">
+        <v>50</v>
+      </c>
+      <c r="J144" s="53">
+        <v>6.5</v>
+      </c>
+      <c r="K144" s="53">
+        <v>14</v>
+      </c>
+      <c r="L144" s="53">
+        <v>6</v>
+      </c>
+      <c r="M144" s="53">
+        <v>3</v>
+      </c>
+      <c r="N144" s="53">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="O144" s="53">
+        <v>2.7</v>
+      </c>
+      <c r="P144" s="53">
+        <v>5.6</v>
+      </c>
+      <c r="Q144" s="55"/>
+      <c r="R144" s="55"/>
+      <c r="S144" s="53">
+        <v>60</v>
+      </c>
+      <c r="T144" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="U144" s="53">
+        <v>120</v>
+      </c>
+      <c r="V144" s="53">
+        <v>100</v>
+      </c>
+      <c r="W144" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="X144" s="53">
         <v>180</v>
       </c>
-      <c r="H144" s="52">
-        <v>70</v>
-      </c>
-      <c r="I144" s="52">
-        <v>63</v>
-      </c>
-      <c r="J144" s="52">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K144" s="52">
-        <v>15</v>
-      </c>
-      <c r="L144" s="52">
-        <v>6.5</v>
-      </c>
-      <c r="M144" s="52">
-        <v>3.3</v>
-      </c>
-      <c r="N144" s="52">
-        <v>10</v>
-      </c>
-      <c r="O144" s="52">
-        <v>3.1</v>
-      </c>
-      <c r="P144" s="52">
-        <v>6.8</v>
-      </c>
-      <c r="Q144" s="17"/>
-      <c r="R144" s="17"/>
-      <c r="S144" s="52">
-        <v>84</v>
-      </c>
-      <c r="T144" s="52">
-        <v>2.1</v>
-      </c>
-      <c r="U144" s="52">
-        <v>168</v>
-      </c>
-      <c r="V144" s="52">
-        <v>140</v>
-      </c>
-      <c r="W144" s="52">
-        <v>0.7</v>
-      </c>
-      <c r="X144" s="52">
-        <v>252</v>
-      </c>
-      <c r="Y144" s="52">
-        <v>21000</v>
-      </c>
-      <c r="Z144" s="52">
-        <v>2800</v>
-      </c>
-      <c r="AA144" s="52">
-        <v>420</v>
-      </c>
-      <c r="AB144" s="52"/>
-      <c r="AC144" s="52"/>
-      <c r="AD144" s="52"/>
-      <c r="AE144" s="53"/>
-    </row>
-    <row r="145" ht="20.2" customHeight="1">
-      <c r="A145" t="s" s="49">
+      <c r="Y144" s="53">
+        <v>15000</v>
+      </c>
+      <c r="Z144" s="53">
+        <v>2000</v>
+      </c>
+      <c r="AA144" s="53">
+        <v>300</v>
+      </c>
+      <c r="AB144" s="53"/>
+      <c r="AC144" s="53"/>
+      <c r="AD144" s="53"/>
+      <c r="AE144" s="54"/>
+    </row>
+    <row r="145" ht="32.2" customHeight="1">
+      <c r="A145" t="s" s="50">
         <v>219</v>
       </c>
       <c r="B145" t="s" s="32">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C145" t="s" s="21">
         <v>33</v>
@@ -12444,78 +12441,78 @@
       <c r="D145" s="22"/>
       <c r="E145" s="22"/>
       <c r="F145" s="23">
-        <v>13.3</v>
+        <v>12.5</v>
       </c>
       <c r="G145" s="22">
-        <v>150</v>
-      </c>
-      <c r="H145" s="50">
-        <v>85</v>
-      </c>
-      <c r="I145" s="50">
-        <v>85</v>
-      </c>
-      <c r="J145" s="50">
-        <v>7.8</v>
-      </c>
-      <c r="K145" s="50">
-        <v>10</v>
-      </c>
-      <c r="L145" s="50">
+        <v>140</v>
+      </c>
+      <c r="H145" s="51">
+        <v>80</v>
+      </c>
+      <c r="I145" s="51">
+        <v>45</v>
+      </c>
+      <c r="J145" s="51">
+        <v>7</v>
+      </c>
+      <c r="K145" s="51">
+        <v>12.3</v>
+      </c>
+      <c r="L145" s="51">
         <v>6</v>
       </c>
-      <c r="M145" s="50">
-        <v>3</v>
-      </c>
-      <c r="N145" s="50">
-        <v>8.9</v>
-      </c>
-      <c r="O145" s="50">
+      <c r="M145" s="51">
         <v>2.8</v>
       </c>
-      <c r="P145" s="50">
-        <v>6.9</v>
+      <c r="N145" s="51">
+        <v>8.1</v>
+      </c>
+      <c r="O145" s="51">
+        <v>2.5</v>
+      </c>
+      <c r="P145" s="51">
+        <v>5.8</v>
       </c>
       <c r="Q145" s="22"/>
       <c r="R145" s="22"/>
-      <c r="S145" s="50">
-        <v>72</v>
-      </c>
-      <c r="T145" s="50">
-        <v>1.8</v>
-      </c>
-      <c r="U145" s="50">
-        <v>144</v>
-      </c>
-      <c r="V145" s="50">
+      <c r="S145" s="51">
+        <v>60</v>
+      </c>
+      <c r="T145" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="U145" s="51">
         <v>120</v>
       </c>
-      <c r="W145" s="50">
-        <v>0.6</v>
-      </c>
-      <c r="X145" s="50">
-        <v>216</v>
-      </c>
-      <c r="Y145" s="50">
-        <v>18000</v>
-      </c>
-      <c r="Z145" s="50">
-        <v>2400</v>
-      </c>
-      <c r="AA145" s="50">
-        <v>360</v>
-      </c>
-      <c r="AB145" s="50"/>
-      <c r="AC145" s="50"/>
-      <c r="AD145" s="50"/>
-      <c r="AE145" s="51"/>
+      <c r="V145" s="51">
+        <v>100</v>
+      </c>
+      <c r="W145" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="X145" s="51">
+        <v>180</v>
+      </c>
+      <c r="Y145" s="51">
+        <v>15000</v>
+      </c>
+      <c r="Z145" s="51">
+        <v>2000</v>
+      </c>
+      <c r="AA145" s="51">
+        <v>300</v>
+      </c>
+      <c r="AB145" s="51"/>
+      <c r="AC145" s="51"/>
+      <c r="AD145" s="51"/>
+      <c r="AE145" s="52"/>
     </row>
     <row r="146" ht="20.2" customHeight="1">
-      <c r="A146" t="s" s="49">
+      <c r="A146" t="s" s="50">
         <v>220</v>
       </c>
       <c r="B146" t="s" s="25">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C146" t="s" s="16">
         <v>33</v>
@@ -12523,82 +12520,78 @@
       <c r="D146" s="17"/>
       <c r="E146" s="17"/>
       <c r="F146" s="18">
-        <v>12.1</v>
+        <v>12.8</v>
       </c>
       <c r="G146" s="17">
-        <v>100</v>
-      </c>
-      <c r="H146" s="52">
-        <v>130</v>
-      </c>
-      <c r="I146" s="52">
-        <v>72</v>
-      </c>
-      <c r="J146" s="52">
-        <v>5.2</v>
-      </c>
-      <c r="K146" s="52">
-        <v>14</v>
-      </c>
-      <c r="L146" s="52">
-        <v>7</v>
-      </c>
-      <c r="M146" s="52">
-        <v>3</v>
-      </c>
-      <c r="N146" s="52">
-        <v>11</v>
-      </c>
-      <c r="O146" s="52">
+        <v>180</v>
+      </c>
+      <c r="H146" s="53">
+        <v>70</v>
+      </c>
+      <c r="I146" s="53">
+        <v>63</v>
+      </c>
+      <c r="J146" s="53">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K146" s="53">
+        <v>15</v>
+      </c>
+      <c r="L146" s="53">
+        <v>6.5</v>
+      </c>
+      <c r="M146" s="53">
+        <v>3.3</v>
+      </c>
+      <c r="N146" s="53">
+        <v>10</v>
+      </c>
+      <c r="O146" s="53">
         <v>3.1</v>
       </c>
-      <c r="P146" s="52">
-        <v>7.2</v>
+      <c r="P146" s="53">
+        <v>6.8</v>
       </c>
       <c r="Q146" s="17"/>
       <c r="R146" s="17"/>
-      <c r="S146" s="52">
-        <v>48.75</v>
-      </c>
-      <c r="T146" s="52">
-        <v>1.5</v>
-      </c>
-      <c r="U146" s="52">
-        <v>150</v>
-      </c>
-      <c r="V146" s="52">
-        <v>81.25</v>
-      </c>
-      <c r="W146" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="X146" s="52">
-        <v>150</v>
-      </c>
-      <c r="Y146" s="52">
-        <v>15000</v>
-      </c>
-      <c r="Z146" s="52">
-        <v>2500</v>
-      </c>
-      <c r="AA146" s="52">
-        <v>375</v>
-      </c>
-      <c r="AB146" s="52"/>
-      <c r="AC146" s="52"/>
-      <c r="AD146" s="52">
-        <v>4.4</v>
-      </c>
-      <c r="AE146" s="53">
-        <v>50</v>
-      </c>
+      <c r="S146" s="53">
+        <v>84</v>
+      </c>
+      <c r="T146" s="53">
+        <v>2.1</v>
+      </c>
+      <c r="U146" s="53">
+        <v>168</v>
+      </c>
+      <c r="V146" s="53">
+        <v>140</v>
+      </c>
+      <c r="W146" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="X146" s="53">
+        <v>252</v>
+      </c>
+      <c r="Y146" s="53">
+        <v>21000</v>
+      </c>
+      <c r="Z146" s="53">
+        <v>2800</v>
+      </c>
+      <c r="AA146" s="53">
+        <v>420</v>
+      </c>
+      <c r="AB146" s="53"/>
+      <c r="AC146" s="53"/>
+      <c r="AD146" s="53"/>
+      <c r="AE146" s="54"/>
     </row>
     <row r="147" ht="20.2" customHeight="1">
-      <c r="A147" t="s" s="49">
+      <c r="A147" t="s" s="50">
         <v>221</v>
       </c>
       <c r="B147" t="s" s="32">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C147" t="s" s="21">
         <v>33</v>
@@ -12606,82 +12599,78 @@
       <c r="D147" s="22"/>
       <c r="E147" s="22"/>
       <c r="F147" s="23">
-        <v>11.6</v>
+        <v>13.3</v>
       </c>
       <c r="G147" s="22">
-        <v>100</v>
-      </c>
-      <c r="H147" s="50">
-        <v>130</v>
-      </c>
-      <c r="I147" s="50">
-        <v>55</v>
-      </c>
-      <c r="J147" s="50">
-        <v>5.3</v>
-      </c>
-      <c r="K147" s="50">
-        <v>12</v>
-      </c>
-      <c r="L147" s="50">
+        <v>150</v>
+      </c>
+      <c r="H147" s="51">
+        <v>85</v>
+      </c>
+      <c r="I147" s="51">
+        <v>85</v>
+      </c>
+      <c r="J147" s="51">
+        <v>7.8</v>
+      </c>
+      <c r="K147" s="51">
+        <v>10</v>
+      </c>
+      <c r="L147" s="51">
         <v>6</v>
       </c>
-      <c r="M147" s="50">
-        <v>3.3</v>
-      </c>
-      <c r="N147" s="50">
-        <v>11</v>
-      </c>
-      <c r="O147" s="50">
-        <v>3.5</v>
-      </c>
-      <c r="P147" s="50">
-        <v>6</v>
+      <c r="M147" s="51">
+        <v>3</v>
+      </c>
+      <c r="N147" s="51">
+        <v>8.9</v>
+      </c>
+      <c r="O147" s="51">
+        <v>2.8</v>
+      </c>
+      <c r="P147" s="51">
+        <v>6.9</v>
       </c>
       <c r="Q147" s="22"/>
       <c r="R147" s="22"/>
-      <c r="S147" s="50">
-        <v>48.75</v>
-      </c>
-      <c r="T147" s="50">
-        <v>1.5</v>
-      </c>
-      <c r="U147" s="50">
-        <v>150</v>
-      </c>
-      <c r="V147" s="50">
-        <v>81.25</v>
-      </c>
-      <c r="W147" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="X147" s="50">
-        <v>150</v>
-      </c>
-      <c r="Y147" s="50">
-        <v>15000</v>
-      </c>
-      <c r="Z147" s="50">
-        <v>2500</v>
-      </c>
-      <c r="AA147" s="50">
-        <v>375</v>
-      </c>
-      <c r="AB147" s="50"/>
-      <c r="AC147" s="50"/>
-      <c r="AD147" s="50">
-        <v>4.4</v>
-      </c>
-      <c r="AE147" s="51">
-        <v>50</v>
-      </c>
+      <c r="S147" s="51">
+        <v>72</v>
+      </c>
+      <c r="T147" s="51">
+        <v>1.8</v>
+      </c>
+      <c r="U147" s="51">
+        <v>144</v>
+      </c>
+      <c r="V147" s="51">
+        <v>120</v>
+      </c>
+      <c r="W147" s="51">
+        <v>0.6</v>
+      </c>
+      <c r="X147" s="51">
+        <v>216</v>
+      </c>
+      <c r="Y147" s="51">
+        <v>18000</v>
+      </c>
+      <c r="Z147" s="51">
+        <v>2400</v>
+      </c>
+      <c r="AA147" s="51">
+        <v>360</v>
+      </c>
+      <c r="AB147" s="51"/>
+      <c r="AC147" s="51"/>
+      <c r="AD147" s="51"/>
+      <c r="AE147" s="52"/>
     </row>
     <row r="148" ht="20.2" customHeight="1">
-      <c r="A148" t="s" s="49">
+      <c r="A148" t="s" s="50">
         <v>222</v>
       </c>
       <c r="B148" t="s" s="25">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C148" t="s" s="16">
         <v>33</v>
@@ -12689,82 +12678,82 @@
       <c r="D148" s="17"/>
       <c r="E148" s="17"/>
       <c r="F148" s="18">
-        <v>12.8</v>
+        <v>12.1</v>
       </c>
       <c r="G148" s="17">
-        <v>140</v>
-      </c>
-      <c r="H148" s="52">
-        <v>120</v>
-      </c>
-      <c r="I148" s="52">
-        <v>85</v>
-      </c>
-      <c r="J148" s="52">
-        <v>8</v>
-      </c>
-      <c r="K148" s="52">
-        <v>13.5</v>
-      </c>
-      <c r="L148" s="52">
-        <v>6.8</v>
-      </c>
-      <c r="M148" s="52">
+        <v>100</v>
+      </c>
+      <c r="H148" s="53">
+        <v>130</v>
+      </c>
+      <c r="I148" s="53">
+        <v>72</v>
+      </c>
+      <c r="J148" s="53">
+        <v>5.2</v>
+      </c>
+      <c r="K148" s="53">
+        <v>14</v>
+      </c>
+      <c r="L148" s="53">
+        <v>7</v>
+      </c>
+      <c r="M148" s="53">
         <v>3</v>
       </c>
-      <c r="N148" s="52">
-        <v>9.9</v>
-      </c>
-      <c r="O148" s="52">
-        <v>2.9</v>
-      </c>
-      <c r="P148" s="52">
-        <v>6.9</v>
-      </c>
-      <c r="Q148" s="54"/>
-      <c r="R148" s="54"/>
-      <c r="S148" s="52">
+      <c r="N148" s="53">
+        <v>11</v>
+      </c>
+      <c r="O148" s="53">
+        <v>3.1</v>
+      </c>
+      <c r="P148" s="53">
+        <v>7.2</v>
+      </c>
+      <c r="Q148" s="17"/>
+      <c r="R148" s="17"/>
+      <c r="S148" s="53">
         <v>48.75</v>
       </c>
-      <c r="T148" s="52">
+      <c r="T148" s="53">
         <v>1.5</v>
       </c>
-      <c r="U148" s="52">
+      <c r="U148" s="53">
         <v>150</v>
       </c>
-      <c r="V148" s="52">
+      <c r="V148" s="53">
         <v>81.25</v>
       </c>
-      <c r="W148" s="52">
+      <c r="W148" s="53">
         <v>0.5</v>
       </c>
-      <c r="X148" s="52">
+      <c r="X148" s="53">
         <v>150</v>
       </c>
-      <c r="Y148" s="52">
+      <c r="Y148" s="53">
         <v>15000</v>
       </c>
-      <c r="Z148" s="52">
+      <c r="Z148" s="53">
         <v>2500</v>
       </c>
-      <c r="AA148" s="52">
+      <c r="AA148" s="53">
         <v>375</v>
       </c>
-      <c r="AB148" s="52"/>
-      <c r="AC148" s="52"/>
-      <c r="AD148" s="52">
+      <c r="AB148" s="53"/>
+      <c r="AC148" s="53"/>
+      <c r="AD148" s="53">
         <v>4.4</v>
       </c>
-      <c r="AE148" s="53">
+      <c r="AE148" s="54">
         <v>50</v>
       </c>
     </row>
     <row r="149" ht="20.2" customHeight="1">
-      <c r="A149" t="s" s="49">
+      <c r="A149" t="s" s="50">
         <v>223</v>
       </c>
       <c r="B149" t="s" s="32">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C149" t="s" s="21">
         <v>33</v>
@@ -12772,82 +12761,82 @@
       <c r="D149" s="22"/>
       <c r="E149" s="22"/>
       <c r="F149" s="23">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="G149" s="22">
-        <v>140</v>
-      </c>
-      <c r="H149" s="50">
-        <v>140</v>
-      </c>
-      <c r="I149" s="50">
-        <v>65</v>
-      </c>
-      <c r="J149" s="50">
-        <v>7.3</v>
-      </c>
-      <c r="K149" s="50">
-        <v>11.5</v>
-      </c>
-      <c r="L149" s="50">
+        <v>100</v>
+      </c>
+      <c r="H149" s="51">
+        <v>130</v>
+      </c>
+      <c r="I149" s="51">
+        <v>55</v>
+      </c>
+      <c r="J149" s="51">
+        <v>5.3</v>
+      </c>
+      <c r="K149" s="51">
+        <v>12</v>
+      </c>
+      <c r="L149" s="51">
         <v>6</v>
       </c>
-      <c r="M149" s="50">
+      <c r="M149" s="51">
         <v>3.3</v>
       </c>
-      <c r="N149" s="50">
+      <c r="N149" s="51">
         <v>11</v>
       </c>
-      <c r="O149" s="50">
-        <v>3.6</v>
-      </c>
-      <c r="P149" s="50">
+      <c r="O149" s="51">
+        <v>3.5</v>
+      </c>
+      <c r="P149" s="51">
         <v>6</v>
       </c>
       <c r="Q149" s="22"/>
       <c r="R149" s="22"/>
-      <c r="S149" s="50">
+      <c r="S149" s="51">
         <v>48.75</v>
       </c>
-      <c r="T149" s="50">
+      <c r="T149" s="51">
         <v>1.5</v>
       </c>
-      <c r="U149" s="50">
+      <c r="U149" s="51">
         <v>150</v>
       </c>
-      <c r="V149" s="50">
+      <c r="V149" s="51">
         <v>81.25</v>
       </c>
-      <c r="W149" s="50">
+      <c r="W149" s="51">
         <v>0.5</v>
       </c>
-      <c r="X149" s="50">
+      <c r="X149" s="51">
         <v>150</v>
       </c>
-      <c r="Y149" s="50">
+      <c r="Y149" s="51">
         <v>15000</v>
       </c>
-      <c r="Z149" s="50">
+      <c r="Z149" s="51">
         <v>2500</v>
       </c>
-      <c r="AA149" s="50">
+      <c r="AA149" s="51">
         <v>375</v>
       </c>
-      <c r="AB149" s="50"/>
-      <c r="AC149" s="50"/>
-      <c r="AD149" s="50">
+      <c r="AB149" s="51"/>
+      <c r="AC149" s="51"/>
+      <c r="AD149" s="51">
         <v>4.4</v>
       </c>
-      <c r="AE149" s="51">
+      <c r="AE149" s="52">
         <v>50</v>
       </c>
     </row>
-    <row r="150" ht="32.2" customHeight="1">
-      <c r="A150" t="s" s="49">
+    <row r="150" ht="20.2" customHeight="1">
+      <c r="A150" t="s" s="50">
         <v>224</v>
       </c>
       <c r="B150" t="s" s="25">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C150" t="s" s="16">
         <v>33</v>
@@ -12855,82 +12844,82 @@
       <c r="D150" s="17"/>
       <c r="E150" s="17"/>
       <c r="F150" s="18">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="G150" s="17">
         <v>140</v>
       </c>
-      <c r="H150" s="52">
-        <v>180</v>
-      </c>
-      <c r="I150" s="52">
-        <v>80</v>
-      </c>
-      <c r="J150" s="52">
-        <v>7.5</v>
-      </c>
-      <c r="K150" s="52">
-        <v>10.6</v>
-      </c>
-      <c r="L150" s="52">
-        <v>6</v>
-      </c>
-      <c r="M150" s="52">
-        <v>3.6</v>
-      </c>
-      <c r="N150" s="52">
-        <v>13.8</v>
-      </c>
-      <c r="O150" s="52">
-        <v>3.2</v>
-      </c>
-      <c r="P150" s="52">
-        <v>5.9</v>
-      </c>
-      <c r="Q150" s="17"/>
-      <c r="R150" s="17"/>
-      <c r="S150" s="52">
+      <c r="H150" s="53">
+        <v>120</v>
+      </c>
+      <c r="I150" s="53">
+        <v>85</v>
+      </c>
+      <c r="J150" s="53">
+        <v>8</v>
+      </c>
+      <c r="K150" s="53">
+        <v>13.5</v>
+      </c>
+      <c r="L150" s="53">
+        <v>6.8</v>
+      </c>
+      <c r="M150" s="53">
+        <v>3</v>
+      </c>
+      <c r="N150" s="53">
+        <v>9.9</v>
+      </c>
+      <c r="O150" s="53">
+        <v>2.9</v>
+      </c>
+      <c r="P150" s="53">
+        <v>6.9</v>
+      </c>
+      <c r="Q150" s="55"/>
+      <c r="R150" s="55"/>
+      <c r="S150" s="53">
         <v>48.75</v>
       </c>
-      <c r="T150" s="52">
+      <c r="T150" s="53">
         <v>1.5</v>
       </c>
-      <c r="U150" s="52">
+      <c r="U150" s="53">
         <v>150</v>
       </c>
-      <c r="V150" s="52">
+      <c r="V150" s="53">
         <v>81.25</v>
       </c>
-      <c r="W150" s="52">
+      <c r="W150" s="53">
         <v>0.5</v>
       </c>
-      <c r="X150" s="52">
+      <c r="X150" s="53">
         <v>150</v>
       </c>
-      <c r="Y150" s="52">
+      <c r="Y150" s="53">
         <v>15000</v>
       </c>
-      <c r="Z150" s="52">
+      <c r="Z150" s="53">
         <v>2500</v>
       </c>
-      <c r="AA150" s="52">
+      <c r="AA150" s="53">
         <v>375</v>
       </c>
-      <c r="AB150" s="52"/>
-      <c r="AC150" s="52"/>
-      <c r="AD150" s="52">
+      <c r="AB150" s="53"/>
+      <c r="AC150" s="53"/>
+      <c r="AD150" s="53">
         <v>4.4</v>
       </c>
-      <c r="AE150" s="53">
+      <c r="AE150" s="54">
         <v>50</v>
       </c>
     </row>
     <row r="151" ht="20.2" customHeight="1">
-      <c r="A151" t="s" s="49">
+      <c r="A151" t="s" s="50">
         <v>225</v>
       </c>
       <c r="B151" t="s" s="32">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C151" t="s" s="21">
         <v>33</v>
@@ -12938,78 +12927,82 @@
       <c r="D151" s="22"/>
       <c r="E151" s="22"/>
       <c r="F151" s="23">
-        <v>13</v>
+        <v>11.8</v>
       </c>
       <c r="G151" s="22">
-        <v>200</v>
-      </c>
-      <c r="H151" s="50">
-        <v>85</v>
-      </c>
-      <c r="I151" s="50">
-        <v>70</v>
-      </c>
-      <c r="J151" s="50">
+        <v>140</v>
+      </c>
+      <c r="H151" s="51">
+        <v>140</v>
+      </c>
+      <c r="I151" s="51">
+        <v>65</v>
+      </c>
+      <c r="J151" s="51">
+        <v>7.3</v>
+      </c>
+      <c r="K151" s="51">
+        <v>11.5</v>
+      </c>
+      <c r="L151" s="51">
+        <v>6</v>
+      </c>
+      <c r="M151" s="51">
+        <v>3.3</v>
+      </c>
+      <c r="N151" s="51">
         <v>11</v>
       </c>
-      <c r="K151" s="50">
-        <v>26</v>
-      </c>
-      <c r="L151" s="50">
-        <v>10</v>
-      </c>
-      <c r="M151" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="N151" s="50">
-        <v>11.6</v>
-      </c>
-      <c r="O151" s="50">
-        <v>5.2</v>
-      </c>
-      <c r="P151" s="50">
-        <v>10.2</v>
+      <c r="O151" s="51">
+        <v>3.6</v>
+      </c>
+      <c r="P151" s="51">
+        <v>6</v>
       </c>
       <c r="Q151" s="22"/>
       <c r="R151" s="22"/>
-      <c r="S151" s="50">
+      <c r="S151" s="51">
+        <v>48.75</v>
+      </c>
+      <c r="T151" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="U151" s="51">
         <v>150</v>
       </c>
-      <c r="T151" s="50">
-        <v>4</v>
-      </c>
-      <c r="U151" s="50">
-        <v>300</v>
-      </c>
-      <c r="V151" s="50">
-        <v>250</v>
-      </c>
-      <c r="W151" s="50">
-        <v>1.25</v>
-      </c>
-      <c r="X151" s="50">
-        <v>450</v>
-      </c>
-      <c r="Y151" s="50">
-        <v>37500</v>
-      </c>
-      <c r="Z151" s="50">
-        <v>5000</v>
-      </c>
-      <c r="AA151" s="50">
-        <v>750</v>
-      </c>
-      <c r="AB151" s="50"/>
-      <c r="AC151" s="50"/>
-      <c r="AD151" s="50"/>
-      <c r="AE151" s="51"/>
-    </row>
-    <row r="152" ht="20.2" customHeight="1">
-      <c r="A152" t="s" s="49">
+      <c r="V151" s="51">
+        <v>81.25</v>
+      </c>
+      <c r="W151" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="X151" s="51">
+        <v>150</v>
+      </c>
+      <c r="Y151" s="51">
+        <v>15000</v>
+      </c>
+      <c r="Z151" s="51">
+        <v>2500</v>
+      </c>
+      <c r="AA151" s="51">
+        <v>375</v>
+      </c>
+      <c r="AB151" s="51"/>
+      <c r="AC151" s="51"/>
+      <c r="AD151" s="51">
+        <v>4.4</v>
+      </c>
+      <c r="AE151" s="52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" ht="32.2" customHeight="1">
+      <c r="A152" t="s" s="50">
         <v>226</v>
       </c>
       <c r="B152" t="s" s="25">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C152" t="s" s="16">
         <v>33</v>
@@ -13017,82 +13010,82 @@
       <c r="D152" s="17"/>
       <c r="E152" s="17"/>
       <c r="F152" s="18">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="G152" s="17">
-        <v>300</v>
-      </c>
-      <c r="H152" s="52">
+        <v>140</v>
+      </c>
+      <c r="H152" s="53">
+        <v>180</v>
+      </c>
+      <c r="I152" s="53">
         <v>80</v>
       </c>
-      <c r="I152" s="52">
-        <v>60</v>
-      </c>
-      <c r="J152" s="52">
-        <v>21.6</v>
-      </c>
-      <c r="K152" s="52">
-        <v>40</v>
-      </c>
-      <c r="L152" s="52">
-        <v>16</v>
-      </c>
-      <c r="M152" s="52">
-        <v>12</v>
-      </c>
-      <c r="N152" s="52">
-        <v>15.2</v>
-      </c>
-      <c r="O152" s="52">
+      <c r="J152" s="53">
+        <v>7.5</v>
+      </c>
+      <c r="K152" s="53">
+        <v>10.6</v>
+      </c>
+      <c r="L152" s="53">
+        <v>6</v>
+      </c>
+      <c r="M152" s="53">
+        <v>3.6</v>
+      </c>
+      <c r="N152" s="53">
+        <v>13.8</v>
+      </c>
+      <c r="O152" s="53">
         <v>3.2</v>
       </c>
-      <c r="P152" s="52">
-        <v>6.9</v>
+      <c r="P152" s="53">
+        <v>5.9</v>
       </c>
       <c r="Q152" s="17"/>
       <c r="R152" s="17"/>
-      <c r="S152" s="52">
-        <v>195</v>
-      </c>
-      <c r="T152" s="52">
-        <v>6</v>
-      </c>
-      <c r="U152" s="52">
-        <v>600</v>
-      </c>
-      <c r="V152" s="52">
-        <v>325</v>
-      </c>
-      <c r="W152" s="52">
-        <v>2</v>
-      </c>
-      <c r="X152" s="52">
-        <v>600</v>
-      </c>
-      <c r="Y152" s="52">
-        <v>60000</v>
-      </c>
-      <c r="Z152" s="52">
-        <v>10000</v>
-      </c>
-      <c r="AA152" s="52">
-        <v>1500</v>
-      </c>
-      <c r="AB152" s="52"/>
-      <c r="AC152" s="52"/>
-      <c r="AD152" s="52">
-        <v>17.6</v>
-      </c>
-      <c r="AE152" s="53">
-        <v>200</v>
+      <c r="S152" s="53">
+        <v>48.75</v>
+      </c>
+      <c r="T152" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="U152" s="53">
+        <v>150</v>
+      </c>
+      <c r="V152" s="53">
+        <v>81.25</v>
+      </c>
+      <c r="W152" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="X152" s="53">
+        <v>150</v>
+      </c>
+      <c r="Y152" s="53">
+        <v>15000</v>
+      </c>
+      <c r="Z152" s="53">
+        <v>2500</v>
+      </c>
+      <c r="AA152" s="53">
+        <v>375</v>
+      </c>
+      <c r="AB152" s="53"/>
+      <c r="AC152" s="53"/>
+      <c r="AD152" s="53">
+        <v>4.4</v>
+      </c>
+      <c r="AE152" s="54">
+        <v>50</v>
       </c>
     </row>
     <row r="153" ht="20.2" customHeight="1">
-      <c r="A153" t="s" s="49">
+      <c r="A153" t="s" s="50">
         <v>227</v>
       </c>
       <c r="B153" t="s" s="32">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C153" t="s" s="21">
         <v>33</v>
@@ -13100,62 +13093,78 @@
       <c r="D153" s="22"/>
       <c r="E153" s="22"/>
       <c r="F153" s="23">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="G153" s="22">
-        <v>190</v>
-      </c>
-      <c r="H153" s="50">
+        <v>200</v>
+      </c>
+      <c r="H153" s="51">
+        <v>85</v>
+      </c>
+      <c r="I153" s="51">
         <v>70</v>
       </c>
-      <c r="I153" s="50">
-        <v>180</v>
-      </c>
-      <c r="J153" s="50">
-        <v>10.7</v>
-      </c>
-      <c r="K153" s="50">
-        <v>3</v>
-      </c>
-      <c r="L153" s="50">
-        <v>4</v>
-      </c>
-      <c r="M153" s="50">
-        <v>2</v>
-      </c>
-      <c r="N153" s="50">
-        <v>11.5</v>
-      </c>
-      <c r="O153" s="50">
-        <v>4</v>
-      </c>
-      <c r="P153" s="50">
-        <v>2</v>
+      <c r="J153" s="51">
+        <v>11</v>
+      </c>
+      <c r="K153" s="51">
+        <v>26</v>
+      </c>
+      <c r="L153" s="51">
+        <v>10</v>
+      </c>
+      <c r="M153" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="N153" s="51">
+        <v>11.6</v>
+      </c>
+      <c r="O153" s="51">
+        <v>5.2</v>
+      </c>
+      <c r="P153" s="51">
+        <v>10.2</v>
       </c>
       <c r="Q153" s="22"/>
       <c r="R153" s="22"/>
-      <c r="S153" s="50"/>
-      <c r="T153" s="50"/>
-      <c r="U153" s="50"/>
-      <c r="V153" s="50"/>
-      <c r="W153" s="50"/>
-      <c r="X153" s="50"/>
-      <c r="Y153" s="50"/>
-      <c r="Z153" s="50"/>
-      <c r="AA153" s="50">
+      <c r="S153" s="51">
+        <v>150</v>
+      </c>
+      <c r="T153" s="51">
+        <v>4</v>
+      </c>
+      <c r="U153" s="51">
+        <v>300</v>
+      </c>
+      <c r="V153" s="51">
+        <v>250</v>
+      </c>
+      <c r="W153" s="51">
+        <v>1.25</v>
+      </c>
+      <c r="X153" s="51">
+        <v>450</v>
+      </c>
+      <c r="Y153" s="51">
+        <v>37500</v>
+      </c>
+      <c r="Z153" s="51">
+        <v>5000</v>
+      </c>
+      <c r="AA153" s="51">
         <v>750</v>
       </c>
-      <c r="AB153" s="50"/>
-      <c r="AC153" s="50"/>
-      <c r="AD153" s="50"/>
-      <c r="AE153" s="51"/>
+      <c r="AB153" s="51"/>
+      <c r="AC153" s="51"/>
+      <c r="AD153" s="51"/>
+      <c r="AE153" s="52"/>
     </row>
     <row r="154" ht="20.2" customHeight="1">
-      <c r="A154" t="s" s="49">
+      <c r="A154" t="s" s="50">
         <v>228</v>
       </c>
       <c r="B154" t="s" s="25">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C154" t="s" s="16">
         <v>33</v>
@@ -13163,82 +13172,82 @@
       <c r="D154" s="17"/>
       <c r="E154" s="17"/>
       <c r="F154" s="18">
+        <v>11.8</v>
+      </c>
+      <c r="G154" s="17">
+        <v>300</v>
+      </c>
+      <c r="H154" s="53">
+        <v>80</v>
+      </c>
+      <c r="I154" s="53">
+        <v>60</v>
+      </c>
+      <c r="J154" s="53">
+        <v>21.6</v>
+      </c>
+      <c r="K154" s="53">
+        <v>40</v>
+      </c>
+      <c r="L154" s="53">
+        <v>16</v>
+      </c>
+      <c r="M154" s="53">
         <v>12</v>
       </c>
-      <c r="G154" s="17">
-        <v>140</v>
-      </c>
-      <c r="H154" s="52">
-        <v>160</v>
-      </c>
-      <c r="I154" s="52">
-        <v>80</v>
-      </c>
-      <c r="J154" s="52">
-        <v>5.3</v>
-      </c>
-      <c r="K154" s="52">
-        <v>16.3</v>
-      </c>
-      <c r="L154" s="52">
-        <v>8.1</v>
-      </c>
-      <c r="M154" s="52">
-        <v>3.3</v>
-      </c>
-      <c r="N154" s="52">
-        <v>13.9</v>
-      </c>
-      <c r="O154" s="52">
-        <v>3.1</v>
-      </c>
-      <c r="P154" s="52">
-        <v>6.4</v>
-      </c>
-      <c r="Q154" s="54"/>
-      <c r="R154" s="54"/>
-      <c r="S154" s="52">
-        <v>51.25</v>
-      </c>
-      <c r="T154" s="52">
-        <v>1.5</v>
-      </c>
-      <c r="U154" s="52">
-        <v>150</v>
-      </c>
-      <c r="V154" s="52">
-        <v>80.75</v>
-      </c>
-      <c r="W154" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="X154" s="52">
-        <v>151.75</v>
-      </c>
-      <c r="Y154" s="52">
-        <v>15000</v>
-      </c>
-      <c r="Z154" s="52">
-        <v>2500</v>
-      </c>
-      <c r="AA154" s="52">
-        <v>375</v>
-      </c>
-      <c r="AB154" s="52"/>
-      <c r="AC154" s="52"/>
-      <c r="AD154" s="52">
-        <v>4.4</v>
-      </c>
-      <c r="AE154" s="53">
-        <v>50</v>
+      <c r="N154" s="53">
+        <v>15.2</v>
+      </c>
+      <c r="O154" s="53">
+        <v>3.2</v>
+      </c>
+      <c r="P154" s="53">
+        <v>6.9</v>
+      </c>
+      <c r="Q154" s="17"/>
+      <c r="R154" s="17"/>
+      <c r="S154" s="53">
+        <v>195</v>
+      </c>
+      <c r="T154" s="53">
+        <v>6</v>
+      </c>
+      <c r="U154" s="53">
+        <v>600</v>
+      </c>
+      <c r="V154" s="53">
+        <v>325</v>
+      </c>
+      <c r="W154" s="53">
+        <v>2</v>
+      </c>
+      <c r="X154" s="53">
+        <v>600</v>
+      </c>
+      <c r="Y154" s="53">
+        <v>60000</v>
+      </c>
+      <c r="Z154" s="53">
+        <v>10000</v>
+      </c>
+      <c r="AA154" s="53">
+        <v>1500</v>
+      </c>
+      <c r="AB154" s="53"/>
+      <c r="AC154" s="53"/>
+      <c r="AD154" s="53">
+        <v>17.6</v>
+      </c>
+      <c r="AE154" s="54">
+        <v>200</v>
       </c>
     </row>
     <row r="155" ht="20.2" customHeight="1">
-      <c r="A155" t="s" s="49">
+      <c r="A155" t="s" s="50">
         <v>229</v>
       </c>
       <c r="B155" t="s" s="32">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C155" t="s" s="21">
         <v>33</v>
@@ -13246,955 +13255,1101 @@
       <c r="D155" s="22"/>
       <c r="E155" s="22"/>
       <c r="F155" s="23">
-        <v>12.4</v>
+        <v>15.5</v>
       </c>
       <c r="G155" s="22">
-        <v>140</v>
-      </c>
-      <c r="H155" s="50">
-        <v>120</v>
-      </c>
-      <c r="I155" s="50">
+        <v>190</v>
+      </c>
+      <c r="H155" s="51">
         <v>70</v>
       </c>
-      <c r="J155" s="50">
-        <v>5.3</v>
-      </c>
-      <c r="K155" s="50">
+      <c r="I155" s="51">
+        <v>180</v>
+      </c>
+      <c r="J155" s="51">
+        <v>10.7</v>
+      </c>
+      <c r="K155" s="51">
+        <v>3</v>
+      </c>
+      <c r="L155" s="51">
+        <v>4</v>
+      </c>
+      <c r="M155" s="51">
+        <v>2</v>
+      </c>
+      <c r="N155" s="51">
         <v>11.5</v>
       </c>
-      <c r="L155" s="50">
-        <v>7.5</v>
-      </c>
-      <c r="M155" s="50">
-        <v>3</v>
-      </c>
-      <c r="N155" s="50">
-        <v>10.7</v>
-      </c>
-      <c r="O155" s="50">
-        <v>3.1</v>
-      </c>
-      <c r="P155" s="50">
-        <v>6.6</v>
+      <c r="O155" s="51">
+        <v>4</v>
+      </c>
+      <c r="P155" s="51">
+        <v>2</v>
       </c>
       <c r="Q155" s="22"/>
       <c r="R155" s="22"/>
-      <c r="S155" s="50">
-        <v>60</v>
-      </c>
-      <c r="T155" s="50">
-        <v>1.5</v>
-      </c>
-      <c r="U155" s="50">
-        <v>120</v>
-      </c>
-      <c r="V155" s="50">
-        <v>100</v>
-      </c>
-      <c r="W155" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="X155" s="50">
-        <v>180</v>
-      </c>
-      <c r="Y155" s="50">
-        <v>15000</v>
-      </c>
-      <c r="Z155" s="50">
-        <v>2000</v>
-      </c>
-      <c r="AA155" s="50">
-        <v>300</v>
-      </c>
-      <c r="AB155" s="50"/>
-      <c r="AC155" s="50"/>
-      <c r="AD155" s="50"/>
-      <c r="AE155" s="51"/>
+      <c r="S155" s="51"/>
+      <c r="T155" s="51"/>
+      <c r="U155" s="51"/>
+      <c r="V155" s="51"/>
+      <c r="W155" s="51"/>
+      <c r="X155" s="51"/>
+      <c r="Y155" s="51"/>
+      <c r="Z155" s="51"/>
+      <c r="AA155" s="51">
+        <v>750</v>
+      </c>
+      <c r="AB155" s="51"/>
+      <c r="AC155" s="51"/>
+      <c r="AD155" s="51"/>
+      <c r="AE155" s="52"/>
     </row>
     <row r="156" ht="20.2" customHeight="1">
-      <c r="A156" t="s" s="49">
+      <c r="A156" t="s" s="50">
         <v>230</v>
       </c>
       <c r="B156" t="s" s="25">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="C156" t="s" s="16">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="D156" s="17"/>
       <c r="E156" s="17"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="17"/>
-      <c r="H156" s="52"/>
-      <c r="I156" s="52"/>
-      <c r="J156" s="52"/>
-      <c r="K156" s="52">
+      <c r="F156" s="18">
+        <v>12</v>
+      </c>
+      <c r="G156" s="17">
+        <v>140</v>
+      </c>
+      <c r="H156" s="53">
+        <v>160</v>
+      </c>
+      <c r="I156" s="53">
         <v>80</v>
       </c>
-      <c r="L156" s="52">
-        <v>25</v>
-      </c>
-      <c r="M156" s="52">
-        <v>30</v>
-      </c>
-      <c r="N156" s="52">
-        <v>25</v>
-      </c>
-      <c r="O156" s="52">
-        <v>26</v>
-      </c>
-      <c r="P156" s="52"/>
-      <c r="Q156" s="17"/>
-      <c r="R156" s="17"/>
-      <c r="S156" s="52">
-        <v>160</v>
-      </c>
-      <c r="T156" s="52">
-        <v>8</v>
-      </c>
-      <c r="U156" s="52">
-        <v>1200</v>
-      </c>
-      <c r="V156" s="52"/>
-      <c r="W156" s="52">
-        <v>6</v>
-      </c>
-      <c r="X156" s="52">
-        <v>500</v>
-      </c>
-      <c r="Y156" s="52">
-        <v>200000</v>
-      </c>
-      <c r="Z156" s="52">
-        <v>20000</v>
-      </c>
-      <c r="AA156" s="52">
-        <v>1000</v>
-      </c>
-      <c r="AB156" s="52"/>
-      <c r="AC156" s="52"/>
-      <c r="AD156" s="52"/>
-      <c r="AE156" s="53">
-        <v>800</v>
+      <c r="J156" s="53">
+        <v>5.3</v>
+      </c>
+      <c r="K156" s="53">
+        <v>16.3</v>
+      </c>
+      <c r="L156" s="53">
+        <v>8.1</v>
+      </c>
+      <c r="M156" s="53">
+        <v>3.3</v>
+      </c>
+      <c r="N156" s="53">
+        <v>13.9</v>
+      </c>
+      <c r="O156" s="53">
+        <v>3.1</v>
+      </c>
+      <c r="P156" s="53">
+        <v>6.4</v>
+      </c>
+      <c r="Q156" s="55"/>
+      <c r="R156" s="55"/>
+      <c r="S156" s="53">
+        <v>51.25</v>
+      </c>
+      <c r="T156" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="U156" s="53">
+        <v>150</v>
+      </c>
+      <c r="V156" s="53">
+        <v>80.75</v>
+      </c>
+      <c r="W156" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="X156" s="53">
+        <v>151.75</v>
+      </c>
+      <c r="Y156" s="53">
+        <v>15000</v>
+      </c>
+      <c r="Z156" s="53">
+        <v>2500</v>
+      </c>
+      <c r="AA156" s="53">
+        <v>375</v>
+      </c>
+      <c r="AB156" s="53"/>
+      <c r="AC156" s="53"/>
+      <c r="AD156" s="53">
+        <v>4.4</v>
+      </c>
+      <c r="AE156" s="54">
+        <v>50</v>
       </c>
     </row>
     <row r="157" ht="20.2" customHeight="1">
-      <c r="A157" t="s" s="49">
-        <v>232</v>
+      <c r="A157" t="s" s="50">
+        <v>231</v>
       </c>
       <c r="B157" t="s" s="32">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="C157" t="s" s="21">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="D157" s="22"/>
       <c r="E157" s="22"/>
-      <c r="F157" s="23"/>
+      <c r="F157" s="23">
+        <v>12.4</v>
+      </c>
       <c r="G157" s="22">
-        <v>1.38</v>
-      </c>
-      <c r="H157" s="50">
-        <v>0.12</v>
-      </c>
-      <c r="I157" s="50">
-        <v>0.48</v>
-      </c>
-      <c r="J157" s="50">
-        <v>0.3</v>
-      </c>
-      <c r="K157" s="50">
-        <v>0.09</v>
-      </c>
-      <c r="L157" s="50"/>
-      <c r="M157" s="50"/>
-      <c r="N157" s="50"/>
-      <c r="O157" s="50">
-        <v>0.39</v>
-      </c>
-      <c r="P157" s="50"/>
+        <v>140</v>
+      </c>
+      <c r="H157" s="51">
+        <v>120</v>
+      </c>
+      <c r="I157" s="51">
+        <v>70</v>
+      </c>
+      <c r="J157" s="51">
+        <v>5.3</v>
+      </c>
+      <c r="K157" s="51">
+        <v>11.5</v>
+      </c>
+      <c r="L157" s="51">
+        <v>7.5</v>
+      </c>
+      <c r="M157" s="51">
+        <v>3</v>
+      </c>
+      <c r="N157" s="51">
+        <v>10.7</v>
+      </c>
+      <c r="O157" s="51">
+        <v>3.1</v>
+      </c>
+      <c r="P157" s="51">
+        <v>6.6</v>
+      </c>
       <c r="Q157" s="22"/>
       <c r="R157" s="22"/>
-      <c r="S157" s="50">
-        <v>42</v>
-      </c>
-      <c r="T157" s="50">
-        <v>0.6</v>
-      </c>
-      <c r="U157" s="50">
-        <v>48</v>
-      </c>
-      <c r="V157" s="50">
+      <c r="S157" s="51">
+        <v>60</v>
+      </c>
+      <c r="T157" s="51">
+        <v>1.5</v>
+      </c>
+      <c r="U157" s="51">
         <v>120</v>
       </c>
-      <c r="W157" s="50">
-        <v>0.21</v>
-      </c>
-      <c r="X157" s="50">
-        <v>150</v>
-      </c>
-      <c r="Y157" s="50">
-        <v>18000</v>
-      </c>
-      <c r="Z157" s="50">
-        <v>2700</v>
-      </c>
-      <c r="AA157" s="50">
-        <v>510</v>
-      </c>
-      <c r="AB157" s="50">
-        <v>30</v>
-      </c>
-      <c r="AC157" s="50">
-        <v>12</v>
-      </c>
-      <c r="AD157" s="50">
-        <v>3</v>
-      </c>
-      <c r="AE157" s="51"/>
-    </row>
-    <row r="158" ht="32.2" customHeight="1">
-      <c r="A158" t="s" s="49">
-        <v>234</v>
+      <c r="V157" s="51">
+        <v>100</v>
+      </c>
+      <c r="W157" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="X157" s="51">
+        <v>180</v>
+      </c>
+      <c r="Y157" s="51">
+        <v>15000</v>
+      </c>
+      <c r="Z157" s="51">
+        <v>2000</v>
+      </c>
+      <c r="AA157" s="51">
+        <v>300</v>
+      </c>
+      <c r="AB157" s="51"/>
+      <c r="AC157" s="51"/>
+      <c r="AD157" s="51"/>
+      <c r="AE157" s="52"/>
+    </row>
+    <row r="158" ht="20.2" customHeight="1">
+      <c r="A158" t="s" s="50">
+        <v>232</v>
       </c>
       <c r="B158" t="s" s="25">
-        <v>235</v>
+        <v>142</v>
       </c>
       <c r="C158" t="s" s="16">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D158" s="17"/>
       <c r="E158" s="17"/>
-      <c r="F158" s="18">
-        <v>7.87</v>
-      </c>
-      <c r="G158" s="17">
-        <v>225.3</v>
-      </c>
-      <c r="H158" s="52"/>
-      <c r="I158" s="52">
-        <v>146.5</v>
-      </c>
-      <c r="J158" s="52">
-        <v>13.36</v>
-      </c>
-      <c r="K158" s="52">
-        <v>17</v>
-      </c>
-      <c r="L158" s="52">
+      <c r="F158" s="18"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="53"/>
+      <c r="I158" s="53"/>
+      <c r="J158" s="53"/>
+      <c r="K158" s="53">
+        <v>80</v>
+      </c>
+      <c r="L158" s="53">
+        <v>25</v>
+      </c>
+      <c r="M158" s="53">
+        <v>30</v>
+      </c>
+      <c r="N158" s="53">
+        <v>25</v>
+      </c>
+      <c r="O158" s="53">
+        <v>26</v>
+      </c>
+      <c r="P158" s="53"/>
+      <c r="Q158" s="17"/>
+      <c r="R158" s="17"/>
+      <c r="S158" s="53">
+        <v>160</v>
+      </c>
+      <c r="T158" s="53">
+        <v>8</v>
+      </c>
+      <c r="U158" s="53">
+        <v>1200</v>
+      </c>
+      <c r="V158" s="53"/>
+      <c r="W158" s="53">
         <v>6</v>
       </c>
-      <c r="M158" s="52">
-        <v>3570</v>
-      </c>
-      <c r="N158" s="52"/>
-      <c r="O158" s="52"/>
-      <c r="P158" s="52"/>
-      <c r="Q158" s="17">
-        <v>23</v>
-      </c>
-      <c r="R158" s="17"/>
-      <c r="S158" s="52">
-        <v>350</v>
-      </c>
-      <c r="T158" s="52"/>
-      <c r="U158" s="52"/>
-      <c r="V158" s="52">
-        <v>350</v>
-      </c>
-      <c r="W158" s="52">
-        <v>1.5</v>
-      </c>
-      <c r="X158" s="52">
-        <v>1069</v>
-      </c>
-      <c r="Y158" s="52">
+      <c r="X158" s="53">
+        <v>500</v>
+      </c>
+      <c r="Y158" s="53">
+        <v>200000</v>
+      </c>
+      <c r="Z158" s="53">
         <v>20000</v>
       </c>
-      <c r="Z158" s="52">
-        <v>47300</v>
-      </c>
-      <c r="AA158" s="52">
-        <v>5000</v>
-      </c>
-      <c r="AB158" s="52">
-        <v>160</v>
-      </c>
-      <c r="AC158" s="52"/>
-      <c r="AD158" s="52"/>
-      <c r="AE158" s="53">
-        <v>7090</v>
+      <c r="AA158" s="53">
+        <v>1000</v>
+      </c>
+      <c r="AB158" s="53"/>
+      <c r="AC158" s="53"/>
+      <c r="AD158" s="53"/>
+      <c r="AE158" s="54">
+        <v>800</v>
       </c>
     </row>
     <row r="159" ht="20.2" customHeight="1">
-      <c r="A159" t="s" s="49">
-        <v>236</v>
+      <c r="A159" t="s" s="50">
+        <v>234</v>
       </c>
       <c r="B159" t="s" s="32">
+        <v>235</v>
+      </c>
+      <c r="C159" t="s" s="21">
         <v>233</v>
-      </c>
-      <c r="C159" t="s" s="21">
-        <v>231</v>
       </c>
       <c r="D159" s="22"/>
       <c r="E159" s="22"/>
       <c r="F159" s="23"/>
-      <c r="G159" s="22"/>
-      <c r="H159" s="50"/>
-      <c r="I159" s="50"/>
-      <c r="J159" s="50"/>
-      <c r="K159" s="50"/>
-      <c r="L159" s="50"/>
-      <c r="M159" s="50"/>
-      <c r="N159" s="50"/>
-      <c r="O159" s="50"/>
-      <c r="P159" s="50"/>
+      <c r="G159" s="22">
+        <v>1.38</v>
+      </c>
+      <c r="H159" s="51">
+        <v>0.12</v>
+      </c>
+      <c r="I159" s="51">
+        <v>0.48</v>
+      </c>
+      <c r="J159" s="51">
+        <v>0.3</v>
+      </c>
+      <c r="K159" s="51">
+        <v>0.09</v>
+      </c>
+      <c r="L159" s="51"/>
+      <c r="M159" s="51"/>
+      <c r="N159" s="51"/>
+      <c r="O159" s="51">
+        <v>0.39</v>
+      </c>
+      <c r="P159" s="51"/>
       <c r="Q159" s="22"/>
       <c r="R159" s="22"/>
-      <c r="S159" s="50">
-        <v>250</v>
-      </c>
-      <c r="T159" s="50"/>
-      <c r="U159" s="50"/>
-      <c r="V159" s="50"/>
-      <c r="W159" s="50"/>
-      <c r="X159" s="50">
-        <v>3415</v>
-      </c>
-      <c r="Y159" s="50"/>
-      <c r="Z159" s="50"/>
-      <c r="AA159" s="50"/>
-      <c r="AB159" s="50"/>
-      <c r="AC159" s="50"/>
-      <c r="AD159" s="50"/>
-      <c r="AE159" s="51"/>
-    </row>
-    <row r="160" ht="20.2" customHeight="1">
-      <c r="A160" t="s" s="49">
+      <c r="S159" s="51">
+        <v>42</v>
+      </c>
+      <c r="T159" s="51">
+        <v>0.6</v>
+      </c>
+      <c r="U159" s="51">
+        <v>48</v>
+      </c>
+      <c r="V159" s="51">
+        <v>120</v>
+      </c>
+      <c r="W159" s="51">
+        <v>0.21</v>
+      </c>
+      <c r="X159" s="51">
+        <v>150</v>
+      </c>
+      <c r="Y159" s="51">
+        <v>18000</v>
+      </c>
+      <c r="Z159" s="51">
+        <v>2700</v>
+      </c>
+      <c r="AA159" s="51">
+        <v>510</v>
+      </c>
+      <c r="AB159" s="51">
+        <v>30</v>
+      </c>
+      <c r="AC159" s="51">
+        <v>12</v>
+      </c>
+      <c r="AD159" s="51">
+        <v>3</v>
+      </c>
+      <c r="AE159" s="52"/>
+    </row>
+    <row r="160" ht="32.2" customHeight="1">
+      <c r="A160" t="s" s="50">
+        <v>236</v>
+      </c>
+      <c r="B160" t="s" s="25">
         <v>237</v>
       </c>
-      <c r="B160" t="s" s="25">
+      <c r="C160" t="s" s="16">
         <v>233</v>
-      </c>
-      <c r="C160" t="s" s="16">
-        <v>231</v>
       </c>
       <c r="D160" s="17"/>
       <c r="E160" s="17"/>
-      <c r="F160" s="18"/>
+      <c r="F160" s="18">
+        <v>7.87</v>
+      </c>
       <c r="G160" s="17">
-        <v>19.2</v>
-      </c>
-      <c r="H160" s="52">
-        <v>1.05</v>
-      </c>
-      <c r="I160" s="52">
-        <v>4.8</v>
-      </c>
-      <c r="J160" s="52">
-        <v>14.62</v>
-      </c>
-      <c r="K160" s="52">
-        <v>20.1</v>
-      </c>
-      <c r="L160" s="52">
-        <v>10.2</v>
-      </c>
-      <c r="M160" s="52">
-        <v>0.6</v>
-      </c>
-      <c r="N160" s="52"/>
-      <c r="O160" s="52"/>
-      <c r="P160" s="52"/>
-      <c r="Q160" s="17"/>
+        <v>225.3</v>
+      </c>
+      <c r="H160" s="53"/>
+      <c r="I160" s="53">
+        <v>146.5</v>
+      </c>
+      <c r="J160" s="53">
+        <v>13.36</v>
+      </c>
+      <c r="K160" s="53">
+        <v>17</v>
+      </c>
+      <c r="L160" s="53">
+        <v>6</v>
+      </c>
+      <c r="M160" s="53">
+        <v>3570</v>
+      </c>
+      <c r="N160" s="53"/>
+      <c r="O160" s="53"/>
+      <c r="P160" s="53"/>
+      <c r="Q160" s="17">
+        <v>23</v>
+      </c>
       <c r="R160" s="17"/>
-      <c r="S160" s="52">
-        <v>300</v>
-      </c>
-      <c r="T160" s="52"/>
-      <c r="U160" s="52"/>
-      <c r="V160" s="52">
-        <v>360</v>
-      </c>
-      <c r="W160" s="52"/>
-      <c r="X160" s="52">
-        <v>750</v>
-      </c>
-      <c r="Y160" s="52"/>
-      <c r="Z160" s="52">
-        <v>470</v>
-      </c>
-      <c r="AA160" s="52"/>
-      <c r="AB160" s="52"/>
-      <c r="AC160" s="52"/>
-      <c r="AD160" s="52">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AE160" s="53"/>
+      <c r="S160" s="53">
+        <v>350</v>
+      </c>
+      <c r="T160" s="53"/>
+      <c r="U160" s="53"/>
+      <c r="V160" s="53">
+        <v>350</v>
+      </c>
+      <c r="W160" s="53">
+        <v>1.5</v>
+      </c>
+      <c r="X160" s="53">
+        <v>1069</v>
+      </c>
+      <c r="Y160" s="53">
+        <v>20000</v>
+      </c>
+      <c r="Z160" s="53">
+        <v>47300</v>
+      </c>
+      <c r="AA160" s="53">
+        <v>5000</v>
+      </c>
+      <c r="AB160" s="53">
+        <v>160</v>
+      </c>
+      <c r="AC160" s="53"/>
+      <c r="AD160" s="53"/>
+      <c r="AE160" s="54">
+        <v>7090</v>
+      </c>
     </row>
     <row r="161" ht="20.2" customHeight="1">
-      <c r="A161" t="s" s="49">
+      <c r="A161" t="s" s="50">
         <v>238</v>
       </c>
       <c r="B161" t="s" s="32">
+        <v>235</v>
+      </c>
+      <c r="C161" t="s" s="21">
         <v>233</v>
-      </c>
-      <c r="C161" t="s" s="21">
-        <v>231</v>
       </c>
       <c r="D161" s="22"/>
       <c r="E161" s="22"/>
       <c r="F161" s="23"/>
       <c r="G161" s="22"/>
-      <c r="H161" s="50"/>
-      <c r="I161" s="50"/>
-      <c r="J161" s="50"/>
-      <c r="K161" s="50"/>
-      <c r="L161" s="50"/>
-      <c r="M161" s="50">
-        <v>0.09</v>
-      </c>
-      <c r="N161" s="50">
-        <v>1.56</v>
-      </c>
-      <c r="O161" s="50">
-        <v>3.12</v>
-      </c>
-      <c r="P161" s="50">
-        <v>6.27</v>
-      </c>
+      <c r="H161" s="51"/>
+      <c r="I161" s="51"/>
+      <c r="J161" s="51"/>
+      <c r="K161" s="51"/>
+      <c r="L161" s="51"/>
+      <c r="M161" s="51"/>
+      <c r="N161" s="51"/>
+      <c r="O161" s="51"/>
+      <c r="P161" s="51"/>
       <c r="Q161" s="22"/>
       <c r="R161" s="22"/>
-      <c r="S161" s="50"/>
-      <c r="T161" s="50"/>
-      <c r="U161" s="50"/>
-      <c r="V161" s="50"/>
-      <c r="W161" s="50"/>
-      <c r="X161" s="50"/>
-      <c r="Y161" s="50"/>
-      <c r="Z161" s="50"/>
-      <c r="AA161" s="50">
-        <v>1.14</v>
-      </c>
-      <c r="AB161" s="50"/>
-      <c r="AC161" s="50"/>
-      <c r="AD161" s="50"/>
-      <c r="AE161" s="51">
-        <v>552</v>
-      </c>
+      <c r="S161" s="51">
+        <v>250</v>
+      </c>
+      <c r="T161" s="51"/>
+      <c r="U161" s="51"/>
+      <c r="V161" s="51"/>
+      <c r="W161" s="51"/>
+      <c r="X161" s="51">
+        <v>3415</v>
+      </c>
+      <c r="Y161" s="51"/>
+      <c r="Z161" s="51"/>
+      <c r="AA161" s="51"/>
+      <c r="AB161" s="51"/>
+      <c r="AC161" s="51"/>
+      <c r="AD161" s="51"/>
+      <c r="AE161" s="52"/>
     </row>
     <row r="162" ht="20.2" customHeight="1">
-      <c r="A162" t="s" s="49">
+      <c r="A162" t="s" s="50">
         <v>239</v>
       </c>
       <c r="B162" t="s" s="25">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C162" t="s" s="16">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D162" s="17"/>
       <c r="E162" s="17"/>
       <c r="F162" s="18"/>
-      <c r="G162" s="17"/>
-      <c r="H162" s="52"/>
-      <c r="I162" s="52"/>
-      <c r="J162" s="52">
-        <v>10</v>
-      </c>
-      <c r="K162" s="52">
-        <v>17.4</v>
-      </c>
-      <c r="L162" s="52">
-        <v>6.1</v>
-      </c>
-      <c r="M162" s="52">
-        <v>2</v>
-      </c>
-      <c r="N162" s="52"/>
-      <c r="O162" s="52"/>
-      <c r="P162" s="52"/>
+      <c r="G162" s="17">
+        <v>19.2</v>
+      </c>
+      <c r="H162" s="53">
+        <v>1.05</v>
+      </c>
+      <c r="I162" s="53">
+        <v>4.8</v>
+      </c>
+      <c r="J162" s="53">
+        <v>14.62</v>
+      </c>
+      <c r="K162" s="53">
+        <v>20.1</v>
+      </c>
+      <c r="L162" s="53">
+        <v>10.2</v>
+      </c>
+      <c r="M162" s="53">
+        <v>0.6</v>
+      </c>
+      <c r="N162" s="53"/>
+      <c r="O162" s="53"/>
+      <c r="P162" s="53"/>
       <c r="Q162" s="17"/>
       <c r="R162" s="17"/>
-      <c r="S162" s="52">
-        <v>50</v>
-      </c>
-      <c r="T162" s="52">
-        <v>7</v>
-      </c>
-      <c r="U162" s="52">
-        <v>180</v>
-      </c>
-      <c r="V162" s="52">
-        <v>125</v>
-      </c>
-      <c r="W162" s="52">
-        <v>1.4</v>
-      </c>
-      <c r="X162" s="52">
-        <v>400</v>
-      </c>
-      <c r="Y162" s="52">
-        <v>85700</v>
-      </c>
-      <c r="Z162" s="52">
-        <v>8570</v>
-      </c>
-      <c r="AA162" s="52">
-        <v>714</v>
-      </c>
-      <c r="AB162" s="52">
-        <v>14.2</v>
-      </c>
-      <c r="AC162" s="52">
-        <v>22.8</v>
-      </c>
-      <c r="AD162" s="52"/>
-      <c r="AE162" s="53">
-        <v>285</v>
-      </c>
+      <c r="S162" s="53">
+        <v>300</v>
+      </c>
+      <c r="T162" s="53"/>
+      <c r="U162" s="53"/>
+      <c r="V162" s="53">
+        <v>360</v>
+      </c>
+      <c r="W162" s="53"/>
+      <c r="X162" s="53">
+        <v>750</v>
+      </c>
+      <c r="Y162" s="53"/>
+      <c r="Z162" s="53">
+        <v>470</v>
+      </c>
+      <c r="AA162" s="53"/>
+      <c r="AB162" s="53"/>
+      <c r="AC162" s="53"/>
+      <c r="AD162" s="53">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE162" s="54"/>
     </row>
     <row r="163" ht="20.2" customHeight="1">
-      <c r="A163" t="s" s="49">
-        <v>241</v>
+      <c r="A163" t="s" s="50">
+        <v>240</v>
       </c>
       <c r="B163" t="s" s="32">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="C163" t="s" s="21">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D163" s="22"/>
       <c r="E163" s="22"/>
       <c r="F163" s="23"/>
-      <c r="G163" s="22">
-        <v>45</v>
-      </c>
-      <c r="H163" s="50">
-        <v>56</v>
-      </c>
-      <c r="I163" s="50">
-        <v>60</v>
-      </c>
-      <c r="J163" s="50"/>
-      <c r="K163" s="50">
-        <v>164</v>
-      </c>
-      <c r="L163" s="50">
-        <v>26</v>
-      </c>
-      <c r="M163" s="50">
-        <v>23</v>
-      </c>
-      <c r="N163" s="50"/>
-      <c r="O163" s="50">
-        <v>39</v>
-      </c>
-      <c r="P163" s="50"/>
+      <c r="G163" s="22"/>
+      <c r="H163" s="51"/>
+      <c r="I163" s="51"/>
+      <c r="J163" s="51"/>
+      <c r="K163" s="51"/>
+      <c r="L163" s="51"/>
+      <c r="M163" s="51">
+        <v>0.09</v>
+      </c>
+      <c r="N163" s="51">
+        <v>1.56</v>
+      </c>
+      <c r="O163" s="51">
+        <v>3.12</v>
+      </c>
+      <c r="P163" s="51">
+        <v>6.27</v>
+      </c>
       <c r="Q163" s="22"/>
-      <c r="R163" s="22">
-        <v>10</v>
-      </c>
-      <c r="S163" s="50">
-        <v>700</v>
-      </c>
-      <c r="T163" s="50">
-        <v>12.7</v>
-      </c>
-      <c r="U163" s="50">
-        <v>300</v>
-      </c>
-      <c r="V163" s="50">
-        <v>1100</v>
-      </c>
-      <c r="W163" s="50">
-        <v>8</v>
-      </c>
-      <c r="X163" s="50">
-        <v>2500</v>
-      </c>
-      <c r="Y163" s="50">
-        <v>260000</v>
-      </c>
-      <c r="Z163" s="50">
-        <v>29000</v>
-      </c>
-      <c r="AA163" s="50">
-        <v>5300</v>
-      </c>
-      <c r="AB163" s="50">
-        <v>255</v>
-      </c>
-      <c r="AC163" s="50">
-        <v>360</v>
-      </c>
-      <c r="AD163" s="50"/>
-      <c r="AE163" s="51"/>
-    </row>
-    <row r="164" ht="32.2" customHeight="1">
-      <c r="A164" t="s" s="49">
+      <c r="R163" s="22"/>
+      <c r="S163" s="51"/>
+      <c r="T163" s="51"/>
+      <c r="U163" s="51"/>
+      <c r="V163" s="51"/>
+      <c r="W163" s="51"/>
+      <c r="X163" s="51"/>
+      <c r="Y163" s="51"/>
+      <c r="Z163" s="51"/>
+      <c r="AA163" s="51">
+        <v>1.14</v>
+      </c>
+      <c r="AB163" s="51"/>
+      <c r="AC163" s="51"/>
+      <c r="AD163" s="51"/>
+      <c r="AE163" s="52">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="164" ht="20.2" customHeight="1">
+      <c r="A164" t="s" s="50">
+        <v>241</v>
+      </c>
+      <c r="B164" t="s" s="25">
         <v>242</v>
       </c>
-      <c r="B164" t="s" s="25">
-        <v>243</v>
-      </c>
       <c r="C164" t="s" s="16">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D164" s="17"/>
       <c r="E164" s="17"/>
       <c r="F164" s="18"/>
-      <c r="G164" s="17">
-        <v>202</v>
-      </c>
-      <c r="H164" s="52">
-        <v>33</v>
-      </c>
-      <c r="I164" s="52">
-        <v>33</v>
-      </c>
-      <c r="J164" s="52">
-        <v>50</v>
-      </c>
-      <c r="K164" s="52">
-        <v>131</v>
-      </c>
-      <c r="L164" s="52">
-        <v>16</v>
-      </c>
-      <c r="M164" s="52">
-        <v>9.4</v>
-      </c>
-      <c r="N164" s="52"/>
-      <c r="O164" s="52">
-        <v>22</v>
-      </c>
-      <c r="P164" s="52"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="53"/>
+      <c r="I164" s="53"/>
+      <c r="J164" s="53">
+        <v>10</v>
+      </c>
+      <c r="K164" s="53">
+        <v>17.4</v>
+      </c>
+      <c r="L164" s="53">
+        <v>6.1</v>
+      </c>
+      <c r="M164" s="53">
+        <v>2</v>
+      </c>
+      <c r="N164" s="53"/>
+      <c r="O164" s="53"/>
+      <c r="P164" s="53"/>
       <c r="Q164" s="17"/>
       <c r="R164" s="17"/>
-      <c r="S164" s="52">
-        <v>500</v>
-      </c>
-      <c r="T164" s="52">
-        <v>46.25</v>
-      </c>
-      <c r="U164" s="52">
-        <v>1750</v>
-      </c>
-      <c r="V164" s="52">
-        <v>1125</v>
-      </c>
-      <c r="W164" s="52">
-        <v>18</v>
-      </c>
-      <c r="X164" s="52">
-        <v>625</v>
-      </c>
-      <c r="Y164" s="52">
-        <v>250000</v>
-      </c>
-      <c r="Z164" s="52">
-        <v>25000</v>
-      </c>
-      <c r="AA164" s="52">
-        <v>8750</v>
-      </c>
-      <c r="AB164" s="52">
-        <v>350</v>
-      </c>
-      <c r="AC164" s="52">
-        <v>145</v>
-      </c>
-      <c r="AD164" s="52">
-        <v>40.63</v>
-      </c>
-      <c r="AE164" s="53">
-        <v>6250</v>
-      </c>
-    </row>
-    <row r="165" ht="32.2" customHeight="1">
-      <c r="A165" t="s" s="49">
-        <v>244</v>
+      <c r="S164" s="53">
+        <v>50</v>
+      </c>
+      <c r="T164" s="53">
+        <v>7</v>
+      </c>
+      <c r="U164" s="53">
+        <v>180</v>
+      </c>
+      <c r="V164" s="53">
+        <v>125</v>
+      </c>
+      <c r="W164" s="53">
+        <v>1.4</v>
+      </c>
+      <c r="X164" s="53">
+        <v>400</v>
+      </c>
+      <c r="Y164" s="53">
+        <v>85700</v>
+      </c>
+      <c r="Z164" s="53">
+        <v>8570</v>
+      </c>
+      <c r="AA164" s="53">
+        <v>714</v>
+      </c>
+      <c r="AB164" s="53">
+        <v>14.2</v>
+      </c>
+      <c r="AC164" s="53">
+        <v>22.8</v>
+      </c>
+      <c r="AD164" s="53"/>
+      <c r="AE164" s="54">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="165" ht="20.2" customHeight="1">
+      <c r="A165" t="s" s="50">
+        <v>243</v>
       </c>
       <c r="B165" t="s" s="32">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="C165" t="s" s="21">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D165" s="22"/>
       <c r="E165" s="22"/>
       <c r="F165" s="23"/>
       <c r="G165" s="22">
-        <v>364</v>
-      </c>
-      <c r="H165" s="50">
-        <v>57</v>
-      </c>
-      <c r="I165" s="50">
-        <v>48.5</v>
-      </c>
-      <c r="J165" s="50">
-        <v>13.3</v>
-      </c>
-      <c r="K165" s="50">
-        <v>19</v>
-      </c>
-      <c r="L165" s="50"/>
-      <c r="M165" s="50">
-        <v>25</v>
-      </c>
-      <c r="N165" s="50"/>
-      <c r="O165" s="50">
-        <v>4</v>
-      </c>
-      <c r="P165" s="50"/>
+        <v>45</v>
+      </c>
+      <c r="H165" s="51">
+        <v>56</v>
+      </c>
+      <c r="I165" s="51">
+        <v>60</v>
+      </c>
+      <c r="J165" s="51"/>
+      <c r="K165" s="51">
+        <v>164</v>
+      </c>
+      <c r="L165" s="51">
+        <v>26</v>
+      </c>
+      <c r="M165" s="51">
+        <v>23</v>
+      </c>
+      <c r="N165" s="51"/>
+      <c r="O165" s="51">
+        <v>39</v>
+      </c>
+      <c r="P165" s="51"/>
       <c r="Q165" s="22"/>
       <c r="R165" s="22">
-        <v>26</v>
-      </c>
-      <c r="S165" s="50">
-        <v>1660</v>
-      </c>
-      <c r="T165" s="50">
-        <v>142</v>
-      </c>
-      <c r="U165" s="50">
-        <v>5616</v>
-      </c>
-      <c r="V165" s="50">
-        <v>3761</v>
-      </c>
-      <c r="W165" s="50">
-        <v>50</v>
-      </c>
-      <c r="X165" s="50">
-        <v>5456</v>
-      </c>
-      <c r="Y165" s="50">
-        <v>810000</v>
-      </c>
-      <c r="Z165" s="50">
-        <v>81000</v>
-      </c>
-      <c r="AA165" s="50">
-        <v>27000</v>
-      </c>
-      <c r="AB165" s="50">
-        <v>1140</v>
-      </c>
-      <c r="AC165" s="50">
-        <v>480</v>
-      </c>
-      <c r="AD165" s="50"/>
-      <c r="AE165" s="51">
-        <v>20000</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="S165" s="51">
+        <v>700</v>
+      </c>
+      <c r="T165" s="51">
+        <v>12.7</v>
+      </c>
+      <c r="U165" s="51">
+        <v>300</v>
+      </c>
+      <c r="V165" s="51">
+        <v>1100</v>
+      </c>
+      <c r="W165" s="51">
+        <v>8</v>
+      </c>
+      <c r="X165" s="51">
+        <v>2500</v>
+      </c>
+      <c r="Y165" s="51">
+        <v>260000</v>
+      </c>
+      <c r="Z165" s="51">
+        <v>29000</v>
+      </c>
+      <c r="AA165" s="51">
+        <v>5300</v>
+      </c>
+      <c r="AB165" s="51">
+        <v>255</v>
+      </c>
+      <c r="AC165" s="51">
+        <v>360</v>
+      </c>
+      <c r="AD165" s="51"/>
+      <c r="AE165" s="52"/>
     </row>
     <row r="166" ht="32.2" customHeight="1">
-      <c r="A166" t="s" s="49">
+      <c r="A166" t="s" s="50">
+        <v>244</v>
+      </c>
+      <c r="B166" t="s" s="25">
         <v>245</v>
       </c>
-      <c r="B166" t="s" s="25">
-        <v>246</v>
-      </c>
       <c r="C166" t="s" s="16">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D166" s="17"/>
       <c r="E166" s="17"/>
       <c r="F166" s="18"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="52"/>
-      <c r="I166" s="52"/>
-      <c r="J166" s="52"/>
-      <c r="K166" s="52"/>
-      <c r="L166" s="52"/>
-      <c r="M166" s="52"/>
-      <c r="N166" s="52"/>
-      <c r="O166" s="52"/>
-      <c r="P166" s="52"/>
+      <c r="G166" s="17">
+        <v>202</v>
+      </c>
+      <c r="H166" s="53">
+        <v>33</v>
+      </c>
+      <c r="I166" s="53">
+        <v>33</v>
+      </c>
+      <c r="J166" s="53">
+        <v>50</v>
+      </c>
+      <c r="K166" s="53">
+        <v>131</v>
+      </c>
+      <c r="L166" s="53">
+        <v>16</v>
+      </c>
+      <c r="M166" s="53">
+        <v>9.4</v>
+      </c>
+      <c r="N166" s="53"/>
+      <c r="O166" s="53">
+        <v>22</v>
+      </c>
+      <c r="P166" s="53"/>
       <c r="Q166" s="17"/>
       <c r="R166" s="17"/>
-      <c r="S166" s="52"/>
-      <c r="T166" s="52"/>
-      <c r="U166" s="52"/>
-      <c r="V166" s="52">
-        <v>2700</v>
-      </c>
-      <c r="W166" s="52"/>
-      <c r="X166" s="52"/>
-      <c r="Y166" s="52"/>
-      <c r="Z166" s="52"/>
-      <c r="AA166" s="52"/>
-      <c r="AB166" s="52"/>
-      <c r="AC166" s="52"/>
-      <c r="AD166" s="52"/>
-      <c r="AE166" s="53"/>
-    </row>
-    <row r="167" ht="20.2" customHeight="1">
-      <c r="A167" t="s" s="49">
-        <v>247</v>
+      <c r="S166" s="53">
+        <v>500</v>
+      </c>
+      <c r="T166" s="53">
+        <v>46.25</v>
+      </c>
+      <c r="U166" s="53">
+        <v>1750</v>
+      </c>
+      <c r="V166" s="53">
+        <v>1125</v>
+      </c>
+      <c r="W166" s="53">
+        <v>18</v>
+      </c>
+      <c r="X166" s="53">
+        <v>625</v>
+      </c>
+      <c r="Y166" s="53">
+        <v>250000</v>
+      </c>
+      <c r="Z166" s="53">
+        <v>25000</v>
+      </c>
+      <c r="AA166" s="53">
+        <v>8750</v>
+      </c>
+      <c r="AB166" s="53">
+        <v>350</v>
+      </c>
+      <c r="AC166" s="53">
+        <v>145</v>
+      </c>
+      <c r="AD166" s="53">
+        <v>40.63</v>
+      </c>
+      <c r="AE166" s="54">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="167" ht="32.2" customHeight="1">
+      <c r="A167" t="s" s="50">
+        <v>246</v>
       </c>
       <c r="B167" t="s" s="32">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C167" t="s" s="21">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D167" s="22"/>
       <c r="E167" s="22"/>
       <c r="F167" s="23"/>
-      <c r="G167" s="22"/>
-      <c r="H167" s="50"/>
-      <c r="I167" s="50"/>
-      <c r="J167" s="50"/>
-      <c r="K167" s="50"/>
-      <c r="L167" s="50"/>
-      <c r="M167" s="50"/>
-      <c r="N167" s="50"/>
-      <c r="O167" s="50"/>
-      <c r="P167" s="50"/>
+      <c r="G167" s="22">
+        <v>364</v>
+      </c>
+      <c r="H167" s="51">
+        <v>57</v>
+      </c>
+      <c r="I167" s="51">
+        <v>48.5</v>
+      </c>
+      <c r="J167" s="51">
+        <v>13.3</v>
+      </c>
+      <c r="K167" s="51">
+        <v>19</v>
+      </c>
+      <c r="L167" s="51"/>
+      <c r="M167" s="51">
+        <v>25</v>
+      </c>
+      <c r="N167" s="51"/>
+      <c r="O167" s="51">
+        <v>4</v>
+      </c>
+      <c r="P167" s="51"/>
       <c r="Q167" s="22"/>
-      <c r="R167" s="22"/>
-      <c r="S167" s="50"/>
-      <c r="T167" s="50"/>
-      <c r="U167" s="50"/>
-      <c r="V167" s="50"/>
-      <c r="W167" s="50"/>
-      <c r="X167" s="50">
-        <v>20</v>
-      </c>
-      <c r="Y167" s="50"/>
-      <c r="Z167" s="50"/>
-      <c r="AA167" s="50">
-        <v>200000</v>
-      </c>
-      <c r="AB167" s="50"/>
-      <c r="AC167" s="50"/>
-      <c r="AD167" s="50"/>
-      <c r="AE167" s="51"/>
-    </row>
-    <row r="168" ht="20.2" customHeight="1">
-      <c r="A168" t="s" s="49">
-        <v>249</v>
-      </c>
-      <c r="B168" s="55"/>
+      <c r="R167" s="22">
+        <v>26</v>
+      </c>
+      <c r="S167" s="51">
+        <v>1660</v>
+      </c>
+      <c r="T167" s="51">
+        <v>142</v>
+      </c>
+      <c r="U167" s="51">
+        <v>5616</v>
+      </c>
+      <c r="V167" s="51">
+        <v>3761</v>
+      </c>
+      <c r="W167" s="51">
+        <v>50</v>
+      </c>
+      <c r="X167" s="51">
+        <v>5456</v>
+      </c>
+      <c r="Y167" s="51">
+        <v>810000</v>
+      </c>
+      <c r="Z167" s="51">
+        <v>81000</v>
+      </c>
+      <c r="AA167" s="51">
+        <v>27000</v>
+      </c>
+      <c r="AB167" s="51">
+        <v>1140</v>
+      </c>
+      <c r="AC167" s="51">
+        <v>480</v>
+      </c>
+      <c r="AD167" s="51"/>
+      <c r="AE167" s="52">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="168" ht="32.2" customHeight="1">
+      <c r="A168" t="s" s="50">
+        <v>247</v>
+      </c>
+      <c r="B168" t="s" s="25">
+        <v>248</v>
+      </c>
       <c r="C168" t="s" s="16">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D168" s="17"/>
       <c r="E168" s="17"/>
       <c r="F168" s="18"/>
       <c r="G168" s="17"/>
-      <c r="H168" s="52"/>
-      <c r="I168" s="52"/>
-      <c r="J168" s="52"/>
-      <c r="K168" s="52"/>
-      <c r="L168" s="52"/>
-      <c r="M168" s="52"/>
-      <c r="N168" s="52"/>
-      <c r="O168" s="52"/>
-      <c r="P168" s="52"/>
+      <c r="H168" s="53"/>
+      <c r="I168" s="53"/>
+      <c r="J168" s="53"/>
+      <c r="K168" s="53"/>
+      <c r="L168" s="53"/>
+      <c r="M168" s="53"/>
+      <c r="N168" s="53"/>
+      <c r="O168" s="53"/>
+      <c r="P168" s="53"/>
       <c r="Q168" s="17"/>
       <c r="R168" s="17"/>
-      <c r="S168" s="52">
+      <c r="S168" s="53"/>
+      <c r="T168" s="53"/>
+      <c r="U168" s="53"/>
+      <c r="V168" s="53">
+        <v>2700</v>
+      </c>
+      <c r="W168" s="53"/>
+      <c r="X168" s="53"/>
+      <c r="Y168" s="53"/>
+      <c r="Z168" s="53"/>
+      <c r="AA168" s="53"/>
+      <c r="AB168" s="53"/>
+      <c r="AC168" s="53"/>
+      <c r="AD168" s="53"/>
+      <c r="AE168" s="54"/>
+    </row>
+    <row r="169" ht="20.2" customHeight="1">
+      <c r="A169" t="s" s="50">
+        <v>249</v>
+      </c>
+      <c r="B169" t="s" s="32">
+        <v>250</v>
+      </c>
+      <c r="C169" t="s" s="21">
+        <v>233</v>
+      </c>
+      <c r="D169" s="22"/>
+      <c r="E169" s="22"/>
+      <c r="F169" s="23"/>
+      <c r="G169" s="22"/>
+      <c r="H169" s="51"/>
+      <c r="I169" s="51"/>
+      <c r="J169" s="51"/>
+      <c r="K169" s="51"/>
+      <c r="L169" s="51"/>
+      <c r="M169" s="51"/>
+      <c r="N169" s="51"/>
+      <c r="O169" s="51"/>
+      <c r="P169" s="51"/>
+      <c r="Q169" s="22"/>
+      <c r="R169" s="22"/>
+      <c r="S169" s="51"/>
+      <c r="T169" s="51"/>
+      <c r="U169" s="51"/>
+      <c r="V169" s="51"/>
+      <c r="W169" s="51"/>
+      <c r="X169" s="51">
+        <v>20</v>
+      </c>
+      <c r="Y169" s="51"/>
+      <c r="Z169" s="51"/>
+      <c r="AA169" s="51">
+        <v>200000</v>
+      </c>
+      <c r="AB169" s="51"/>
+      <c r="AC169" s="51"/>
+      <c r="AD169" s="51"/>
+      <c r="AE169" s="52"/>
+    </row>
+    <row r="170" ht="20.2" customHeight="1">
+      <c r="A170" t="s" s="50">
+        <v>251</v>
+      </c>
+      <c r="B170" s="56"/>
+      <c r="C170" t="s" s="16">
+        <v>233</v>
+      </c>
+      <c r="D170" s="17"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="53"/>
+      <c r="I170" s="53"/>
+      <c r="J170" s="53"/>
+      <c r="K170" s="53"/>
+      <c r="L170" s="53"/>
+      <c r="M170" s="53"/>
+      <c r="N170" s="53"/>
+      <c r="O170" s="53"/>
+      <c r="P170" s="53"/>
+      <c r="Q170" s="17"/>
+      <c r="R170" s="17"/>
+      <c r="S170" s="53">
         <v>800</v>
       </c>
-      <c r="T168" s="52">
+      <c r="T170" s="53">
         <v>50</v>
       </c>
-      <c r="U168" s="52">
+      <c r="U170" s="53">
         <v>5000</v>
       </c>
-      <c r="V168" s="52">
+      <c r="V170" s="53">
         <v>3700</v>
       </c>
-      <c r="W168" s="52">
+      <c r="W170" s="53">
         <v>10</v>
       </c>
-      <c r="X168" s="52">
+      <c r="X170" s="53">
         <v>10000</v>
       </c>
-      <c r="Y168" s="52">
+      <c r="Y170" s="53">
         <v>1000000</v>
       </c>
-      <c r="Z168" s="52">
+      <c r="Z170" s="53">
         <v>100000</v>
       </c>
-      <c r="AA168" s="52">
+      <c r="AA170" s="53">
         <v>6850</v>
       </c>
-      <c r="AB168" s="52"/>
-      <c r="AC168" s="52"/>
-      <c r="AD168" s="52"/>
-      <c r="AE168" s="53"/>
-    </row>
-    <row r="169" ht="20.95" customHeight="1">
-      <c r="A169" t="s" s="56">
-        <v>250</v>
-      </c>
-      <c r="B169" t="s" s="57">
-        <v>251</v>
-      </c>
-      <c r="C169" t="s" s="58">
-        <v>231</v>
-      </c>
-      <c r="D169" s="59"/>
-      <c r="E169" s="59"/>
-      <c r="F169" s="60"/>
-      <c r="G169" s="59"/>
-      <c r="H169" s="61"/>
-      <c r="I169" s="61"/>
-      <c r="J169" s="61"/>
-      <c r="K169" s="61"/>
-      <c r="L169" s="61"/>
-      <c r="M169" s="61"/>
-      <c r="N169" s="61"/>
-      <c r="O169" s="61"/>
-      <c r="P169" s="61"/>
-      <c r="Q169" s="59"/>
-      <c r="R169" s="59">
+      <c r="AB170" s="53"/>
+      <c r="AC170" s="53"/>
+      <c r="AD170" s="53"/>
+      <c r="AE170" s="54"/>
+    </row>
+    <row r="171" ht="20.95" customHeight="1">
+      <c r="A171" t="s" s="57">
+        <v>252</v>
+      </c>
+      <c r="B171" t="s" s="58">
+        <v>253</v>
+      </c>
+      <c r="C171" t="s" s="59">
+        <v>233</v>
+      </c>
+      <c r="D171" s="60"/>
+      <c r="E171" s="60"/>
+      <c r="F171" s="61"/>
+      <c r="G171" s="60"/>
+      <c r="H171" s="62"/>
+      <c r="I171" s="62"/>
+      <c r="J171" s="62"/>
+      <c r="K171" s="62"/>
+      <c r="L171" s="62"/>
+      <c r="M171" s="62"/>
+      <c r="N171" s="62"/>
+      <c r="O171" s="62"/>
+      <c r="P171" s="62"/>
+      <c r="Q171" s="60"/>
+      <c r="R171" s="60">
         <v>20</v>
       </c>
-      <c r="S169" s="61">
+      <c r="S171" s="62">
         <v>540</v>
       </c>
-      <c r="T169" s="61">
+      <c r="T171" s="62">
         <v>100</v>
       </c>
-      <c r="U169" s="61">
+      <c r="U171" s="62">
         <v>4000</v>
       </c>
-      <c r="V169" s="61">
+      <c r="V171" s="62">
         <v>4000</v>
       </c>
-      <c r="W169" s="61">
+      <c r="W171" s="62">
         <v>30</v>
       </c>
-      <c r="X169" s="61">
+      <c r="X171" s="62">
         <v>5000</v>
       </c>
-      <c r="Y169" s="61">
+      <c r="Y171" s="62">
         <v>5000000</v>
       </c>
-      <c r="Z169" s="61">
+      <c r="Z171" s="62">
         <v>100000</v>
       </c>
-      <c r="AA169" s="61">
+      <c r="AA171" s="62">
         <v>3000</v>
       </c>
-      <c r="AB169" s="61">
+      <c r="AB171" s="62">
         <v>500</v>
       </c>
-      <c r="AC169" s="61">
+      <c r="AC171" s="62">
         <v>75</v>
       </c>
-      <c r="AD169" s="61">
+      <c r="AD171" s="62">
         <v>50</v>
       </c>
-      <c r="AE169" s="62">
+      <c r="AE171" s="63">
         <v>1000</v>
       </c>
     </row>
